--- a/Code/Results/Cases/Case_0_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_11/res_line/pl_mw.xlsx
@@ -415,19 +415,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.09015120610443716</v>
+        <v>0.09015120610425242</v>
       </c>
       <c r="D2">
-        <v>0.03030521221172666</v>
+        <v>0.03030521221179239</v>
       </c>
       <c r="E2">
-        <v>0.5328516133914007</v>
+        <v>0.5328516133914292</v>
       </c>
       <c r="F2">
         <v>1.486343800642189</v>
       </c>
       <c r="G2">
-        <v>1.135602815962287</v>
+        <v>1.135602815962272</v>
       </c>
       <c r="H2">
         <v>1.207902806923272</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>22.60372341898312</v>
+        <v>22.60372341898301</v>
       </c>
       <c r="K2">
-        <v>0.3290711615261444</v>
+        <v>0.3290711615261586</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,31 +453,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.07686330266570707</v>
+        <v>0.07686330266584918</v>
       </c>
       <c r="D3">
-        <v>0.01897224239546436</v>
+        <v>0.01897224239562156</v>
       </c>
       <c r="E3">
-        <v>0.4501737948916258</v>
+        <v>0.4501737948916613</v>
       </c>
       <c r="F3">
         <v>1.181451800875323</v>
       </c>
       <c r="G3">
-        <v>0.8888150704957596</v>
+        <v>0.8888150704957738</v>
       </c>
       <c r="H3">
-        <v>0.9591027905914729</v>
+        <v>0.9591027905914871</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>19.38046770028706</v>
+        <v>19.380467700287</v>
       </c>
       <c r="K3">
-        <v>0.2758899173035232</v>
+        <v>0.2758899173034877</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,19 +491,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.06902041412410398</v>
+        <v>0.0690204141238695</v>
       </c>
       <c r="D4">
-        <v>0.01351445842334176</v>
+        <v>0.0135144584232787</v>
       </c>
       <c r="E4">
         <v>0.4019533326509901</v>
       </c>
       <c r="F4">
-        <v>1.018466065636758</v>
+        <v>1.018466065636773</v>
       </c>
       <c r="G4">
-        <v>0.758661208980385</v>
+        <v>0.7586612089803992</v>
       </c>
       <c r="H4">
         <v>0.8262795067962898</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>17.45868492434187</v>
+        <v>17.45868492434198</v>
       </c>
       <c r="K4">
-        <v>0.2451854270192229</v>
+        <v>0.2451854270192371</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,22 +529,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.06588596662912494</v>
+        <v>0.06588596662911783</v>
       </c>
       <c r="D5">
-        <v>0.01159190963721546</v>
+        <v>0.0115919096373176</v>
       </c>
       <c r="E5">
-        <v>0.3828113668234394</v>
+        <v>0.3828113668234465</v>
       </c>
       <c r="F5">
-        <v>0.9569932932035812</v>
+        <v>0.9569932932035385</v>
       </c>
       <c r="G5">
-        <v>0.7099832398666379</v>
+        <v>0.7099832398666237</v>
       </c>
       <c r="H5">
-        <v>0.7762221944815977</v>
+        <v>0.7762221944815835</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -567,22 +567,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.06536876349839815</v>
+        <v>0.06536876349847631</v>
       </c>
       <c r="D6">
-        <v>0.01128899117365734</v>
+        <v>0.01128899117382431</v>
       </c>
       <c r="E6">
-        <v>0.3796602370504729</v>
+        <v>0.3796602370505155</v>
       </c>
       <c r="F6">
-        <v>0.9470556151731842</v>
+        <v>0.9470556151731699</v>
       </c>
       <c r="G6">
-        <v>0.7021381498309438</v>
+        <v>0.7021381498309367</v>
       </c>
       <c r="H6">
-        <v>0.7681321841855677</v>
+        <v>0.7681321841855606</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -605,31 +605,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06897791329821246</v>
+        <v>0.06897791329843983</v>
       </c>
       <c r="D7">
-        <v>0.01348739691618217</v>
+        <v>0.01348739691606671</v>
       </c>
       <c r="E7">
-        <v>0.4016932727751694</v>
+        <v>0.4016932727751623</v>
       </c>
       <c r="F7">
-        <v>1.017618332303385</v>
+        <v>1.0176183323034</v>
       </c>
       <c r="G7">
         <v>0.7579882440215755</v>
       </c>
       <c r="H7">
-        <v>0.8255890400770838</v>
+        <v>0.8255890400770909</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>17.44823241171184</v>
+        <v>17.44823241171179</v>
       </c>
       <c r="K7">
-        <v>0.2450204784004484</v>
+        <v>0.2450204784004626</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.08549187926453783</v>
+        <v>0.0854918792644952</v>
       </c>
       <c r="D8">
-        <v>0.02603436872506393</v>
+        <v>0.02603436872484721</v>
       </c>
       <c r="E8">
         <v>0.5037272613065298</v>
       </c>
       <c r="F8">
-        <v>1.375414038677505</v>
+        <v>1.375414038677491</v>
       </c>
       <c r="G8">
-        <v>1.045385949823199</v>
+        <v>1.045385949823228</v>
       </c>
       <c r="H8">
-        <v>1.117336777826694</v>
+        <v>1.117336777826708</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>21.47826667345134</v>
       </c>
       <c r="K8">
-        <v>0.3102618476766992</v>
+        <v>0.310261847676685</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,13 +681,13 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1214810009164893</v>
+        <v>0.1214810009164751</v>
       </c>
       <c r="D9">
-        <v>0.06732992412501959</v>
+        <v>0.06732992412494987</v>
       </c>
       <c r="E9">
-        <v>0.7321165179916704</v>
+        <v>0.7321165179917131</v>
       </c>
       <c r="F9">
         <v>2.340135390682192</v>
@@ -696,13 +696,13 @@
         <v>1.841508461485773</v>
       </c>
       <c r="H9">
-        <v>1.906272836267547</v>
+        <v>1.906272836267561</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>30.03268592758985</v>
+        <v>30.03268592758991</v>
       </c>
       <c r="K9">
         <v>0.4598742112325453</v>
@@ -719,31 +719,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.152442097013008</v>
+        <v>0.1524420970132212</v>
       </c>
       <c r="D10">
-        <v>0.1183330811363135</v>
+        <v>0.1183330811361207</v>
       </c>
       <c r="E10">
-        <v>0.9344986203805092</v>
+        <v>0.9344986203805519</v>
       </c>
       <c r="F10">
-        <v>3.361418296395769</v>
+        <v>3.361418296395712</v>
       </c>
       <c r="G10">
-        <v>2.703511038983905</v>
+        <v>2.703511038983848</v>
       </c>
       <c r="H10">
-        <v>2.743938024533179</v>
+        <v>2.743938024533136</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>37.12348144502585</v>
+        <v>37.12348144502545</v>
       </c>
       <c r="K10">
-        <v>0.5963600783754543</v>
+        <v>0.5963600783754259</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,31 +757,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1684627398945082</v>
+        <v>0.1684627398943803</v>
       </c>
       <c r="D11">
-        <v>0.1505427577289202</v>
+        <v>0.150542757729017</v>
       </c>
       <c r="E11">
-        <v>1.04133473008217</v>
+        <v>1.041334730082141</v>
       </c>
       <c r="F11">
-        <v>3.957836492189159</v>
+        <v>3.957836492189188</v>
       </c>
       <c r="G11">
-        <v>3.212885397565074</v>
+        <v>3.212885397565088</v>
       </c>
       <c r="H11">
-        <v>3.234039091307451</v>
+        <v>3.23403909130748</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>40.68841087765924</v>
+        <v>40.68841087765935</v>
       </c>
       <c r="K11">
-        <v>0.6698584051627421</v>
+        <v>0.669858405162735</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,31 +795,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1749559700332526</v>
+        <v>0.1749559700336363</v>
       </c>
       <c r="D12">
-        <v>0.1647648422071901</v>
+        <v>0.1647648422074868</v>
       </c>
       <c r="E12">
         <v>1.085064550823986</v>
       </c>
       <c r="F12">
-        <v>4.212781699559883</v>
+        <v>4.212781699559827</v>
       </c>
       <c r="G12">
-        <v>3.43169827193482</v>
+        <v>3.431698271934792</v>
       </c>
       <c r="H12">
-        <v>3.443721219710952</v>
+        <v>3.443721219710923</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>42.11218332526317</v>
+        <v>42.11218332526323</v>
       </c>
       <c r="K12">
-        <v>0.7002302088902965</v>
+        <v>0.7002302088903036</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,22 +833,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1735350749521842</v>
+        <v>0.1735350749523548</v>
       </c>
       <c r="D13">
-        <v>0.1615942485661508</v>
+        <v>0.1615942485662334</v>
       </c>
       <c r="E13">
         <v>1.07547355157466</v>
       </c>
       <c r="F13">
-        <v>4.156339054585473</v>
+        <v>4.156339054585516</v>
       </c>
       <c r="G13">
-        <v>3.383203736184058</v>
+        <v>3.383203736184072</v>
       </c>
       <c r="H13">
-        <v>3.39729030800568</v>
+        <v>3.397290308005708</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>41.80168162186078</v>
       </c>
       <c r="K13">
-        <v>0.6935546319062951</v>
+        <v>0.6935546319062524</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0.1689871812559005</v>
       </c>
       <c r="D14">
-        <v>0.1516661523980201</v>
+        <v>0.1516661523979259</v>
       </c>
       <c r="E14">
-        <v>1.044857300492353</v>
+        <v>1.044857300492325</v>
       </c>
       <c r="F14">
-        <v>3.978144096051381</v>
+        <v>3.978144096051366</v>
       </c>
       <c r="G14">
-        <v>3.23029271526427</v>
+        <v>3.230292715264298</v>
       </c>
       <c r="H14">
         <v>3.25073736764196</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>40.8038632767682</v>
+        <v>40.80386327676814</v>
       </c>
       <c r="K14">
-        <v>0.67229875688205</v>
+        <v>0.6722987568820429</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -912,19 +912,19 @@
         <v>0.1662630856129539</v>
       </c>
       <c r="D15">
-        <v>0.1458790248126194</v>
+        <v>0.1458790248126114</v>
       </c>
       <c r="E15">
-        <v>1.026577807309522</v>
+        <v>1.02657780730955</v>
       </c>
       <c r="F15">
-        <v>3.873202818184708</v>
+        <v>3.873202818184765</v>
       </c>
       <c r="G15">
-        <v>3.140381602322634</v>
+        <v>3.140381602322677</v>
       </c>
       <c r="H15">
-        <v>3.164454990151015</v>
+        <v>3.164454990151071</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>40.20330053556904</v>
       </c>
       <c r="K15">
-        <v>0.6596469513649907</v>
+        <v>0.659646951364941</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,31 +947,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1514447315915675</v>
+        <v>0.1514447315919227</v>
       </c>
       <c r="D16">
-        <v>0.1164612967080991</v>
+        <v>0.1164612967081133</v>
       </c>
       <c r="E16">
-        <v>0.9278960359149266</v>
+        <v>0.9278960359149835</v>
       </c>
       <c r="F16">
         <v>3.325818805672796</v>
       </c>
       <c r="G16">
-        <v>2.673229412248361</v>
+        <v>2.673229412248403</v>
       </c>
       <c r="H16">
-        <v>2.714704365484565</v>
+        <v>2.714704365484579</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>36.89914170688598</v>
+        <v>36.89914170688616</v>
       </c>
       <c r="K16">
-        <v>0.591850541566501</v>
+        <v>0.5918505415664939</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1429299856255284</v>
+        <v>0.1429299856252442</v>
       </c>
       <c r="D17">
-        <v>0.1011083392445293</v>
+        <v>0.1011083392444929</v>
       </c>
       <c r="E17">
-        <v>0.8717550098013476</v>
+        <v>0.8717550098013618</v>
       </c>
       <c r="F17">
-        <v>3.029197531990818</v>
+        <v>3.029197531990789</v>
       </c>
       <c r="G17">
-        <v>2.421513846903878</v>
+        <v>2.421513846903864</v>
       </c>
       <c r="H17">
-        <v>2.471216470464583</v>
+        <v>2.471216470464555</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>34.97265492834487</v>
+        <v>34.9726549283447</v>
       </c>
       <c r="K17">
         <v>0.5536606681274705</v>
@@ -1023,28 +1023,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1382026513691983</v>
+        <v>0.1382026513692978</v>
       </c>
       <c r="D18">
-        <v>0.09306524859151555</v>
+        <v>0.09306524859152887</v>
       </c>
       <c r="E18">
-        <v>0.840759966124466</v>
+        <v>0.8407599661244518</v>
       </c>
       <c r="F18">
-        <v>2.870162809149505</v>
+        <v>2.870162809149477</v>
       </c>
       <c r="G18">
-        <v>2.287022686491312</v>
+        <v>2.287022686491284</v>
       </c>
       <c r="H18">
-        <v>2.340739580609366</v>
+        <v>2.340739580609352</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>33.89448770905204</v>
+        <v>33.8944877090521</v>
       </c>
       <c r="K18">
         <v>0.5326947516465594</v>
@@ -1061,31 +1061,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.136628088738334</v>
+        <v>0.1366280887381492</v>
       </c>
       <c r="D19">
-        <v>0.09046191313374852</v>
+        <v>0.09046191313355312</v>
       </c>
       <c r="E19">
-        <v>0.8304637235211629</v>
+        <v>0.8304637235211771</v>
       </c>
       <c r="F19">
-        <v>2.818088830642736</v>
+        <v>2.818088830642722</v>
       </c>
       <c r="G19">
         <v>2.243061077178623</v>
       </c>
       <c r="H19">
-        <v>2.298027577512542</v>
+        <v>2.29802757751257</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>33.53402960339042</v>
+        <v>33.53402960339037</v>
       </c>
       <c r="K19">
-        <v>0.5257487682698851</v>
+        <v>0.5257487682698567</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,31 +1099,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1438179909602866</v>
+        <v>0.1438179909599882</v>
       </c>
       <c r="D20">
-        <v>0.1026573340148467</v>
+        <v>0.1026573340147525</v>
       </c>
       <c r="E20">
         <v>0.8775910961074516</v>
       </c>
       <c r="F20">
-        <v>3.059521562175945</v>
+        <v>3.05952156217603</v>
       </c>
       <c r="G20">
-        <v>2.447196344458789</v>
+        <v>2.447196344458874</v>
       </c>
       <c r="H20">
-        <v>2.496100888738383</v>
+        <v>2.496100888738439</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>35.17450267768817</v>
+        <v>35.17450267768834</v>
       </c>
       <c r="K20">
-        <v>0.557617795643246</v>
+        <v>0.5576177956432389</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,31 +1137,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1703097444929398</v>
+        <v>0.1703097444929114</v>
       </c>
       <c r="D21">
-        <v>0.1545188525233279</v>
+        <v>0.1545188525233234</v>
       </c>
       <c r="E21">
         <v>1.053747966227959</v>
       </c>
       <c r="F21">
-        <v>4.029578016501205</v>
+        <v>4.029578016501318</v>
       </c>
       <c r="G21">
-        <v>3.274398427678491</v>
+        <v>3.274398427678548</v>
       </c>
       <c r="H21">
-        <v>3.293032842322091</v>
+        <v>3.293032842322191</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>41.09466102020804</v>
+        <v>41.09466102020815</v>
       </c>
       <c r="K21">
-        <v>0.6784628178007068</v>
+        <v>0.6784628178006926</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1902743594058052</v>
+        <v>0.1902743594056346</v>
       </c>
       <c r="D22">
-        <v>0.2010602749992678</v>
+        <v>0.2010602749995654</v>
       </c>
       <c r="E22">
-        <v>1.189264809836729</v>
+        <v>1.1892648098367</v>
       </c>
       <c r="F22">
-        <v>4.844666930161139</v>
+        <v>4.844666930161253</v>
       </c>
       <c r="G22">
-        <v>3.976445342344547</v>
+        <v>3.976445342344618</v>
       </c>
       <c r="H22">
-        <v>3.963865621639258</v>
+        <v>3.9638656216393</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>45.42131054909549</v>
+        <v>45.42131054909589</v>
       </c>
       <c r="K22">
-        <v>0.7732750814966991</v>
+        <v>0.7732750814967062</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,28 +1213,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1792949949196156</v>
+        <v>0.1792949949198004</v>
       </c>
       <c r="D23">
-        <v>0.1746511999275278</v>
+        <v>0.1746511999275189</v>
       </c>
       <c r="E23">
-        <v>1.114429464515837</v>
+        <v>1.114429464515851</v>
       </c>
       <c r="F23">
-        <v>4.387414585912182</v>
+        <v>4.387414585912254</v>
       </c>
       <c r="G23">
-        <v>3.581917404320421</v>
+        <v>3.581917404320478</v>
       </c>
       <c r="H23">
-        <v>3.587410195937963</v>
+        <v>3.58741019593802</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>43.05666814342271</v>
+        <v>43.05666814342266</v>
       </c>
       <c r="K23">
         <v>0.7207189526337601</v>
@@ -1251,31 +1251,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1434160102993758</v>
+        <v>0.1434160102996458</v>
       </c>
       <c r="D24">
-        <v>0.1019546394111694</v>
+        <v>0.1019546394111774</v>
       </c>
       <c r="E24">
-        <v>0.8749486844062488</v>
+        <v>0.8749486844062631</v>
       </c>
       <c r="F24">
-        <v>3.045776906961933</v>
+        <v>3.045776906961891</v>
       </c>
       <c r="G24">
-        <v>2.435554023228462</v>
+        <v>2.43555402322842</v>
       </c>
       <c r="H24">
-        <v>2.484821567463442</v>
+        <v>2.484821567463399</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>35.08315736970007</v>
+        <v>35.08315736970019</v>
       </c>
       <c r="K24">
-        <v>0.5558257521996737</v>
+        <v>0.5558257521996453</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,31 +1289,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.111172397375455</v>
+        <v>0.1111723973754408</v>
       </c>
       <c r="D25">
-        <v>0.05354745710778364</v>
+        <v>0.05354745710778985</v>
       </c>
       <c r="E25">
-        <v>0.6659184726234528</v>
+        <v>0.6659184726234599</v>
       </c>
       <c r="F25">
-        <v>2.038882798001239</v>
+        <v>2.038882798001268</v>
       </c>
       <c r="G25">
-        <v>1.590488135219147</v>
+        <v>1.590488135219189</v>
       </c>
       <c r="H25">
-        <v>1.65962544125199</v>
+        <v>1.659625441252004</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>27.61553443111188</v>
+        <v>27.615534431112</v>
       </c>
       <c r="K25">
-        <v>0.4160187156271888</v>
+        <v>0.4160187156272102</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_11/res_line/pl_mw.xlsx
@@ -415,19 +415,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.09015120610425242</v>
+        <v>0.09015120610443716</v>
       </c>
       <c r="D2">
-        <v>0.03030521221179239</v>
+        <v>0.03030521221172666</v>
       </c>
       <c r="E2">
-        <v>0.5328516133914292</v>
+        <v>0.5328516133914007</v>
       </c>
       <c r="F2">
         <v>1.486343800642189</v>
       </c>
       <c r="G2">
-        <v>1.135602815962272</v>
+        <v>1.135602815962287</v>
       </c>
       <c r="H2">
         <v>1.207902806923272</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>22.60372341898301</v>
+        <v>22.60372341898312</v>
       </c>
       <c r="K2">
-        <v>0.3290711615261586</v>
+        <v>0.3290711615261444</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,31 +453,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.07686330266584918</v>
+        <v>0.07686330266570707</v>
       </c>
       <c r="D3">
-        <v>0.01897224239562156</v>
+        <v>0.01897224239546436</v>
       </c>
       <c r="E3">
-        <v>0.4501737948916613</v>
+        <v>0.4501737948916258</v>
       </c>
       <c r="F3">
         <v>1.181451800875323</v>
       </c>
       <c r="G3">
-        <v>0.8888150704957738</v>
+        <v>0.8888150704957596</v>
       </c>
       <c r="H3">
-        <v>0.9591027905914871</v>
+        <v>0.9591027905914729</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>19.380467700287</v>
+        <v>19.38046770028706</v>
       </c>
       <c r="K3">
-        <v>0.2758899173034877</v>
+        <v>0.2758899173035232</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,19 +491,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0690204141238695</v>
+        <v>0.06902041412410398</v>
       </c>
       <c r="D4">
-        <v>0.0135144584232787</v>
+        <v>0.01351445842334176</v>
       </c>
       <c r="E4">
         <v>0.4019533326509901</v>
       </c>
       <c r="F4">
-        <v>1.018466065636773</v>
+        <v>1.018466065636758</v>
       </c>
       <c r="G4">
-        <v>0.7586612089803992</v>
+        <v>0.758661208980385</v>
       </c>
       <c r="H4">
         <v>0.8262795067962898</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>17.45868492434198</v>
+        <v>17.45868492434187</v>
       </c>
       <c r="K4">
-        <v>0.2451854270192371</v>
+        <v>0.2451854270192229</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,22 +529,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.06588596662911783</v>
+        <v>0.06588596662912494</v>
       </c>
       <c r="D5">
-        <v>0.0115919096373176</v>
+        <v>0.01159190963721546</v>
       </c>
       <c r="E5">
-        <v>0.3828113668234465</v>
+        <v>0.3828113668234394</v>
       </c>
       <c r="F5">
-        <v>0.9569932932035385</v>
+        <v>0.9569932932035812</v>
       </c>
       <c r="G5">
-        <v>0.7099832398666237</v>
+        <v>0.7099832398666379</v>
       </c>
       <c r="H5">
-        <v>0.7762221944815835</v>
+        <v>0.7762221944815977</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -567,22 +567,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.06536876349847631</v>
+        <v>0.06536876349839815</v>
       </c>
       <c r="D6">
-        <v>0.01128899117382431</v>
+        <v>0.01128899117365734</v>
       </c>
       <c r="E6">
-        <v>0.3796602370505155</v>
+        <v>0.3796602370504729</v>
       </c>
       <c r="F6">
-        <v>0.9470556151731699</v>
+        <v>0.9470556151731842</v>
       </c>
       <c r="G6">
-        <v>0.7021381498309367</v>
+        <v>0.7021381498309438</v>
       </c>
       <c r="H6">
-        <v>0.7681321841855606</v>
+        <v>0.7681321841855677</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -605,31 +605,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06897791329843983</v>
+        <v>0.06897791329821246</v>
       </c>
       <c r="D7">
-        <v>0.01348739691606671</v>
+        <v>0.01348739691618217</v>
       </c>
       <c r="E7">
-        <v>0.4016932727751623</v>
+        <v>0.4016932727751694</v>
       </c>
       <c r="F7">
-        <v>1.0176183323034</v>
+        <v>1.017618332303385</v>
       </c>
       <c r="G7">
         <v>0.7579882440215755</v>
       </c>
       <c r="H7">
-        <v>0.8255890400770909</v>
+        <v>0.8255890400770838</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>17.44823241171179</v>
+        <v>17.44823241171184</v>
       </c>
       <c r="K7">
-        <v>0.2450204784004626</v>
+        <v>0.2450204784004484</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0854918792644952</v>
+        <v>0.08549187926453783</v>
       </c>
       <c r="D8">
-        <v>0.02603436872484721</v>
+        <v>0.02603436872506393</v>
       </c>
       <c r="E8">
         <v>0.5037272613065298</v>
       </c>
       <c r="F8">
-        <v>1.375414038677491</v>
+        <v>1.375414038677505</v>
       </c>
       <c r="G8">
-        <v>1.045385949823228</v>
+        <v>1.045385949823199</v>
       </c>
       <c r="H8">
-        <v>1.117336777826708</v>
+        <v>1.117336777826694</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>21.47826667345134</v>
       </c>
       <c r="K8">
-        <v>0.310261847676685</v>
+        <v>0.3102618476766992</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,13 +681,13 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1214810009164751</v>
+        <v>0.1214810009164893</v>
       </c>
       <c r="D9">
-        <v>0.06732992412494987</v>
+        <v>0.06732992412501959</v>
       </c>
       <c r="E9">
-        <v>0.7321165179917131</v>
+        <v>0.7321165179916704</v>
       </c>
       <c r="F9">
         <v>2.340135390682192</v>
@@ -696,13 +696,13 @@
         <v>1.841508461485773</v>
       </c>
       <c r="H9">
-        <v>1.906272836267561</v>
+        <v>1.906272836267547</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>30.03268592758991</v>
+        <v>30.03268592758985</v>
       </c>
       <c r="K9">
         <v>0.4598742112325453</v>
@@ -719,31 +719,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1524420970132212</v>
+        <v>0.152442097013008</v>
       </c>
       <c r="D10">
-        <v>0.1183330811361207</v>
+        <v>0.1183330811363135</v>
       </c>
       <c r="E10">
-        <v>0.9344986203805519</v>
+        <v>0.9344986203805092</v>
       </c>
       <c r="F10">
-        <v>3.361418296395712</v>
+        <v>3.361418296395769</v>
       </c>
       <c r="G10">
-        <v>2.703511038983848</v>
+        <v>2.703511038983905</v>
       </c>
       <c r="H10">
-        <v>2.743938024533136</v>
+        <v>2.743938024533179</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>37.12348144502545</v>
+        <v>37.12348144502585</v>
       </c>
       <c r="K10">
-        <v>0.5963600783754259</v>
+        <v>0.5963600783754543</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,31 +757,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1684627398943803</v>
+        <v>0.1684627398945082</v>
       </c>
       <c r="D11">
-        <v>0.150542757729017</v>
+        <v>0.1505427577289202</v>
       </c>
       <c r="E11">
-        <v>1.041334730082141</v>
+        <v>1.04133473008217</v>
       </c>
       <c r="F11">
-        <v>3.957836492189188</v>
+        <v>3.957836492189159</v>
       </c>
       <c r="G11">
-        <v>3.212885397565088</v>
+        <v>3.212885397565074</v>
       </c>
       <c r="H11">
-        <v>3.23403909130748</v>
+        <v>3.234039091307451</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>40.68841087765935</v>
+        <v>40.68841087765924</v>
       </c>
       <c r="K11">
-        <v>0.669858405162735</v>
+        <v>0.6698584051627421</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,31 +795,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1749559700336363</v>
+        <v>0.1749559700332526</v>
       </c>
       <c r="D12">
-        <v>0.1647648422074868</v>
+        <v>0.1647648422071901</v>
       </c>
       <c r="E12">
         <v>1.085064550823986</v>
       </c>
       <c r="F12">
-        <v>4.212781699559827</v>
+        <v>4.212781699559883</v>
       </c>
       <c r="G12">
-        <v>3.431698271934792</v>
+        <v>3.43169827193482</v>
       </c>
       <c r="H12">
-        <v>3.443721219710923</v>
+        <v>3.443721219710952</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>42.11218332526323</v>
+        <v>42.11218332526317</v>
       </c>
       <c r="K12">
-        <v>0.7002302088903036</v>
+        <v>0.7002302088902965</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,22 +833,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1735350749523548</v>
+        <v>0.1735350749521842</v>
       </c>
       <c r="D13">
-        <v>0.1615942485662334</v>
+        <v>0.1615942485661508</v>
       </c>
       <c r="E13">
         <v>1.07547355157466</v>
       </c>
       <c r="F13">
-        <v>4.156339054585516</v>
+        <v>4.156339054585473</v>
       </c>
       <c r="G13">
-        <v>3.383203736184072</v>
+        <v>3.383203736184058</v>
       </c>
       <c r="H13">
-        <v>3.397290308005708</v>
+        <v>3.39729030800568</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>41.80168162186078</v>
       </c>
       <c r="K13">
-        <v>0.6935546319062524</v>
+        <v>0.6935546319062951</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0.1689871812559005</v>
       </c>
       <c r="D14">
-        <v>0.1516661523979259</v>
+        <v>0.1516661523980201</v>
       </c>
       <c r="E14">
-        <v>1.044857300492325</v>
+        <v>1.044857300492353</v>
       </c>
       <c r="F14">
-        <v>3.978144096051366</v>
+        <v>3.978144096051381</v>
       </c>
       <c r="G14">
-        <v>3.230292715264298</v>
+        <v>3.23029271526427</v>
       </c>
       <c r="H14">
         <v>3.25073736764196</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>40.80386327676814</v>
+        <v>40.8038632767682</v>
       </c>
       <c r="K14">
-        <v>0.6722987568820429</v>
+        <v>0.67229875688205</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -912,19 +912,19 @@
         <v>0.1662630856129539</v>
       </c>
       <c r="D15">
-        <v>0.1458790248126114</v>
+        <v>0.1458790248126194</v>
       </c>
       <c r="E15">
-        <v>1.02657780730955</v>
+        <v>1.026577807309522</v>
       </c>
       <c r="F15">
-        <v>3.873202818184765</v>
+        <v>3.873202818184708</v>
       </c>
       <c r="G15">
-        <v>3.140381602322677</v>
+        <v>3.140381602322634</v>
       </c>
       <c r="H15">
-        <v>3.164454990151071</v>
+        <v>3.164454990151015</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>40.20330053556904</v>
       </c>
       <c r="K15">
-        <v>0.659646951364941</v>
+        <v>0.6596469513649907</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,31 +947,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1514447315919227</v>
+        <v>0.1514447315915675</v>
       </c>
       <c r="D16">
-        <v>0.1164612967081133</v>
+        <v>0.1164612967080991</v>
       </c>
       <c r="E16">
-        <v>0.9278960359149835</v>
+        <v>0.9278960359149266</v>
       </c>
       <c r="F16">
         <v>3.325818805672796</v>
       </c>
       <c r="G16">
-        <v>2.673229412248403</v>
+        <v>2.673229412248361</v>
       </c>
       <c r="H16">
-        <v>2.714704365484579</v>
+        <v>2.714704365484565</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>36.89914170688616</v>
+        <v>36.89914170688598</v>
       </c>
       <c r="K16">
-        <v>0.5918505415664939</v>
+        <v>0.591850541566501</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1429299856252442</v>
+        <v>0.1429299856255284</v>
       </c>
       <c r="D17">
-        <v>0.1011083392444929</v>
+        <v>0.1011083392445293</v>
       </c>
       <c r="E17">
-        <v>0.8717550098013618</v>
+        <v>0.8717550098013476</v>
       </c>
       <c r="F17">
-        <v>3.029197531990789</v>
+        <v>3.029197531990818</v>
       </c>
       <c r="G17">
-        <v>2.421513846903864</v>
+        <v>2.421513846903878</v>
       </c>
       <c r="H17">
-        <v>2.471216470464555</v>
+        <v>2.471216470464583</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>34.9726549283447</v>
+        <v>34.97265492834487</v>
       </c>
       <c r="K17">
         <v>0.5536606681274705</v>
@@ -1023,28 +1023,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1382026513692978</v>
+        <v>0.1382026513691983</v>
       </c>
       <c r="D18">
-        <v>0.09306524859152887</v>
+        <v>0.09306524859151555</v>
       </c>
       <c r="E18">
-        <v>0.8407599661244518</v>
+        <v>0.840759966124466</v>
       </c>
       <c r="F18">
-        <v>2.870162809149477</v>
+        <v>2.870162809149505</v>
       </c>
       <c r="G18">
-        <v>2.287022686491284</v>
+        <v>2.287022686491312</v>
       </c>
       <c r="H18">
-        <v>2.340739580609352</v>
+        <v>2.340739580609366</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>33.8944877090521</v>
+        <v>33.89448770905204</v>
       </c>
       <c r="K18">
         <v>0.5326947516465594</v>
@@ -1061,31 +1061,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1366280887381492</v>
+        <v>0.136628088738334</v>
       </c>
       <c r="D19">
-        <v>0.09046191313355312</v>
+        <v>0.09046191313374852</v>
       </c>
       <c r="E19">
-        <v>0.8304637235211771</v>
+        <v>0.8304637235211629</v>
       </c>
       <c r="F19">
-        <v>2.818088830642722</v>
+        <v>2.818088830642736</v>
       </c>
       <c r="G19">
         <v>2.243061077178623</v>
       </c>
       <c r="H19">
-        <v>2.29802757751257</v>
+        <v>2.298027577512542</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>33.53402960339037</v>
+        <v>33.53402960339042</v>
       </c>
       <c r="K19">
-        <v>0.5257487682698567</v>
+        <v>0.5257487682698851</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,31 +1099,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1438179909599882</v>
+        <v>0.1438179909602866</v>
       </c>
       <c r="D20">
-        <v>0.1026573340147525</v>
+        <v>0.1026573340148467</v>
       </c>
       <c r="E20">
         <v>0.8775910961074516</v>
       </c>
       <c r="F20">
-        <v>3.05952156217603</v>
+        <v>3.059521562175945</v>
       </c>
       <c r="G20">
-        <v>2.447196344458874</v>
+        <v>2.447196344458789</v>
       </c>
       <c r="H20">
-        <v>2.496100888738439</v>
+        <v>2.496100888738383</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>35.17450267768834</v>
+        <v>35.17450267768817</v>
       </c>
       <c r="K20">
-        <v>0.5576177956432389</v>
+        <v>0.557617795643246</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,31 +1137,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1703097444929114</v>
+        <v>0.1703097444929398</v>
       </c>
       <c r="D21">
-        <v>0.1545188525233234</v>
+        <v>0.1545188525233279</v>
       </c>
       <c r="E21">
         <v>1.053747966227959</v>
       </c>
       <c r="F21">
-        <v>4.029578016501318</v>
+        <v>4.029578016501205</v>
       </c>
       <c r="G21">
-        <v>3.274398427678548</v>
+        <v>3.274398427678491</v>
       </c>
       <c r="H21">
-        <v>3.293032842322191</v>
+        <v>3.293032842322091</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>41.09466102020815</v>
+        <v>41.09466102020804</v>
       </c>
       <c r="K21">
-        <v>0.6784628178006926</v>
+        <v>0.6784628178007068</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1902743594056346</v>
+        <v>0.1902743594058052</v>
       </c>
       <c r="D22">
-        <v>0.2010602749995654</v>
+        <v>0.2010602749992678</v>
       </c>
       <c r="E22">
-        <v>1.1892648098367</v>
+        <v>1.189264809836729</v>
       </c>
       <c r="F22">
-        <v>4.844666930161253</v>
+        <v>4.844666930161139</v>
       </c>
       <c r="G22">
-        <v>3.976445342344618</v>
+        <v>3.976445342344547</v>
       </c>
       <c r="H22">
-        <v>3.9638656216393</v>
+        <v>3.963865621639258</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>45.42131054909589</v>
+        <v>45.42131054909549</v>
       </c>
       <c r="K22">
-        <v>0.7732750814967062</v>
+        <v>0.7732750814966991</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,28 +1213,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1792949949198004</v>
+        <v>0.1792949949196156</v>
       </c>
       <c r="D23">
-        <v>0.1746511999275189</v>
+        <v>0.1746511999275278</v>
       </c>
       <c r="E23">
-        <v>1.114429464515851</v>
+        <v>1.114429464515837</v>
       </c>
       <c r="F23">
-        <v>4.387414585912254</v>
+        <v>4.387414585912182</v>
       </c>
       <c r="G23">
-        <v>3.581917404320478</v>
+        <v>3.581917404320421</v>
       </c>
       <c r="H23">
-        <v>3.58741019593802</v>
+        <v>3.587410195937963</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>43.05666814342266</v>
+        <v>43.05666814342271</v>
       </c>
       <c r="K23">
         <v>0.7207189526337601</v>
@@ -1251,31 +1251,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1434160102996458</v>
+        <v>0.1434160102993758</v>
       </c>
       <c r="D24">
-        <v>0.1019546394111774</v>
+        <v>0.1019546394111694</v>
       </c>
       <c r="E24">
-        <v>0.8749486844062631</v>
+        <v>0.8749486844062488</v>
       </c>
       <c r="F24">
-        <v>3.045776906961891</v>
+        <v>3.045776906961933</v>
       </c>
       <c r="G24">
-        <v>2.43555402322842</v>
+        <v>2.435554023228462</v>
       </c>
       <c r="H24">
-        <v>2.484821567463399</v>
+        <v>2.484821567463442</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>35.08315736970019</v>
+        <v>35.08315736970007</v>
       </c>
       <c r="K24">
-        <v>0.5558257521996453</v>
+        <v>0.5558257521996737</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,31 +1289,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1111723973754408</v>
+        <v>0.111172397375455</v>
       </c>
       <c r="D25">
-        <v>0.05354745710778985</v>
+        <v>0.05354745710778364</v>
       </c>
       <c r="E25">
-        <v>0.6659184726234599</v>
+        <v>0.6659184726234528</v>
       </c>
       <c r="F25">
-        <v>2.038882798001268</v>
+        <v>2.038882798001239</v>
       </c>
       <c r="G25">
-        <v>1.590488135219189</v>
+        <v>1.590488135219147</v>
       </c>
       <c r="H25">
-        <v>1.659625441252004</v>
+        <v>1.65962544125199</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>27.615534431112</v>
+        <v>27.61553443111188</v>
       </c>
       <c r="K25">
-        <v>0.4160187156272102</v>
+        <v>0.4160187156271888</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_11/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.09015120610443716</v>
+        <v>0.09021784949206335</v>
       </c>
       <c r="D2">
-        <v>0.03030521221172666</v>
+        <v>0.03025339818304662</v>
       </c>
       <c r="E2">
-        <v>0.5328516133914007</v>
+        <v>0.5328152504402794</v>
       </c>
       <c r="F2">
-        <v>1.486343800642189</v>
+        <v>1.484119897580513</v>
       </c>
       <c r="G2">
-        <v>1.135602815962287</v>
+        <v>0.4084722518156099</v>
       </c>
       <c r="H2">
-        <v>1.207902806923272</v>
+        <v>0.7285000564106667</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.206088507866255</v>
       </c>
       <c r="J2">
-        <v>22.60372341898312</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3290711615261444</v>
+        <v>22.60181976528548</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.3289887559066429</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.07686330266570707</v>
+        <v>0.07692656085119864</v>
       </c>
       <c r="D3">
-        <v>0.01897224239546436</v>
+        <v>0.01894679928458931</v>
       </c>
       <c r="E3">
-        <v>0.4501737948916258</v>
+        <v>0.4501568381445153</v>
       </c>
       <c r="F3">
-        <v>1.181451800875323</v>
+        <v>1.179732927131283</v>
       </c>
       <c r="G3">
-        <v>0.8888150704957596</v>
+        <v>0.3188597563380924</v>
       </c>
       <c r="H3">
-        <v>0.9591027905914729</v>
+        <v>0.5720543070243949</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.9577018959180847</v>
       </c>
       <c r="J3">
-        <v>19.38046770028706</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2758899173035232</v>
+        <v>19.37919929104021</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.2758302438879667</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.06902041412410398</v>
+        <v>0.06908074089373173</v>
       </c>
       <c r="D4">
-        <v>0.01351445842334176</v>
+        <v>0.01350109101599983</v>
       </c>
       <c r="E4">
-        <v>0.4019533326509901</v>
+        <v>0.4019450520966643</v>
       </c>
       <c r="F4">
-        <v>1.018466065636758</v>
+        <v>1.017007495674747</v>
       </c>
       <c r="G4">
-        <v>0.758661208980385</v>
+        <v>0.2709848516476967</v>
       </c>
       <c r="H4">
-        <v>0.8262795067962898</v>
+        <v>0.4901604288915777</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.8250914709681609</v>
       </c>
       <c r="J4">
-        <v>17.45868492434187</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2451854270192229</v>
+        <v>17.4577243741133</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.2451369842008049</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.06588596662912494</v>
+        <v>0.06594493202979379</v>
       </c>
       <c r="D5">
-        <v>0.01159190963721546</v>
+        <v>0.01158266516408712</v>
       </c>
       <c r="E5">
-        <v>0.3828113668234394</v>
+        <v>0.3828060285339561</v>
       </c>
       <c r="F5">
-        <v>0.9569932932035812</v>
+        <v>0.9556312396158688</v>
       </c>
       <c r="G5">
-        <v>0.7099832398666379</v>
+        <v>0.2529285400033885</v>
       </c>
       <c r="H5">
-        <v>0.7762221944815977</v>
+        <v>0.4596834688721145</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.7751130381061913</v>
       </c>
       <c r="J5">
-        <v>16.68671286866271</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2330630904866808</v>
+        <v>16.68586238375042</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.2330187220072091</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.06536876349839815</v>
+        <v>0.06542749391743286</v>
       </c>
       <c r="D6">
-        <v>0.01128899117365734</v>
+        <v>0.01128038878804105</v>
       </c>
       <c r="E6">
-        <v>0.3796602370504729</v>
+        <v>0.3796553566319361</v>
       </c>
       <c r="F6">
-        <v>0.9470556151731842</v>
+        <v>0.9457090813732947</v>
       </c>
       <c r="G6">
-        <v>0.7021381498309438</v>
+        <v>0.2500093985820584</v>
       </c>
       <c r="H6">
-        <v>0.7681321841855677</v>
+        <v>0.4547808953860866</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.7670357090878923</v>
       </c>
       <c r="J6">
-        <v>16.55911983092926</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2310712188157851</v>
+        <v>16.5582868174472</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.2310275008287235</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06897791329821246</v>
+        <v>0.06903822233025636</v>
       </c>
       <c r="D7">
-        <v>0.01348739691618217</v>
+        <v>0.01347408807908135</v>
       </c>
       <c r="E7">
-        <v>0.4016932727751694</v>
+        <v>0.4016850340631919</v>
       </c>
       <c r="F7">
-        <v>1.017618332303385</v>
+        <v>1.016161099410226</v>
       </c>
       <c r="G7">
-        <v>0.7579882440215755</v>
+        <v>0.2707358549210142</v>
       </c>
       <c r="H7">
-        <v>0.8255890400770838</v>
+        <v>0.4897384575757044</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.8244020971661072</v>
       </c>
       <c r="J7">
-        <v>17.44823241171184</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2450204784004484</v>
+        <v>17.44727340236204</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.2449720923633407</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.08549187926453783</v>
+        <v>0.0855575659646064</v>
       </c>
       <c r="D8">
-        <v>0.02603436872506393</v>
+        <v>0.02599266887556162</v>
       </c>
       <c r="E8">
-        <v>0.5037272613065298</v>
+        <v>0.5036984211942226</v>
       </c>
       <c r="F8">
-        <v>1.375414038677505</v>
+        <v>1.37337669413867</v>
       </c>
       <c r="G8">
-        <v>1.045385949823199</v>
+        <v>0.3758568853939011</v>
       </c>
       <c r="H8">
-        <v>1.117336777826694</v>
+        <v>0.6711656311872929</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.115675249906459</v>
       </c>
       <c r="J8">
-        <v>21.47826667345134</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3102618476766992</v>
+        <v>21.47660286635943</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.3101879779688801</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1214810009164893</v>
+        <v>0.1215471740071621</v>
       </c>
       <c r="D9">
-        <v>0.06732992412501959</v>
+        <v>0.06718334869275466</v>
       </c>
       <c r="E9">
-        <v>0.7321165179916704</v>
+        <v>0.7320051955184681</v>
       </c>
       <c r="F9">
-        <v>2.340135390682192</v>
+        <v>2.336357833950586</v>
       </c>
       <c r="G9">
-        <v>1.841508461485773</v>
+        <v>0.6600593230907634</v>
       </c>
       <c r="H9">
-        <v>1.906272836267547</v>
+        <v>1.180677894768877</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.903184151052287</v>
       </c>
       <c r="J9">
-        <v>30.03268592758985</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4598742112325453</v>
+        <v>30.02860960340774</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.4597152225354009</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.152442097013008</v>
+        <v>0.1524942083541134</v>
       </c>
       <c r="D10">
-        <v>0.1183330811363135</v>
+        <v>0.1180371535528506</v>
       </c>
       <c r="E10">
-        <v>0.9344986203805092</v>
+        <v>0.9342559830157455</v>
       </c>
       <c r="F10">
-        <v>3.361418296395769</v>
+        <v>3.355460849161489</v>
       </c>
       <c r="G10">
-        <v>2.703511038983905</v>
+        <v>0.9623066478931293</v>
       </c>
       <c r="H10">
-        <v>2.743938024533179</v>
+        <v>1.737609895410216</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.739056535924249</v>
       </c>
       <c r="J10">
-        <v>37.12348144502585</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5963600783754543</v>
+        <v>37.11600538562743</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.596080217971604</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1684627398945082</v>
+        <v>0.168500998197942</v>
       </c>
       <c r="D11">
-        <v>0.1505427577289202</v>
+        <v>0.1501406436289061</v>
       </c>
       <c r="E11">
-        <v>1.04133473008217</v>
+        <v>1.0409910680807</v>
       </c>
       <c r="F11">
-        <v>3.957836492189159</v>
+        <v>3.950405425278774</v>
       </c>
       <c r="G11">
-        <v>3.212885397565074</v>
+        <v>1.139401873762424</v>
       </c>
       <c r="H11">
-        <v>3.234039091307451</v>
+        <v>2.068067078786555</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.227943278265386</v>
       </c>
       <c r="J11">
-        <v>40.68841087765924</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6698584051627421</v>
+        <v>40.67848503730102</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.6694897793443317</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1749559700332526</v>
+        <v>0.1749870765604271</v>
       </c>
       <c r="D12">
-        <v>0.1647648422071901</v>
+        <v>0.1643125942658337</v>
       </c>
       <c r="E12">
-        <v>1.085064550823986</v>
+        <v>1.084671323072286</v>
       </c>
       <c r="F12">
-        <v>4.212781699559883</v>
+        <v>4.20466691159838</v>
       </c>
       <c r="G12">
-        <v>3.43169827193482</v>
+        <v>1.215220607317235</v>
       </c>
       <c r="H12">
-        <v>3.443721219710952</v>
+        <v>2.210235121689877</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.437061446429794</v>
       </c>
       <c r="J12">
-        <v>42.11218332526317</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7002302088902965</v>
+        <v>42.10108974015805</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.6998187541394145</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1735350749521842</v>
+        <v>0.1735678289253997</v>
       </c>
       <c r="D13">
-        <v>0.1615942485661508</v>
+        <v>0.161153359375608</v>
       </c>
       <c r="E13">
-        <v>1.07547355157466</v>
+        <v>1.075091651831301</v>
       </c>
       <c r="F13">
-        <v>4.156339054585473</v>
+        <v>4.148378643432864</v>
       </c>
       <c r="G13">
-        <v>3.383203736184058</v>
+        <v>1.198429238936569</v>
       </c>
       <c r="H13">
-        <v>3.39729030800568</v>
+        <v>2.178717500207654</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.390757898949161</v>
       </c>
       <c r="J13">
-        <v>41.80168162186078</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6935546319062951</v>
+        <v>41.79085323230527</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.6931529325537369</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1689871812559005</v>
+        <v>0.1690248970508179</v>
       </c>
       <c r="D14">
-        <v>0.1516661523980201</v>
+        <v>0.1512601537389564</v>
       </c>
       <c r="E14">
-        <v>1.044857300492353</v>
+        <v>1.044509838551676</v>
       </c>
       <c r="F14">
-        <v>3.978144096051381</v>
+        <v>3.970659822943375</v>
       </c>
       <c r="G14">
-        <v>3.23029271526427</v>
+        <v>1.145438718951155</v>
       </c>
       <c r="H14">
-        <v>3.25073736764196</v>
+        <v>2.079372856123996</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.244597679748182</v>
       </c>
       <c r="J14">
-        <v>40.8038632767682</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.67229875688205</v>
+        <v>40.79384720977026</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.671926833655661</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1662630856129539</v>
+        <v>0.1663035545186489</v>
       </c>
       <c r="D15">
-        <v>0.1458790248126194</v>
+        <v>0.145492902320977</v>
       </c>
       <c r="E15">
-        <v>1.026577807309522</v>
+        <v>1.026249714501049</v>
       </c>
       <c r="F15">
-        <v>3.873202818184708</v>
+        <v>3.86599123298484</v>
       </c>
       <c r="G15">
-        <v>3.140381602322634</v>
+        <v>1.11424752904837</v>
       </c>
       <c r="H15">
-        <v>3.164454990151015</v>
+        <v>2.02098526145133</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.158540144345722</v>
       </c>
       <c r="J15">
-        <v>40.20330053556904</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6596469513649907</v>
+        <v>40.19374567878327</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.6592918625299475</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1514447315915675</v>
+        <v>0.1514975423024225</v>
       </c>
       <c r="D16">
-        <v>0.1164612967080991</v>
+        <v>0.1161712441392835</v>
       </c>
       <c r="E16">
-        <v>0.9278960359149266</v>
+        <v>0.9276588176889362</v>
       </c>
       <c r="F16">
-        <v>3.325818805672796</v>
+        <v>3.319944209559949</v>
       </c>
       <c r="G16">
-        <v>2.673229412248361</v>
+        <v>0.9517489222116495</v>
       </c>
       <c r="H16">
-        <v>2.714704365484565</v>
+        <v>1.717990285554578</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.709891097846054</v>
       </c>
       <c r="J16">
-        <v>36.89914170688598</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.591850541566501</v>
+        <v>36.8918002700749</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.5915755164509662</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1429299856255284</v>
+        <v>0.1429880556336798</v>
       </c>
       <c r="D17">
-        <v>0.1011083392445293</v>
+        <v>0.1008653128119974</v>
       </c>
       <c r="E17">
-        <v>0.8717550098013476</v>
+        <v>0.8715604665263044</v>
       </c>
       <c r="F17">
-        <v>3.029197531990818</v>
+        <v>3.023992795058106</v>
       </c>
       <c r="G17">
-        <v>2.421513846903878</v>
+        <v>0.8638397378523877</v>
       </c>
       <c r="H17">
-        <v>2.471216470464583</v>
+        <v>1.555035171792923</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.466954554142163</v>
       </c>
       <c r="J17">
-        <v>34.97265492834487</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5536606681274705</v>
+        <v>34.9663878835587</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.553424077398887</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1382026513691983</v>
+        <v>0.1382631157907923</v>
       </c>
       <c r="D18">
-        <v>0.09306524859151555</v>
+        <v>0.09284604940385321</v>
       </c>
       <c r="E18">
-        <v>0.840759966124466</v>
+        <v>0.8405865460181445</v>
       </c>
       <c r="F18">
-        <v>2.870162809149505</v>
+        <v>2.865302824473289</v>
       </c>
       <c r="G18">
-        <v>2.287022686491312</v>
+        <v>0.8167520181484065</v>
       </c>
       <c r="H18">
-        <v>2.340739580609366</v>
+        <v>1.468075769658824</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.336761263315324</v>
       </c>
       <c r="J18">
-        <v>33.89448770905204</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5326947516465594</v>
+        <v>33.88876308213281</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.5324774639151144</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.136628088738334</v>
+        <v>0.1366892710693008</v>
       </c>
       <c r="D19">
-        <v>0.09046191313374852</v>
+        <v>0.09025030949190249</v>
       </c>
       <c r="E19">
-        <v>0.8304637235211629</v>
+        <v>0.8302969627291361</v>
       </c>
       <c r="F19">
-        <v>2.818088830642736</v>
+        <v>2.813339644552016</v>
       </c>
       <c r="G19">
-        <v>2.243061077178623</v>
+        <v>0.8013407692747592</v>
       </c>
       <c r="H19">
-        <v>2.298027577512542</v>
+        <v>1.439669025061406</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.294140380446208</v>
       </c>
       <c r="J19">
-        <v>33.53402960339042</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5257487682698851</v>
+        <v>33.52847765195776</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.5255376120740749</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1438179909602866</v>
+        <v>0.1438755703203611</v>
       </c>
       <c r="D20">
-        <v>0.1026573340148467</v>
+        <v>0.1024096556448857</v>
       </c>
       <c r="E20">
-        <v>0.8775910961074516</v>
+        <v>0.8773923885919999</v>
       </c>
       <c r="F20">
-        <v>3.059521562175945</v>
+        <v>3.054249976113951</v>
       </c>
       <c r="G20">
-        <v>2.447196344458789</v>
+        <v>0.8728218467542348</v>
       </c>
       <c r="H20">
-        <v>2.496100888738383</v>
+        <v>1.571649940023761</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.491783968136772</v>
       </c>
       <c r="J20">
-        <v>35.17450267768817</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.557617795643246</v>
+        <v>35.16812959070768</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.5573774234713156</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1703097444929398</v>
+        <v>0.1703460652893369</v>
       </c>
       <c r="D21">
-        <v>0.1545188525233279</v>
+        <v>0.1541029321980139</v>
       </c>
       <c r="E21">
-        <v>1.053747966227959</v>
+        <v>1.053390767277932</v>
       </c>
       <c r="F21">
-        <v>4.029578016501205</v>
+        <v>4.021958031944791</v>
       </c>
       <c r="G21">
-        <v>3.274398427678491</v>
+        <v>1.160730432803376</v>
       </c>
       <c r="H21">
-        <v>3.293032842322091</v>
+        <v>2.108022157914746</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.286781235044955</v>
       </c>
       <c r="J21">
-        <v>41.09466102020804</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6784628178007068</v>
+        <v>41.08441430773274</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.6780824564198014</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1902743594058052</v>
+        <v>0.1902844641211487</v>
       </c>
       <c r="D22">
-        <v>0.2010602749992678</v>
+        <v>0.2004699864082191</v>
       </c>
       <c r="E22">
-        <v>1.189264809836729</v>
+        <v>1.188729681677501</v>
       </c>
       <c r="F22">
-        <v>4.844666930161139</v>
+        <v>4.834695415302036</v>
       </c>
       <c r="G22">
-        <v>3.976445342344547</v>
+        <v>1.403413784894028</v>
       </c>
       <c r="H22">
-        <v>3.963865621639258</v>
+        <v>2.564597919401848</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.95567282563735</v>
       </c>
       <c r="J22">
-        <v>45.42131054909549</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7732750814966991</v>
+        <v>45.40696611988631</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.7727427039983112</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1792949949196156</v>
+        <v>0.1793207708373785</v>
       </c>
       <c r="D23">
-        <v>0.1746511999275278</v>
+        <v>0.1741628397164217</v>
       </c>
       <c r="E23">
-        <v>1.114429464515837</v>
+        <v>1.113999855220385</v>
       </c>
       <c r="F23">
-        <v>4.387414585912182</v>
+        <v>4.378810828569087</v>
       </c>
       <c r="G23">
-        <v>3.581917404320421</v>
+        <v>1.267193079512211</v>
       </c>
       <c r="H23">
-        <v>3.587410195937963</v>
+        <v>2.307897680740624</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.580346908255819</v>
       </c>
       <c r="J23">
-        <v>43.05666814342271</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7207189526337601</v>
+        <v>43.04472905396432</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.7202762834109748</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1434160102993758</v>
+        <v>0.1434738133921485</v>
       </c>
       <c r="D24">
-        <v>0.1019546394111694</v>
+        <v>0.1017090739157203</v>
       </c>
       <c r="E24">
-        <v>0.8749486844062488</v>
+        <v>0.874751869858855</v>
       </c>
       <c r="F24">
-        <v>3.045776906961933</v>
+        <v>3.040535665781846</v>
       </c>
       <c r="G24">
-        <v>2.435554023228462</v>
+        <v>0.8687504776918331</v>
       </c>
       <c r="H24">
-        <v>2.484821567463442</v>
+        <v>1.564117834650006</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.480529615517156</v>
       </c>
       <c r="J24">
-        <v>35.08315736970007</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5558257521996737</v>
+        <v>35.07683245238155</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.5555870980672069</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.111172397375455</v>
+        <v>0.1112401122760218</v>
       </c>
       <c r="D25">
-        <v>0.05354745710778364</v>
+        <v>0.05343753540410834</v>
       </c>
       <c r="E25">
-        <v>0.6659184726234528</v>
+        <v>0.6658370420590458</v>
       </c>
       <c r="F25">
-        <v>2.038882798001239</v>
+        <v>2.035678454550279</v>
       </c>
       <c r="G25">
-        <v>1.590488135219147</v>
+        <v>0.571171982512567</v>
       </c>
       <c r="H25">
-        <v>1.65962544125199</v>
+        <v>1.019319499729363</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.657007326286916</v>
       </c>
       <c r="J25">
-        <v>27.61553443111188</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4160187156271888</v>
+        <v>27.61229092939919</v>
       </c>
       <c r="L25">
+        <v>0.4158890433890789</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_11/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.09021784949206335</v>
+        <v>0.1596879706506655</v>
       </c>
       <c r="D2">
-        <v>0.03025339818304662</v>
+        <v>0.462799799452597</v>
       </c>
       <c r="E2">
-        <v>0.5328152504402794</v>
+        <v>0.09272675254431917</v>
       </c>
       <c r="F2">
-        <v>1.484119897580513</v>
+        <v>8.054714082678515</v>
       </c>
       <c r="G2">
-        <v>0.4084722518156099</v>
+        <v>0.0007138809228381948</v>
       </c>
       <c r="H2">
-        <v>0.7285000564106667</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.206088507866255</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02603576069324998</v>
       </c>
       <c r="K2">
-        <v>22.60181976528548</v>
+        <v>7.750631150347232</v>
       </c>
       <c r="L2">
-        <v>0.3289887559066429</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>4.377373936250194</v>
+      </c>
+      <c r="N2">
+        <v>0.4612639101035967</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.07692656085119864</v>
+        <v>0.1335417587058743</v>
       </c>
       <c r="D3">
-        <v>0.01894679928458931</v>
+        <v>0.3822411637499812</v>
       </c>
       <c r="E3">
-        <v>0.4501568381445153</v>
+        <v>0.07833759445377808</v>
       </c>
       <c r="F3">
-        <v>1.179732927131283</v>
+        <v>6.928090219279881</v>
       </c>
       <c r="G3">
-        <v>0.3188597563380924</v>
+        <v>0.0007412373513012636</v>
       </c>
       <c r="H3">
-        <v>0.5720543070243949</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9577018959180847</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.02729967251515664</v>
       </c>
       <c r="K3">
-        <v>19.37919929104021</v>
+        <v>6.558109733139844</v>
       </c>
       <c r="L3">
-        <v>0.2758302438879667</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>3.719647333779548</v>
+      </c>
+      <c r="N3">
+        <v>0.5503899663754499</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.06908074089373173</v>
+        <v>0.1185438472524964</v>
       </c>
       <c r="D4">
-        <v>0.01350109101599983</v>
+        <v>0.3368830028699108</v>
       </c>
       <c r="E4">
-        <v>0.4019450520966643</v>
+        <v>0.07009607550152097</v>
       </c>
       <c r="F4">
-        <v>1.017007495674747</v>
+        <v>6.299332665706032</v>
       </c>
       <c r="G4">
-        <v>0.2709848516476967</v>
+        <v>0.0007577779513082527</v>
       </c>
       <c r="H4">
-        <v>0.4901604288915777</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8250914709681609</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.02809777139714642</v>
       </c>
       <c r="K4">
-        <v>17.4577243741133</v>
+        <v>5.870277975211764</v>
       </c>
       <c r="L4">
-        <v>0.2451369842008049</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>3.340130392722131</v>
+      </c>
+      <c r="N4">
+        <v>0.6068776338111501</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.06594493202979379</v>
+        <v>0.1126374456390948</v>
       </c>
       <c r="D5">
-        <v>0.01158266516408712</v>
+        <v>0.3191958328582558</v>
       </c>
       <c r="E5">
-        <v>0.3828060285339561</v>
+        <v>0.06685048709868724</v>
       </c>
       <c r="F5">
-        <v>0.9556312396158688</v>
+        <v>6.055640856953488</v>
       </c>
       <c r="G5">
-        <v>0.2529285400033885</v>
+        <v>0.0007644926944523416</v>
       </c>
       <c r="H5">
-        <v>0.4596834688721145</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7751130381061913</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.02842868000716203</v>
       </c>
       <c r="K5">
-        <v>16.68586238375042</v>
+        <v>5.598661386592738</v>
       </c>
       <c r="L5">
-        <v>0.2330187220072091</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3.190249344736515</v>
+      </c>
+      <c r="N5">
+        <v>0.6303140678308807</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.06542749391743286</v>
+        <v>0.1116676299885171</v>
       </c>
       <c r="D6">
-        <v>0.01128038878804105</v>
+        <v>0.3163012955494793</v>
       </c>
       <c r="E6">
-        <v>0.3796553566319361</v>
+        <v>0.06631750070960152</v>
       </c>
       <c r="F6">
-        <v>0.9457090813732947</v>
+        <v>6.015852305648281</v>
       </c>
       <c r="G6">
-        <v>0.2500093985820584</v>
+        <v>0.0007656070669537921</v>
       </c>
       <c r="H6">
-        <v>0.4547808953860866</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7670357090878923</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.02848397379765366</v>
       </c>
       <c r="K6">
-        <v>16.5582868174472</v>
+        <v>5.554023513263502</v>
       </c>
       <c r="L6">
-        <v>0.2310275008287235</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3.165617371468429</v>
+      </c>
+      <c r="N6">
+        <v>0.6342302353493352</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06903822233025636</v>
+        <v>0.118463427961899</v>
       </c>
       <c r="D7">
-        <v>0.01347408807908135</v>
+        <v>0.3366415071989479</v>
       </c>
       <c r="E7">
-        <v>0.4016850340631919</v>
+        <v>0.0700518880276384</v>
       </c>
       <c r="F7">
-        <v>1.016161099410226</v>
+        <v>6.295999152579839</v>
       </c>
       <c r="G7">
-        <v>0.2707358549210142</v>
+        <v>0.0007578685687872691</v>
       </c>
       <c r="H7">
-        <v>0.4897384575757044</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8244020971661072</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.02810221098806309</v>
       </c>
       <c r="K7">
-        <v>17.44727340236204</v>
+        <v>5.866582516491746</v>
       </c>
       <c r="L7">
-        <v>0.2449720923633407</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3.338091229703963</v>
+      </c>
+      <c r="N7">
+        <v>0.6071920458408737</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0855575659646064</v>
+        <v>0.1504116538629177</v>
       </c>
       <c r="D8">
-        <v>0.02599266887556162</v>
+        <v>0.4340062657143164</v>
       </c>
       <c r="E8">
-        <v>0.5036984211942226</v>
+        <v>0.08761669293012986</v>
       </c>
       <c r="F8">
-        <v>1.37337669413867</v>
+        <v>7.65087373376727</v>
       </c>
       <c r="G8">
-        <v>0.3758568853939011</v>
+        <v>0.0007233936397181386</v>
       </c>
       <c r="H8">
-        <v>0.6711656311872929</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.115675249906459</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.02646705917135117</v>
       </c>
       <c r="K8">
-        <v>21.47660286635943</v>
+        <v>7.32851012509704</v>
       </c>
       <c r="L8">
-        <v>0.3101879779688801</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>4.144604842064666</v>
+      </c>
+      <c r="N8">
+        <v>0.4916100704041213</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1215471740071621</v>
+        <v>0.2255334034917382</v>
       </c>
       <c r="D9">
-        <v>0.06718334869275466</v>
+        <v>0.6737308493756871</v>
       </c>
       <c r="E9">
-        <v>0.7320051955184681</v>
+        <v>0.1292932928521466</v>
       </c>
       <c r="F9">
-        <v>2.336357833950586</v>
+        <v>11.03263946862205</v>
       </c>
       <c r="G9">
-        <v>0.6600593230907634</v>
+        <v>0.0006511196147605182</v>
       </c>
       <c r="H9">
-        <v>1.180677894768877</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1.903184151052287</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0234307240151379</v>
       </c>
       <c r="K9">
-        <v>30.02860960340774</v>
+        <v>10.71615213105841</v>
       </c>
       <c r="L9">
-        <v>0.4597152225354009</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>6.010369254254726</v>
+      </c>
+      <c r="N9">
+        <v>0.2807498618404924</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1524942083541134</v>
+        <v>0.298918854324171</v>
       </c>
       <c r="D10">
-        <v>0.1180371535528506</v>
+        <v>0.9223131316990703</v>
       </c>
       <c r="E10">
-        <v>0.9342559830157455</v>
+        <v>0.1710497637277548</v>
       </c>
       <c r="F10">
-        <v>3.355460849161489</v>
+        <v>14.54140860148277</v>
       </c>
       <c r="G10">
-        <v>0.9623066478931293</v>
+        <v>0.0005883562842725195</v>
       </c>
       <c r="H10">
-        <v>1.737609895410216</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.739056535924249</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.02130979686186585</v>
       </c>
       <c r="K10">
-        <v>37.11600538562743</v>
+        <v>13.95891870404992</v>
       </c>
       <c r="L10">
-        <v>0.596080217971604</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>7.789488975022323</v>
+      </c>
+      <c r="N10">
+        <v>0.1401433648578756</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.168500998197942</v>
+        <v>0.3426185037122735</v>
       </c>
       <c r="D11">
-        <v>0.1501406436289061</v>
+        <v>1.077367586691992</v>
       </c>
       <c r="E11">
-        <v>1.0409910680807</v>
+        <v>0.1966615008094337</v>
       </c>
       <c r="F11">
-        <v>3.950405425278774</v>
+        <v>16.70997362293764</v>
       </c>
       <c r="G11">
-        <v>1.139401873762424</v>
+        <v>0.0005536019365721678</v>
       </c>
       <c r="H11">
-        <v>2.068067078786555</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>3.227943278265386</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.02038825916741871</v>
       </c>
       <c r="K11">
-        <v>40.67848503730102</v>
+        <v>15.86008096935674</v>
       </c>
       <c r="L11">
-        <v>0.6694897793443317</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>8.828250173751229</v>
+      </c>
+      <c r="N11">
+        <v>0.08211302181139324</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1749870765604271</v>
+        <v>0.3622554776787013</v>
       </c>
       <c r="D12">
-        <v>0.1643125942658337</v>
+        <v>1.148850974663162</v>
       </c>
       <c r="E12">
-        <v>1.084671323072286</v>
+        <v>0.2084018279479558</v>
       </c>
       <c r="F12">
-        <v>4.20466691159838</v>
+        <v>17.70176015493627</v>
       </c>
       <c r="G12">
-        <v>1.215220607317235</v>
+        <v>0.0005385117154631171</v>
       </c>
       <c r="H12">
-        <v>2.210235121689877</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>3.437061446429794</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.02005391757472097</v>
       </c>
       <c r="K12">
-        <v>42.10108974015805</v>
+        <v>16.70745543452381</v>
       </c>
       <c r="L12">
-        <v>0.6998187541394145</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>9.290003327867566</v>
+      </c>
+      <c r="N12">
+        <v>0.06170550041188605</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1735678289253997</v>
+        <v>0.3578328209667205</v>
       </c>
       <c r="D13">
-        <v>0.161153359375608</v>
+        <v>1.132650499536197</v>
       </c>
       <c r="E13">
-        <v>1.075091651831301</v>
+        <v>0.2057438333476505</v>
       </c>
       <c r="F13">
-        <v>4.148378643432864</v>
+        <v>17.47748814523845</v>
       </c>
       <c r="G13">
-        <v>1.198429238936569</v>
+        <v>0.0005418837982163405</v>
       </c>
       <c r="H13">
-        <v>2.178717500207654</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>3.390757898949161</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.0201249103332497</v>
       </c>
       <c r="K13">
-        <v>41.79085323230527</v>
+        <v>16.51697590888978</v>
       </c>
       <c r="L13">
-        <v>0.6931529325537369</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>9.186278722889995</v>
+      </c>
+      <c r="N13">
+        <v>0.06600597816428255</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1690248970508179</v>
+        <v>0.3441536938953362</v>
       </c>
       <c r="D14">
-        <v>0.1512601537389564</v>
+        <v>1.08291470133554</v>
       </c>
       <c r="E14">
-        <v>1.044509838551676</v>
+        <v>0.1975737633968038</v>
       </c>
       <c r="F14">
-        <v>3.970659822943375</v>
+        <v>16.78713476471654</v>
       </c>
       <c r="G14">
-        <v>1.145438718951155</v>
+        <v>0.0005524110658914513</v>
       </c>
       <c r="H14">
-        <v>2.079372856123996</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>3.244597679748182</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.02036034301285117</v>
       </c>
       <c r="K14">
-        <v>40.79384720977026</v>
+        <v>15.92647984202475</v>
       </c>
       <c r="L14">
-        <v>0.671926833655661</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>8.864461653094168</v>
+      </c>
+      <c r="N14">
+        <v>0.08039446906187031</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1663035545186489</v>
+        <v>0.3362649418161254</v>
       </c>
       <c r="D15">
-        <v>0.145492902320977</v>
+        <v>1.054483721398157</v>
       </c>
       <c r="E15">
-        <v>1.026249714501049</v>
+        <v>0.1928956188121624</v>
       </c>
       <c r="F15">
-        <v>3.86599123298484</v>
+        <v>16.39132152390044</v>
       </c>
       <c r="G15">
-        <v>1.11424752904837</v>
+        <v>0.0005585512012544964</v>
       </c>
       <c r="H15">
-        <v>2.02098526145133</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>3.158540144345722</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.02050699854189109</v>
       </c>
       <c r="K15">
-        <v>40.19374567878327</v>
+        <v>15.58500395977333</v>
       </c>
       <c r="L15">
-        <v>0.6592918625299475</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>8.678182221370406</v>
+      </c>
+      <c r="N15">
+        <v>0.08945100357138713</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1514975423024225</v>
+        <v>0.2963647273007552</v>
       </c>
       <c r="D16">
-        <v>0.1161712441392835</v>
+        <v>0.9134169661863893</v>
       </c>
       <c r="E16">
-        <v>0.9276588176889362</v>
+        <v>0.1695723856434483</v>
       </c>
       <c r="F16">
-        <v>3.319944209559949</v>
+        <v>14.41638398819867</v>
       </c>
       <c r="G16">
-        <v>0.9517489222116495</v>
+        <v>0.0005904419552150501</v>
       </c>
       <c r="H16">
-        <v>1.717990285554578</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2.709891097846054</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.02137130742891458</v>
       </c>
       <c r="K16">
-        <v>36.8918002700749</v>
+        <v>13.84712652446825</v>
       </c>
       <c r="L16">
-        <v>0.5915755164509662</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>7.728298548499225</v>
+      </c>
+      <c r="N16">
+        <v>0.1440970734266998</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1429880556336798</v>
+        <v>0.2751661854416341</v>
       </c>
       <c r="D17">
-        <v>0.1008653128119974</v>
+        <v>0.8402713604553469</v>
       </c>
       <c r="E17">
-        <v>0.8715604665263044</v>
+        <v>0.1573841737353483</v>
       </c>
       <c r="F17">
-        <v>3.023992795058106</v>
+        <v>13.38644420457018</v>
       </c>
       <c r="G17">
-        <v>0.8638397378523877</v>
+        <v>0.0006080063464012979</v>
       </c>
       <c r="H17">
-        <v>1.555035171792923</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2.466954554142163</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.02191512852797217</v>
       </c>
       <c r="K17">
-        <v>34.9663878835587</v>
+        <v>12.9163457687911</v>
       </c>
       <c r="L17">
-        <v>0.553424077398887</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>7.218399668089376</v>
+      </c>
+      <c r="N17">
+        <v>0.1794236075647397</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1382631157907923</v>
+        <v>0.2638108022695604</v>
       </c>
       <c r="D18">
-        <v>0.09284604940385321</v>
+        <v>0.8015904586892475</v>
       </c>
       <c r="E18">
-        <v>0.8405865460181445</v>
+        <v>0.1509058758069912</v>
       </c>
       <c r="F18">
-        <v>2.865302824473289</v>
+        <v>12.84058336191316</v>
       </c>
       <c r="G18">
-        <v>0.8167520181484065</v>
+        <v>0.0006176113686289892</v>
       </c>
       <c r="H18">
-        <v>1.468075769658824</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2.336761263315324</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.02223129536709401</v>
       </c>
       <c r="K18">
-        <v>33.88876308213281</v>
+        <v>12.41557786345501</v>
       </c>
       <c r="L18">
-        <v>0.5324774639151144</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>6.943769442832888</v>
+      </c>
+      <c r="N18">
+        <v>0.2002414500569767</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1366892710693008</v>
+        <v>0.2600865973780202</v>
       </c>
       <c r="D19">
-        <v>0.09025030949190249</v>
+        <v>0.7889796508459028</v>
       </c>
       <c r="E19">
-        <v>0.8302969627291361</v>
+        <v>0.148788340848153</v>
       </c>
       <c r="F19">
-        <v>2.813339644552016</v>
+        <v>12.66247506036001</v>
       </c>
       <c r="G19">
-        <v>0.8013407692747592</v>
+        <v>0.0006207930363449294</v>
       </c>
       <c r="H19">
-        <v>1.439669025061406</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2.294140380446208</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.02233884170192368</v>
       </c>
       <c r="K19">
-        <v>33.52847765195776</v>
+        <v>12.25100761585739</v>
       </c>
       <c r="L19">
-        <v>0.5255376120740749</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>6.853472702134098</v>
+      </c>
+      <c r="N19">
+        <v>0.2073653294598596</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1438755703203611</v>
+        <v>0.2773300841687529</v>
       </c>
       <c r="D20">
-        <v>0.1024096556448857</v>
+        <v>0.8476818581002874</v>
       </c>
       <c r="E20">
-        <v>0.8773923885919999</v>
+        <v>0.1586225391119385</v>
       </c>
       <c r="F20">
-        <v>3.054249976113951</v>
+        <v>13.49093442504324</v>
       </c>
       <c r="G20">
-        <v>0.8728218467542348</v>
+        <v>0.0006061919828906474</v>
       </c>
       <c r="H20">
-        <v>1.571649940023761</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2.491783968136772</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.0218568661080818</v>
       </c>
       <c r="K20">
-        <v>35.16812959070768</v>
+        <v>13.01159952519242</v>
       </c>
       <c r="L20">
-        <v>0.5573774234713156</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>7.270615445028795</v>
+      </c>
+      <c r="N20">
+        <v>0.1756087037026308</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1703460652893369</v>
+        <v>0.3480621157902988</v>
       </c>
       <c r="D21">
-        <v>0.1541029321980139</v>
+        <v>1.097068437408069</v>
       </c>
       <c r="E21">
-        <v>1.053390767277932</v>
+        <v>0.1999004495684957</v>
       </c>
       <c r="F21">
-        <v>4.021958031944791</v>
+        <v>16.98386827350407</v>
       </c>
       <c r="G21">
-        <v>1.160730432803376</v>
+        <v>0.000549387911120236</v>
       </c>
       <c r="H21">
-        <v>2.108022157914746</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>3.286781235044955</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.02029063198798653</v>
       </c>
       <c r="K21">
-        <v>41.08441430773274</v>
+        <v>16.09540661177778</v>
       </c>
       <c r="L21">
-        <v>0.6780824564198014</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>8.956566037775985</v>
+      </c>
+      <c r="N21">
+        <v>0.07611428587662594</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1902844641211487</v>
+        <v>0.4168097037453578</v>
       </c>
       <c r="D22">
-        <v>0.2004699864082191</v>
+        <v>1.353750773757326</v>
       </c>
       <c r="E22">
-        <v>1.188729681677501</v>
+        <v>0.2419399659050967</v>
       </c>
       <c r="F22">
-        <v>4.834695415302036</v>
+        <v>20.50947275292157</v>
       </c>
       <c r="G22">
-        <v>1.403413784894028</v>
+        <v>0.0004980881489017734</v>
       </c>
       <c r="H22">
-        <v>2.564597919401848</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3.95567282563735</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.01938712841634027</v>
       </c>
       <c r="K22">
-        <v>45.40696611988631</v>
+        <v>19.04007220110822</v>
       </c>
       <c r="L22">
-        <v>0.7727427039983112</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>10.55647389063333</v>
+      </c>
+      <c r="N22">
+        <v>0.02223042076765935</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1793207708373785</v>
+        <v>0.3762827722551805</v>
       </c>
       <c r="D23">
-        <v>0.1741628397164217</v>
+        <v>1.200630041988376</v>
       </c>
       <c r="E23">
-        <v>1.113999855220385</v>
+        <v>0.2168884752598572</v>
       </c>
       <c r="F23">
-        <v>4.378810828569087</v>
+        <v>18.41647689734015</v>
       </c>
       <c r="G23">
-        <v>1.267193079512211</v>
+        <v>0.0005279148452639241</v>
       </c>
       <c r="H23">
-        <v>2.307897680740624</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3.580346908255819</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.0198453842880344</v>
       </c>
       <c r="K23">
-        <v>43.04472905396432</v>
+        <v>17.31020589274576</v>
       </c>
       <c r="L23">
-        <v>0.7202762834109748</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>9.617940300181147</v>
+      </c>
+      <c r="N23">
+        <v>0.0491813597563695</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1434738133921485</v>
+        <v>0.2763492738468045</v>
       </c>
       <c r="D24">
-        <v>0.1017090739157203</v>
+        <v>0.844321401793195</v>
       </c>
       <c r="E24">
-        <v>0.874751869858855</v>
+        <v>0.1580610801266751</v>
       </c>
       <c r="F24">
-        <v>3.040535665781846</v>
+        <v>13.44355466775545</v>
       </c>
       <c r="G24">
-        <v>0.8687504776918331</v>
+        <v>0.0006070137408986927</v>
       </c>
       <c r="H24">
-        <v>1.564117834650006</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2.480529615517156</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.02188319592337695</v>
       </c>
       <c r="K24">
-        <v>35.07683245238155</v>
+        <v>12.96843158876462</v>
       </c>
       <c r="L24">
-        <v>0.5555870980672069</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>7.246952772074309</v>
+      </c>
+      <c r="N24">
+        <v>0.1773318744137171</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,36 +1505,42 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1112401122760218</v>
+        <v>0.2031349626643646</v>
       </c>
       <c r="D25">
-        <v>0.05343753540410834</v>
+        <v>0.6007007713648704</v>
       </c>
       <c r="E25">
-        <v>0.6658370420590458</v>
+        <v>0.1167827112544835</v>
       </c>
       <c r="F25">
-        <v>2.035678454550279</v>
+        <v>9.999448744136316</v>
       </c>
       <c r="G25">
-        <v>0.571171982512567</v>
+        <v>0.0006716482829103962</v>
       </c>
       <c r="H25">
-        <v>1.019319499729363</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1.657007326286916</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.02423434619949649</v>
       </c>
       <c r="K25">
-        <v>27.61229092939919</v>
+        <v>9.713419408146734</v>
       </c>
       <c r="L25">
-        <v>0.4158890433890789</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>5.458725105223039</v>
+      </c>
+      <c r="N25">
+        <v>0.3357761374201065</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_11/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1596879706506655</v>
+        <v>0.05129587269082947</v>
       </c>
       <c r="D2">
-        <v>0.462799799452597</v>
+        <v>0.1969677694310263</v>
       </c>
       <c r="E2">
-        <v>0.09272675254431917</v>
+        <v>0.1708222880325465</v>
       </c>
       <c r="F2">
-        <v>8.054714082678515</v>
+        <v>0.8160591175270753</v>
       </c>
       <c r="G2">
-        <v>0.0007138809228381948</v>
+        <v>0.0007928238537583531</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.4351557869224365</v>
       </c>
       <c r="J2">
-        <v>0.02603576069324998</v>
+        <v>0.1911981505351648</v>
       </c>
       <c r="K2">
-        <v>7.750631150347232</v>
+        <v>3.382346254835284</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>4.377373936250194</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.4612639101035967</v>
+        <v>0.8653993960958815</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.755816928438293</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1335417587058743</v>
+        <v>0.04517373858909934</v>
       </c>
       <c r="D3">
-        <v>0.3822411637499812</v>
+        <v>0.1752543745400175</v>
       </c>
       <c r="E3">
-        <v>0.07833759445377808</v>
+        <v>0.1521933621493901</v>
       </c>
       <c r="F3">
-        <v>6.928090219279881</v>
+        <v>0.7611367334984394</v>
       </c>
       <c r="G3">
-        <v>0.0007412373513012636</v>
+        <v>0.0007972260707884004</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.4048986409730659</v>
       </c>
       <c r="J3">
-        <v>0.02729967251515664</v>
+        <v>0.17045870358249</v>
       </c>
       <c r="K3">
-        <v>6.558109733139844</v>
+        <v>2.940913188596738</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>3.719647333779548</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5503899663754499</v>
+        <v>0.8604822689082425</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.659556641042798</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1185438472524964</v>
+        <v>0.04141228339383929</v>
       </c>
       <c r="D4">
-        <v>0.3368830028699108</v>
+        <v>0.1620507418748787</v>
       </c>
       <c r="E4">
-        <v>0.07009607550152097</v>
+        <v>0.1409294439462592</v>
       </c>
       <c r="F4">
-        <v>6.299332665706032</v>
+        <v>0.7291074880051198</v>
       </c>
       <c r="G4">
-        <v>0.0007577779513082527</v>
+        <v>0.000800017327163222</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.387314578962723</v>
       </c>
       <c r="J4">
-        <v>0.02809777139714642</v>
+        <v>0.1579788172940439</v>
       </c>
       <c r="K4">
-        <v>5.870277975211764</v>
+        <v>2.670240331825426</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>3.340130392722131</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6068776338111501</v>
+        <v>0.858411025293357</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.604812153538376</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1126374456390948</v>
+        <v>0.03987836232305142</v>
       </c>
       <c r="D5">
-        <v>0.3191958328582558</v>
+        <v>0.1566996520253383</v>
       </c>
       <c r="E5">
-        <v>0.06685048709868724</v>
+        <v>0.1363794544219559</v>
       </c>
       <c r="F5">
-        <v>6.055640856953488</v>
+        <v>0.7164544051689532</v>
       </c>
       <c r="G5">
-        <v>0.0007644926944523416</v>
+        <v>0.0008011774265625374</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.3803827989710626</v>
       </c>
       <c r="J5">
-        <v>0.02842868000716203</v>
+        <v>0.1529517170065233</v>
       </c>
       <c r="K5">
-        <v>5.598661386592738</v>
+        <v>2.559995514019192</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>3.190249344736515</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6303140678308807</v>
+        <v>0.8577968403553129</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.583532560513646</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1116676299885171</v>
+        <v>0.03962357599599642</v>
       </c>
       <c r="D6">
-        <v>0.3163012955494793</v>
+        <v>0.1558128101231091</v>
       </c>
       <c r="E6">
-        <v>0.06631750070960152</v>
+        <v>0.1356262531326315</v>
       </c>
       <c r="F6">
-        <v>6.015852305648281</v>
+        <v>0.7143767205950908</v>
       </c>
       <c r="G6">
-        <v>0.0007656070669537921</v>
+        <v>0.0008013714400904486</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.3792454533067229</v>
       </c>
       <c r="J6">
-        <v>0.02848397379765366</v>
+        <v>0.1521203559899433</v>
       </c>
       <c r="K6">
-        <v>5.554023513263502</v>
+        <v>2.541691851030834</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3.165617371468429</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6342302353493352</v>
+        <v>0.8577085000618752</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.580059369272504</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.118463427961899</v>
+        <v>0.04139160146124254</v>
       </c>
       <c r="D7">
-        <v>0.3366415071989479</v>
+        <v>0.161978459368413</v>
       </c>
       <c r="E7">
-        <v>0.0700518880276384</v>
+        <v>0.1408679233588117</v>
       </c>
       <c r="F7">
-        <v>6.295999152579839</v>
+        <v>0.7289352624546339</v>
       </c>
       <c r="G7">
-        <v>0.0007578685687872691</v>
+        <v>0.0008000328804575579</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.387220168256647</v>
       </c>
       <c r="J7">
-        <v>0.02810221098806309</v>
+        <v>0.1579107898589101</v>
       </c>
       <c r="K7">
-        <v>5.866582516491746</v>
+        <v>2.66875334869448</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>3.338091229703963</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6071920458408737</v>
+        <v>0.858401822317461</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.604521088250294</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1504116538629177</v>
+        <v>0.04918516561146902</v>
       </c>
       <c r="D8">
-        <v>0.4340062657143164</v>
+        <v>0.1894525774679323</v>
       </c>
       <c r="E8">
-        <v>0.08761669293012986</v>
+        <v>0.1643605675565212</v>
       </c>
       <c r="F8">
-        <v>7.65087373376727</v>
+        <v>0.7967538993966627</v>
       </c>
       <c r="G8">
-        <v>0.0007233936397181386</v>
+        <v>0.0007943236890255009</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.4245068855101906</v>
       </c>
       <c r="J8">
-        <v>0.02646705917135117</v>
+        <v>0.1839910949146315</v>
       </c>
       <c r="K8">
-        <v>7.32851012509704</v>
+        <v>3.230040928423364</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>4.144604842064666</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.4916100704041213</v>
+        <v>0.8635019612093089</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.721680025601415</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2255334034917382</v>
+        <v>0.06447290448946319</v>
       </c>
       <c r="D9">
-        <v>0.6737308493756871</v>
+        <v>0.2444862760556248</v>
       </c>
       <c r="E9">
-        <v>0.1292932928521466</v>
+        <v>0.2119916823662251</v>
       </c>
       <c r="F9">
-        <v>11.03263946862205</v>
+        <v>0.94446596245389</v>
       </c>
       <c r="G9">
-        <v>0.0006511196147605182</v>
+        <v>0.0007838072285288683</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.5062843743549692</v>
       </c>
       <c r="J9">
-        <v>0.0234307240151379</v>
+        <v>0.2374116570656781</v>
       </c>
       <c r="K9">
-        <v>10.71615213105841</v>
+        <v>4.33545998909841</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>6.010369254254726</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.2807498618404924</v>
+        <v>0.8814352393564491</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.989239958493556</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.298918854324171</v>
+        <v>0.07574411388480939</v>
       </c>
       <c r="D10">
-        <v>0.9223131316990703</v>
+        <v>0.2858331900795719</v>
       </c>
       <c r="E10">
-        <v>0.1710497637277548</v>
+        <v>0.2482076078531676</v>
       </c>
       <c r="F10">
-        <v>14.54140860148277</v>
+        <v>1.063876639378122</v>
       </c>
       <c r="G10">
-        <v>0.0005883562842725195</v>
+        <v>0.0007764633979264048</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.5727930857944727</v>
       </c>
       <c r="J10">
-        <v>0.02130979686186585</v>
+        <v>0.2784379595765785</v>
       </c>
       <c r="K10">
-        <v>13.95891870404992</v>
+        <v>5.153289946940959</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>7.789488975022323</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.1401433648578756</v>
+        <v>0.9000603047079494</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.213655620450965</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3426185037122735</v>
+        <v>0.08088900260283083</v>
       </c>
       <c r="D11">
-        <v>1.077367586691992</v>
+        <v>0.3048916374024913</v>
       </c>
       <c r="E11">
-        <v>0.1966615008094337</v>
+        <v>0.2650132602382058</v>
       </c>
       <c r="F11">
-        <v>16.70997362293764</v>
+        <v>1.121023308118652</v>
       </c>
       <c r="G11">
-        <v>0.0005536019365721678</v>
+        <v>0.0007731981078345547</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.6047208987224195</v>
       </c>
       <c r="J11">
-        <v>0.02038825916741871</v>
+        <v>0.2975821347319254</v>
       </c>
       <c r="K11">
-        <v>15.86008096935674</v>
+        <v>5.52725790673594</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>8.828250173751229</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.08211302181139324</v>
+        <v>0.9098644801445772</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.322943878176403</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3622554776787013</v>
+        <v>0.08284053152372906</v>
       </c>
       <c r="D12">
-        <v>1.148850974663162</v>
+        <v>0.3121489255268557</v>
       </c>
       <c r="E12">
-        <v>0.2084018279479558</v>
+        <v>0.2714305139550248</v>
       </c>
       <c r="F12">
-        <v>17.70176015493627</v>
+        <v>1.143111119608719</v>
       </c>
       <c r="G12">
-        <v>0.0005385117154631171</v>
+        <v>0.0007719718182735775</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.6170765251010337</v>
       </c>
       <c r="J12">
-        <v>0.02005391757472097</v>
+        <v>0.304909193282441</v>
       </c>
       <c r="K12">
-        <v>16.70745543452381</v>
+        <v>5.669208478458359</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>9.290003327867566</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.06170550041188605</v>
+        <v>0.9137818780731806</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.365467889042634</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3578328209667205</v>
+        <v>0.08242007686732222</v>
       </c>
       <c r="D13">
-        <v>1.132650499536197</v>
+        <v>0.3105840741491193</v>
       </c>
       <c r="E13">
-        <v>0.2057438333476505</v>
+        <v>0.2700459758033205</v>
       </c>
       <c r="F13">
-        <v>17.47748814523845</v>
+        <v>1.138333515556013</v>
       </c>
       <c r="G13">
-        <v>0.0005418837982163405</v>
+        <v>0.0007722354785590992</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.614403307931731</v>
       </c>
       <c r="J13">
-        <v>0.0201249103332497</v>
+        <v>0.3033275889690401</v>
       </c>
       <c r="K13">
-        <v>16.51697590888978</v>
+        <v>5.63862089765928</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>9.186278722889995</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.06600597816428255</v>
+        <v>0.9129288666946564</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.356257192712661</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3441536938953362</v>
+        <v>0.08104948602263562</v>
       </c>
       <c r="D14">
-        <v>1.08291470133554</v>
+        <v>0.3054878654627373</v>
       </c>
       <c r="E14">
-        <v>0.1975737633968038</v>
+        <v>0.2655401084475599</v>
       </c>
       <c r="F14">
-        <v>16.78713476471654</v>
+        <v>1.122831267266648</v>
       </c>
       <c r="G14">
-        <v>0.0005524110658914513</v>
+        <v>0.0007730970196276332</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.6057319388361648</v>
       </c>
       <c r="J14">
-        <v>0.02036034301285117</v>
+        <v>0.2981833310168298</v>
       </c>
       <c r="K14">
-        <v>15.92647984202475</v>
+        <v>5.538929154461982</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>8.864461653094168</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.08039446906187031</v>
+        <v>0.9101825832103572</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.326418906444673</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3362649418161254</v>
+        <v>0.08021040868770513</v>
       </c>
       <c r="D15">
-        <v>1.054483721398157</v>
+        <v>0.3023716706925512</v>
       </c>
       <c r="E15">
-        <v>0.1928956188121624</v>
+        <v>0.2627872564713414</v>
       </c>
       <c r="F15">
-        <v>16.39132152390044</v>
+        <v>1.113395262876367</v>
       </c>
       <c r="G15">
-        <v>0.0005585512012544964</v>
+        <v>0.0007736260473411362</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.6004557860871813</v>
       </c>
       <c r="J15">
-        <v>0.02050699854189109</v>
+        <v>0.2950426877641092</v>
       </c>
       <c r="K15">
-        <v>15.58500395977333</v>
+        <v>5.477910814656468</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>8.678182221370406</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.08945100357138713</v>
+        <v>0.9085274840113868</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2.308293626703204</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2963647273007552</v>
+        <v>0.07540829914667313</v>
       </c>
       <c r="D16">
-        <v>0.9134169661863893</v>
+        <v>0.2845930639144854</v>
       </c>
       <c r="E16">
-        <v>0.1695723856434483</v>
+        <v>0.247116456937384</v>
       </c>
       <c r="F16">
-        <v>14.41638398819867</v>
+        <v>1.060202289606011</v>
       </c>
       <c r="G16">
-        <v>0.0005904419552150501</v>
+        <v>0.0007766782565870326</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.5707422569484422</v>
       </c>
       <c r="J16">
-        <v>0.02137130742891458</v>
+        <v>0.27719722586275</v>
       </c>
       <c r="K16">
-        <v>13.84712652446825</v>
+        <v>5.128894090179415</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>7.728298548499225</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.1440970734266998</v>
+        <v>0.8994474867876363</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>2.206666931882012</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2751661854416341</v>
+        <v>0.07246737110529011</v>
       </c>
       <c r="D17">
-        <v>0.8402713604553469</v>
+        <v>0.2737533873731053</v>
       </c>
       <c r="E17">
-        <v>0.1573841737353483</v>
+        <v>0.237591610472272</v>
       </c>
       <c r="F17">
-        <v>13.38644420457018</v>
+        <v>1.028322293770387</v>
       </c>
       <c r="G17">
-        <v>0.0006080063464012979</v>
+        <v>0.0007785695691162053</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.5529593796162686</v>
       </c>
       <c r="J17">
-        <v>0.02191512852797217</v>
+        <v>0.2663785970114674</v>
       </c>
       <c r="K17">
-        <v>12.9163457687911</v>
+        <v>4.915319146902448</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>7.218399668089376</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.1794236075647397</v>
+        <v>0.8942273925049733</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>2.146237590276115</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2638108022695604</v>
+        <v>0.07077743187208085</v>
       </c>
       <c r="D18">
-        <v>0.8015904586892475</v>
+        <v>0.2675418964563931</v>
       </c>
       <c r="E18">
-        <v>0.1509058758069912</v>
+        <v>0.2321439415682462</v>
       </c>
       <c r="F18">
-        <v>12.84058336191316</v>
+        <v>1.010249123767565</v>
       </c>
       <c r="G18">
-        <v>0.0006176113686289892</v>
+        <v>0.0007796645455797659</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.5428869884423264</v>
       </c>
       <c r="J18">
-        <v>0.02223129536709401</v>
+        <v>0.2602007506277602</v>
       </c>
       <c r="K18">
-        <v>12.41557786345501</v>
+        <v>4.792654601485822</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>6.943769442832888</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.2002414500569767</v>
+        <v>0.8913494096817374</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>2.112151314279743</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2600865973780202</v>
+        <v>0.07020550128498826</v>
       </c>
       <c r="D19">
-        <v>0.7889796508459028</v>
+        <v>0.2654426496912237</v>
       </c>
       <c r="E19">
-        <v>0.148788340848153</v>
+        <v>0.2303045718006587</v>
       </c>
       <c r="F19">
-        <v>12.66247506036001</v>
+        <v>1.00417388738758</v>
       </c>
       <c r="G19">
-        <v>0.0006207930363449294</v>
+        <v>0.0007800365316362071</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.5395026945210191</v>
       </c>
       <c r="J19">
-        <v>0.02233884170192368</v>
+        <v>0.2581164777707414</v>
       </c>
       <c r="K19">
-        <v>12.25100761585739</v>
+        <v>4.751151368569651</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>6.853472702134098</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.2073653294598596</v>
+        <v>0.8903959641680643</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>2.100722522392203</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2773300841687529</v>
+        <v>0.07278026659999171</v>
       </c>
       <c r="D20">
-        <v>0.8476818581002874</v>
+        <v>0.2749048572174786</v>
       </c>
       <c r="E20">
-        <v>0.1586225391119385</v>
+        <v>0.2386023218244659</v>
       </c>
       <c r="F20">
-        <v>13.49093442504324</v>
+        <v>1.031688428613563</v>
       </c>
       <c r="G20">
-        <v>0.0006061919828906474</v>
+        <v>0.0007783675008975129</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.5548360943748989</v>
       </c>
       <c r="J20">
-        <v>0.0218568661080818</v>
+        <v>0.2675255691614495</v>
       </c>
       <c r="K20">
-        <v>13.01159952519242</v>
+        <v>4.938035718680453</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>7.270615445028795</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.1756087037026308</v>
+        <v>0.894770104361271</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.152600218170619</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3480621157902988</v>
+        <v>0.08145196676521493</v>
       </c>
       <c r="D21">
-        <v>1.097068437408069</v>
+        <v>0.3069836159306192</v>
       </c>
       <c r="E21">
-        <v>0.1999004495684957</v>
+        <v>0.2668620958103958</v>
       </c>
       <c r="F21">
-        <v>16.98386827350407</v>
+        <v>1.127372160790699</v>
       </c>
       <c r="G21">
-        <v>0.000549387911120236</v>
+        <v>0.0007728436924962321</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.6082715244177948</v>
       </c>
       <c r="J21">
-        <v>0.02029063198798653</v>
+        <v>0.2996921486233504</v>
       </c>
       <c r="K21">
-        <v>16.09540661177778</v>
+        <v>5.568201392799494</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>8.956566037775985</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.07611428587662594</v>
+        <v>0.9109835649068145</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.335151358875606</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4168097037453578</v>
+        <v>0.08713887961853573</v>
       </c>
       <c r="D22">
-        <v>1.353750773757326</v>
+        <v>0.3281859445163917</v>
       </c>
       <c r="E22">
-        <v>0.2419399659050967</v>
+        <v>0.2856452757359875</v>
       </c>
       <c r="F22">
-        <v>20.50947275292157</v>
+        <v>1.192537538905484</v>
       </c>
       <c r="G22">
-        <v>0.0004980881489017734</v>
+        <v>0.0007692927122529107</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.6447536920332766</v>
       </c>
       <c r="J22">
-        <v>0.01938712841634027</v>
+        <v>0.3211714335509015</v>
       </c>
       <c r="K22">
-        <v>19.04007220110822</v>
+        <v>5.982046744145805</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>10.55647389063333</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.02223042076765935</v>
+        <v>0.9227804564346087</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.461151646150427</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3762827722551805</v>
+        <v>0.08410162528195997</v>
       </c>
       <c r="D23">
-        <v>1.200630041988376</v>
+        <v>0.3168466342393543</v>
       </c>
       <c r="E23">
-        <v>0.2168884752598572</v>
+        <v>0.2755896072923179</v>
       </c>
       <c r="F23">
-        <v>18.41647689734015</v>
+        <v>1.157502375243013</v>
       </c>
       <c r="G23">
-        <v>0.0005279148452639241</v>
+        <v>0.0007711827510115386</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.6251311351156943</v>
       </c>
       <c r="J23">
-        <v>0.0198453842880344</v>
+        <v>0.3096628040643452</v>
       </c>
       <c r="K23">
-        <v>17.31020589274576</v>
+        <v>5.760966194824221</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>9.617940300181147</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.0491813597563695</v>
+        <v>0.9163697329550047</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.39325417695369</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2763492738468045</v>
+        <v>0.07263880398789979</v>
       </c>
       <c r="D24">
-        <v>0.844321401793195</v>
+        <v>0.2743842145379602</v>
       </c>
       <c r="E24">
-        <v>0.1580610801266751</v>
+        <v>0.2381452915268198</v>
       </c>
       <c r="F24">
-        <v>13.44355466775545</v>
+        <v>1.030165807659685</v>
       </c>
       <c r="G24">
-        <v>0.0006070137408986927</v>
+        <v>0.0007784588321100483</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.5539871624566715</v>
       </c>
       <c r="J24">
-        <v>0.02188319592337695</v>
+        <v>0.267006893084087</v>
       </c>
       <c r="K24">
-        <v>12.96843158876462</v>
+        <v>4.927765179312757</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>7.246952772074309</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.1773318744137171</v>
+        <v>0.894524361836659</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2.149721640535347</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2031349626643646</v>
+        <v>0.06033305652316301</v>
       </c>
       <c r="D25">
-        <v>0.6007007713648704</v>
+        <v>0.2294537239079943</v>
       </c>
       <c r="E25">
-        <v>0.1167827112544835</v>
+        <v>0.1989123533511545</v>
       </c>
       <c r="F25">
-        <v>9.999448744136316</v>
+        <v>0.902740662262417</v>
       </c>
       <c r="G25">
-        <v>0.0006716482829103962</v>
+        <v>0.0007865826247869426</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.4831207213914439</v>
       </c>
       <c r="J25">
-        <v>0.02423434619949649</v>
+        <v>0.2226776314708161</v>
       </c>
       <c r="K25">
-        <v>9.713419408146734</v>
+        <v>4.035632947136833</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>5.458725105223039</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.3357761374201065</v>
+        <v>0.8756739611735753</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.912335858160247</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_11/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05129587269082947</v>
+        <v>0.020209235148819</v>
       </c>
       <c r="D2">
-        <v>0.1969677694310263</v>
+        <v>0.2015911232664536</v>
       </c>
       <c r="E2">
-        <v>0.1708222880325465</v>
+        <v>0.1694573906331911</v>
       </c>
       <c r="F2">
-        <v>0.8160591175270753</v>
+        <v>1.322367260782315</v>
       </c>
       <c r="G2">
-        <v>0.0007928238537583531</v>
+        <v>0.002444975434858508</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4351557869224365</v>
+        <v>0.6698032520515866</v>
       </c>
       <c r="J2">
-        <v>0.1911981505351648</v>
+        <v>0.1854673713836164</v>
       </c>
       <c r="K2">
-        <v>3.382346254835284</v>
+        <v>1.288168344233554</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8653993960958815</v>
+        <v>1.15462960317079</v>
       </c>
       <c r="O2">
-        <v>1.755816928438293</v>
+        <v>3.100628091771824</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04517373858909934</v>
+        <v>0.01820130350662907</v>
       </c>
       <c r="D3">
-        <v>0.1752543745400175</v>
+        <v>0.196446172594591</v>
       </c>
       <c r="E3">
-        <v>0.1521933621493901</v>
+        <v>0.1654361252300305</v>
       </c>
       <c r="F3">
-        <v>0.7611367334984394</v>
+        <v>1.320193292982076</v>
       </c>
       <c r="G3">
-        <v>0.0007972260707884004</v>
+        <v>0.002447927713713043</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4048986409730659</v>
+        <v>0.6686332824643628</v>
       </c>
       <c r="J3">
-        <v>0.17045870358249</v>
+        <v>0.181294522301009</v>
       </c>
       <c r="K3">
-        <v>2.940913188596738</v>
+        <v>1.155100810727276</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8604822689082425</v>
+        <v>1.155773944436731</v>
       </c>
       <c r="O3">
-        <v>1.659556641042798</v>
+        <v>3.106970680326697</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04141228339383929</v>
+        <v>0.0169600241453054</v>
       </c>
       <c r="D4">
-        <v>0.1620507418748787</v>
+        <v>0.1933618472487524</v>
       </c>
       <c r="E4">
-        <v>0.1409294439462592</v>
+        <v>0.1630505293028435</v>
       </c>
       <c r="F4">
-        <v>0.7291074880051198</v>
+        <v>1.319683274385774</v>
       </c>
       <c r="G4">
-        <v>0.000800017327163222</v>
+        <v>0.002449837522238838</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.387314578962723</v>
+        <v>0.6683744704613517</v>
       </c>
       <c r="J4">
-        <v>0.1579788172940439</v>
+        <v>0.1788407846000126</v>
       </c>
       <c r="K4">
-        <v>2.670240331825426</v>
+        <v>1.073395433905404</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.858411025293357</v>
+        <v>1.156918539267267</v>
       </c>
       <c r="O4">
-        <v>1.604812153538376</v>
+        <v>3.112931772750329</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03987836232305142</v>
+        <v>0.01645209885411703</v>
       </c>
       <c r="D5">
-        <v>0.1566996520253383</v>
+        <v>0.1921238400796028</v>
       </c>
       <c r="E5">
-        <v>0.1363794544219559</v>
+        <v>0.1620994056710821</v>
       </c>
       <c r="F5">
-        <v>0.7164544051689532</v>
+        <v>1.319682687183175</v>
       </c>
       <c r="G5">
-        <v>0.0008011774265625374</v>
+        <v>0.00245064027405693</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3803827989710626</v>
+        <v>0.6683844164218655</v>
       </c>
       <c r="J5">
-        <v>0.1529517170065233</v>
+        <v>0.1778681175703269</v>
       </c>
       <c r="K5">
-        <v>2.559995514019192</v>
+        <v>1.04010154388439</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8577968403553129</v>
+        <v>1.157496389660608</v>
       </c>
       <c r="O5">
-        <v>1.583532560513646</v>
+        <v>3.115879979731488</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03962357599599642</v>
+        <v>0.01636763233231875</v>
       </c>
       <c r="D6">
-        <v>0.1558128101231091</v>
+        <v>0.1919194131471471</v>
       </c>
       <c r="E6">
-        <v>0.1356262531326315</v>
+        <v>0.1619427432787965</v>
       </c>
       <c r="F6">
-        <v>0.7143767205950908</v>
+        <v>1.319695102543385</v>
       </c>
       <c r="G6">
-        <v>0.0008013714400904486</v>
+        <v>0.002450775051716688</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3792454533067229</v>
+        <v>0.6683930344378126</v>
       </c>
       <c r="J6">
-        <v>0.1521203559899433</v>
+        <v>0.1777082525877631</v>
       </c>
       <c r="K6">
-        <v>2.541691851030834</v>
+        <v>1.034573283143487</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8577085000618752</v>
+        <v>1.15759907915043</v>
       </c>
       <c r="O6">
-        <v>1.580059369272504</v>
+        <v>3.116400854550619</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04139160146124254</v>
+        <v>0.01695318253896261</v>
       </c>
       <c r="D7">
-        <v>0.161978459368413</v>
+        <v>0.1933450744745642</v>
       </c>
       <c r="E7">
-        <v>0.1408679233588117</v>
+        <v>0.1630376169360552</v>
       </c>
       <c r="F7">
-        <v>0.7289352624546339</v>
+        <v>1.319682427528562</v>
       </c>
       <c r="G7">
-        <v>0.0008000328804575579</v>
+        <v>0.002449848249183003</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.387220168256647</v>
+        <v>0.6683741374824592</v>
       </c>
       <c r="J7">
-        <v>0.1579107898589101</v>
+        <v>0.1788275565455493</v>
       </c>
       <c r="K7">
-        <v>2.66875334869448</v>
+        <v>1.07294641118537</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.858401822317461</v>
+        <v>1.156925880851205</v>
       </c>
       <c r="O7">
-        <v>1.604521088250294</v>
+        <v>3.112969432743341</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04918516561146902</v>
+        <v>0.0195186546218622</v>
       </c>
       <c r="D8">
-        <v>0.1894525774679323</v>
+        <v>0.1998016979041211</v>
       </c>
       <c r="E8">
-        <v>0.1643605675565212</v>
+        <v>0.1680535519556798</v>
       </c>
       <c r="F8">
-        <v>0.7967538993966627</v>
+        <v>1.321446390206319</v>
       </c>
       <c r="G8">
-        <v>0.0007943236890255009</v>
+        <v>0.002445973272325199</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4245068855101906</v>
+        <v>0.6693043765805058</v>
       </c>
       <c r="J8">
-        <v>0.1839910949146315</v>
+        <v>0.184006065489676</v>
       </c>
       <c r="K8">
-        <v>3.230040928423364</v>
+        <v>1.242288136187483</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8635019612093089</v>
+        <v>1.154932607818438</v>
       </c>
       <c r="O8">
-        <v>1.721680025601415</v>
+        <v>3.102385652361647</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06447290448946319</v>
+        <v>0.02448228283116549</v>
       </c>
       <c r="D9">
-        <v>0.2444862760556248</v>
+        <v>0.2130523031401736</v>
       </c>
       <c r="E9">
-        <v>0.2119916823662251</v>
+        <v>0.1785513022097334</v>
       </c>
       <c r="F9">
-        <v>0.94446596245389</v>
+        <v>1.33145917150901</v>
       </c>
       <c r="G9">
-        <v>0.0007838072285288683</v>
+        <v>0.002439141515904169</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5062843743549692</v>
+        <v>0.6747826166623696</v>
       </c>
       <c r="J9">
-        <v>0.2374116570656781</v>
+        <v>0.1950224772009364</v>
       </c>
       <c r="K9">
-        <v>4.33545998909841</v>
+        <v>1.574281778734075</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8814352393564491</v>
+        <v>1.154519410901869</v>
       </c>
       <c r="O9">
-        <v>1.989239958493556</v>
+        <v>3.098063831071158</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07574411388480939</v>
+        <v>0.02808759383898973</v>
       </c>
       <c r="D10">
-        <v>0.2858331900795719</v>
+        <v>0.223143213431257</v>
       </c>
       <c r="E10">
-        <v>0.2482076078531676</v>
+        <v>0.1866671897041741</v>
       </c>
       <c r="F10">
-        <v>1.063876639378122</v>
+        <v>1.342826747285955</v>
       </c>
       <c r="G10">
-        <v>0.0007764633979264048</v>
+        <v>0.002434585130519534</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5727930857944727</v>
+        <v>0.6810474044763311</v>
       </c>
       <c r="J10">
-        <v>0.2784379595765785</v>
+        <v>0.2036441398949762</v>
       </c>
       <c r="K10">
-        <v>5.153289946940959</v>
+        <v>1.818070370856731</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9000603047079494</v>
+        <v>1.156333650666426</v>
       </c>
       <c r="O10">
-        <v>2.213655620450965</v>
+        <v>3.104959759751864</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.08088900260283083</v>
+        <v>0.02971866015882085</v>
       </c>
       <c r="D11">
-        <v>0.3048916374024913</v>
+        <v>0.2278104004347767</v>
       </c>
       <c r="E11">
-        <v>0.2650132602382058</v>
+        <v>0.1904469144012495</v>
       </c>
       <c r="F11">
-        <v>1.121023308118652</v>
+        <v>1.348872778335178</v>
       </c>
       <c r="G11">
-        <v>0.0007731981078345547</v>
+        <v>0.002432611824951166</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6047208987224195</v>
+        <v>0.6843865559598825</v>
       </c>
       <c r="J11">
-        <v>0.2975821347319254</v>
+        <v>0.2076816565155326</v>
       </c>
       <c r="K11">
-        <v>5.52725790673594</v>
+        <v>1.928934095147895</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9098644801445772</v>
+        <v>1.157616303759099</v>
       </c>
       <c r="O11">
-        <v>2.322943878176403</v>
+        <v>3.110295588972633</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.08284053152372906</v>
+        <v>0.03033499269979245</v>
       </c>
       <c r="D12">
-        <v>0.3121489255268557</v>
+        <v>0.2295887022403349</v>
       </c>
       <c r="E12">
-        <v>0.2714305139550248</v>
+        <v>0.1918907997309987</v>
       </c>
       <c r="F12">
-        <v>1.143111119608719</v>
+        <v>1.351288292521758</v>
       </c>
       <c r="G12">
-        <v>0.0007719718182735775</v>
+        <v>0.002431878805951198</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6170765251010337</v>
+        <v>0.6857215531978298</v>
       </c>
       <c r="J12">
-        <v>0.304909193282441</v>
+        <v>0.2092271947121844</v>
       </c>
       <c r="K12">
-        <v>5.669208478458359</v>
+        <v>1.970908245864734</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9137818780731806</v>
+        <v>1.1581675518362</v>
       </c>
       <c r="O12">
-        <v>2.365467889042634</v>
+        <v>3.112633183215507</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.08242007686732222</v>
+        <v>0.03020231337117707</v>
       </c>
       <c r="D13">
-        <v>0.3105840741491193</v>
+        <v>0.2292052282142834</v>
       </c>
       <c r="E13">
-        <v>0.2700459758033205</v>
+        <v>0.1915792740015334</v>
       </c>
       <c r="F13">
-        <v>1.138333515556013</v>
+        <v>1.350762460511049</v>
       </c>
       <c r="G13">
-        <v>0.0007722354785590992</v>
+        <v>0.002432036042829234</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.614403307931731</v>
+        <v>0.685430897866695</v>
       </c>
       <c r="J13">
-        <v>0.3033275889690401</v>
+        <v>0.2088935961075009</v>
       </c>
       <c r="K13">
-        <v>5.63862089765928</v>
+        <v>1.961868731984055</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9129288666946564</v>
+        <v>1.158045919599047</v>
       </c>
       <c r="O13">
-        <v>2.356257192712661</v>
+        <v>3.112115627007256</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.08104948602263562</v>
+        <v>0.0297693927239493</v>
       </c>
       <c r="D14">
-        <v>0.3054878654627373</v>
+        <v>0.2279564837349426</v>
       </c>
       <c r="E14">
-        <v>0.2655401084475599</v>
+        <v>0.1905654516828221</v>
       </c>
       <c r="F14">
-        <v>1.122831267266648</v>
+        <v>1.349068977446493</v>
       </c>
       <c r="G14">
-        <v>0.0007730970196276332</v>
+        <v>0.002432551234207639</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6057319388361648</v>
+        <v>0.6844949723868652</v>
       </c>
       <c r="J14">
-        <v>0.2981833310168298</v>
+        <v>0.2078084757465319</v>
       </c>
       <c r="K14">
-        <v>5.538929154461982</v>
+        <v>1.932387497531067</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9101825832103572</v>
+        <v>1.157660343142553</v>
       </c>
       <c r="O14">
-        <v>2.326418906444673</v>
+        <v>3.110481545654693</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.08021040868770513</v>
+        <v>0.02950404419058827</v>
       </c>
       <c r="D15">
-        <v>0.3023716706925512</v>
+        <v>0.2271930133006208</v>
       </c>
       <c r="E15">
-        <v>0.2627872564713414</v>
+        <v>0.1899460942155002</v>
       </c>
       <c r="F15">
-        <v>1.113395262876367</v>
+        <v>1.348048087046053</v>
       </c>
       <c r="G15">
-        <v>0.0007736260473411362</v>
+        <v>0.002432868654906477</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6004557860871813</v>
+        <v>0.6839308817345895</v>
       </c>
       <c r="J15">
-        <v>0.2950426877641092</v>
+        <v>0.2071459727549438</v>
       </c>
       <c r="K15">
-        <v>5.477910814656468</v>
+        <v>1.914328342914985</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9085274840113868</v>
+        <v>1.157432694324825</v>
       </c>
       <c r="O15">
-        <v>2.308293626703204</v>
+        <v>3.109521935478114</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07540829914667313</v>
+        <v>0.02798081671609509</v>
       </c>
       <c r="D16">
-        <v>0.2845930639144854</v>
+        <v>0.2228397381242218</v>
       </c>
       <c r="E16">
-        <v>0.247116456937384</v>
+        <v>0.1864219388941422</v>
       </c>
       <c r="F16">
-        <v>1.060202289606011</v>
+        <v>1.342449247309034</v>
       </c>
       <c r="G16">
-        <v>0.0007766782565870326</v>
+        <v>0.002434716085385808</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5707422569484422</v>
+        <v>0.6808390435259071</v>
       </c>
       <c r="J16">
-        <v>0.27719722586275</v>
+        <v>0.2033826034944752</v>
       </c>
       <c r="K16">
-        <v>5.128894090179415</v>
+        <v>1.8108242322254</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8994474867876363</v>
+        <v>1.156259009362458</v>
       </c>
       <c r="O16">
-        <v>2.206666931882012</v>
+        <v>3.104655368911011</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.07246737110529011</v>
+        <v>0.02704404354527412</v>
       </c>
       <c r="D17">
-        <v>0.2737533873731053</v>
+        <v>0.2201887379278986</v>
       </c>
       <c r="E17">
-        <v>0.237591610472272</v>
+        <v>0.1842824379226755</v>
       </c>
       <c r="F17">
-        <v>1.028322293770387</v>
+        <v>1.339238762878466</v>
       </c>
       <c r="G17">
-        <v>0.0007785695691162053</v>
+        <v>0.002435874839185548</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5529593796162686</v>
+        <v>0.67906774017667</v>
       </c>
       <c r="J17">
-        <v>0.2663785970114674</v>
+        <v>0.2011034842338972</v>
       </c>
       <c r="K17">
-        <v>4.915319146902448</v>
+        <v>1.747316768417022</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8942273925049733</v>
+        <v>1.155655962572453</v>
       </c>
       <c r="O17">
-        <v>2.146237590276115</v>
+        <v>3.1022336615261</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.07077743187208085</v>
+        <v>0.02650438983305747</v>
       </c>
       <c r="D18">
-        <v>0.2675418964563931</v>
+        <v>0.2186711858181809</v>
       </c>
       <c r="E18">
-        <v>0.2321439415682462</v>
+        <v>0.1830601166772823</v>
       </c>
       <c r="F18">
-        <v>1.010249123767565</v>
+        <v>1.337474510964412</v>
       </c>
       <c r="G18">
-        <v>0.0007796645455797659</v>
+        <v>0.002436550685364026</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5428869884423264</v>
+        <v>0.6780949750061183</v>
       </c>
       <c r="J18">
-        <v>0.2602007506277602</v>
+        <v>0.1998034638048694</v>
       </c>
       <c r="K18">
-        <v>4.792654601485822</v>
+        <v>1.710785611487438</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8913494096817374</v>
+        <v>1.155352166920878</v>
       </c>
       <c r="O18">
-        <v>2.112151314279743</v>
+        <v>3.101047674071793</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.07020550128498826</v>
+        <v>0.02632152761800199</v>
       </c>
       <c r="D19">
-        <v>0.2654426496912237</v>
+        <v>0.2181586141399805</v>
       </c>
       <c r="E19">
-        <v>0.2303045718006587</v>
+        <v>0.1826476799761068</v>
       </c>
       <c r="F19">
-        <v>1.00417388738758</v>
+        <v>1.33689130012543</v>
       </c>
       <c r="G19">
-        <v>0.0007800365316362071</v>
+        <v>0.002436781125248055</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5395026945210191</v>
+        <v>0.67777351574248</v>
       </c>
       <c r="J19">
-        <v>0.2581164777707414</v>
+        <v>0.1993651655494091</v>
       </c>
       <c r="K19">
-        <v>4.751151368569651</v>
+        <v>1.698416283146514</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8903959641680643</v>
+        <v>1.155256709837616</v>
       </c>
       <c r="O19">
-        <v>2.100722522392203</v>
+        <v>3.100681631249842</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.07278026659999171</v>
+        <v>0.02714385242177286</v>
       </c>
       <c r="D20">
-        <v>0.2749048572174786</v>
+        <v>0.2204701935646085</v>
       </c>
       <c r="E20">
-        <v>0.2386023218244659</v>
+        <v>0.1845093365061246</v>
       </c>
       <c r="F20">
-        <v>1.031688428613563</v>
+        <v>1.339572001668415</v>
       </c>
       <c r="G20">
-        <v>0.0007783675008975129</v>
+        <v>0.00243575051941409</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5548360943748989</v>
+        <v>0.6792515320185544</v>
       </c>
       <c r="J20">
-        <v>0.2675255691614495</v>
+        <v>0.2013449754114305</v>
       </c>
       <c r="K20">
-        <v>4.938035718680453</v>
+        <v>1.754077608535226</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.894770104361271</v>
+        <v>1.155715702981865</v>
       </c>
       <c r="O20">
-        <v>2.152600218170619</v>
+        <v>3.102470035424346</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.08145196676521493</v>
+        <v>0.02989658792407113</v>
       </c>
       <c r="D21">
-        <v>0.3069836159306192</v>
+        <v>0.2283229741760948</v>
       </c>
       <c r="E21">
-        <v>0.2668620958103958</v>
+        <v>0.1908628945832405</v>
       </c>
       <c r="F21">
-        <v>1.127372160790699</v>
+        <v>1.349562972838186</v>
       </c>
       <c r="G21">
-        <v>0.0007728436924962321</v>
+        <v>0.002432399524425422</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6082715244177948</v>
+        <v>0.6847679607326427</v>
       </c>
       <c r="J21">
-        <v>0.2996921486233504</v>
+        <v>0.208126750785226</v>
       </c>
       <c r="K21">
-        <v>5.568201392799494</v>
+        <v>1.941047072932179</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9109835649068145</v>
+        <v>1.15777181949008</v>
       </c>
       <c r="O21">
-        <v>2.335151358875606</v>
+        <v>3.110952904107393</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08713887961853573</v>
+        <v>0.03168797393738032</v>
       </c>
       <c r="D22">
-        <v>0.3281859445163917</v>
+        <v>0.2335189362827208</v>
       </c>
       <c r="E22">
-        <v>0.2856452757359875</v>
+        <v>0.1950886543903678</v>
       </c>
       <c r="F22">
-        <v>1.192537538905484</v>
+        <v>1.356827249865844</v>
       </c>
       <c r="G22">
-        <v>0.0007692927122529107</v>
+        <v>0.002430292360705425</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6447536920332766</v>
+        <v>0.6887844682137754</v>
       </c>
       <c r="J22">
-        <v>0.3211714335509015</v>
+        <v>0.2126559028557438</v>
       </c>
       <c r="K22">
-        <v>5.982046744145805</v>
+        <v>2.063197476202561</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9227804564346087</v>
+        <v>1.15949749783897</v>
       </c>
       <c r="O22">
-        <v>2.461151646150427</v>
+        <v>3.118345242007734</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08410162528195997</v>
+        <v>0.03073258788272426</v>
       </c>
       <c r="D23">
-        <v>0.3168466342393543</v>
+        <v>0.2307399570411803</v>
       </c>
       <c r="E23">
-        <v>0.2755896072923179</v>
+        <v>0.1928265876305986</v>
       </c>
       <c r="F23">
-        <v>1.157502375243013</v>
+        <v>1.352882883494729</v>
       </c>
       <c r="G23">
-        <v>0.0007711827510115386</v>
+        <v>0.002431409429855869</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6251311351156943</v>
+        <v>0.6866030991629302</v>
       </c>
       <c r="J23">
-        <v>0.3096628040643452</v>
+        <v>0.2102297414330963</v>
       </c>
       <c r="K23">
-        <v>5.760966194824221</v>
+        <v>1.998008353116063</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9163697329550047</v>
+        <v>1.158541602432265</v>
       </c>
       <c r="O23">
-        <v>2.39325417695369</v>
+        <v>3.114230415204446</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.07263880398789979</v>
+        <v>0.02709873222397619</v>
       </c>
       <c r="D24">
-        <v>0.2743842145379602</v>
+        <v>0.220342927083351</v>
       </c>
       <c r="E24">
-        <v>0.2381452915268198</v>
+        <v>0.1844067316505118</v>
       </c>
       <c r="F24">
-        <v>1.030165807659685</v>
+        <v>1.339421090562013</v>
       </c>
       <c r="G24">
-        <v>0.0007784588321100483</v>
+        <v>0.002435806694204464</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5539871624566715</v>
+        <v>0.6791682977573714</v>
       </c>
       <c r="J24">
-        <v>0.267006893084087</v>
+        <v>0.2012357652452579</v>
       </c>
       <c r="K24">
-        <v>4.927765179312757</v>
+        <v>1.751021094441683</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.894524361836659</v>
+        <v>1.15568856067884</v>
       </c>
       <c r="O24">
-        <v>2.149721640535347</v>
+        <v>3.102362528274114</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.06033305652316301</v>
+        <v>0.02314673824931646</v>
       </c>
       <c r="D25">
-        <v>0.2294537239079943</v>
+        <v>0.2094049488195964</v>
       </c>
       <c r="E25">
-        <v>0.1989123533511545</v>
+        <v>0.1756405719273104</v>
       </c>
       <c r="F25">
-        <v>0.902740662262417</v>
+        <v>1.328047192198682</v>
       </c>
       <c r="G25">
-        <v>0.0007865826247869426</v>
+        <v>0.002440908057353197</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4831207213914439</v>
+        <v>0.672908142943399</v>
       </c>
       <c r="J25">
-        <v>0.2226776314708161</v>
+        <v>0.1919497417291183</v>
       </c>
       <c r="K25">
-        <v>4.035632947136833</v>
+        <v>1.484485619107772</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8756739611735753</v>
+        <v>1.154258356547075</v>
       </c>
       <c r="O25">
-        <v>1.912335858160247</v>
+        <v>3.097468241519977</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_11/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.020209235148819</v>
+        <v>0.05129587269082947</v>
       </c>
       <c r="D2">
-        <v>0.2015911232664536</v>
+        <v>0.1969677694312537</v>
       </c>
       <c r="E2">
-        <v>0.1694573906331911</v>
+        <v>0.1708222880325394</v>
       </c>
       <c r="F2">
-        <v>1.322367260782315</v>
+        <v>0.8160591175270753</v>
       </c>
       <c r="G2">
-        <v>0.002444975434858508</v>
+        <v>0.0007928238537831556</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6698032520515866</v>
+        <v>0.4351557869224223</v>
       </c>
       <c r="J2">
-        <v>0.1854673713836164</v>
+        <v>0.1911981505352429</v>
       </c>
       <c r="K2">
-        <v>1.288168344233554</v>
+        <v>3.382346254835284</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.15462960317079</v>
+        <v>0.8653993960958815</v>
       </c>
       <c r="O2">
-        <v>3.100628091771824</v>
+        <v>1.755816928438293</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01820130350662907</v>
+        <v>0.04517373858910645</v>
       </c>
       <c r="D3">
-        <v>0.196446172594591</v>
+        <v>0.1752543745400175</v>
       </c>
       <c r="E3">
-        <v>0.1654361252300305</v>
+        <v>0.1521933621493901</v>
       </c>
       <c r="F3">
-        <v>1.320193292982076</v>
+        <v>0.7611367334984536</v>
       </c>
       <c r="G3">
-        <v>0.002447927713713043</v>
+        <v>0.0007972260707361913</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6686332824643628</v>
+        <v>0.4048986409730659</v>
       </c>
       <c r="J3">
-        <v>0.181294522301009</v>
+        <v>0.1704587035824545</v>
       </c>
       <c r="K3">
-        <v>1.155100810727276</v>
+        <v>2.940913188596539</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.155773944436731</v>
+        <v>0.8604822689082425</v>
       </c>
       <c r="O3">
-        <v>3.106970680326697</v>
+        <v>1.659556641042712</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0169600241453054</v>
+        <v>0.0414122833934627</v>
       </c>
       <c r="D4">
-        <v>0.1933618472487524</v>
+        <v>0.1620507418746797</v>
       </c>
       <c r="E4">
-        <v>0.1630505293028435</v>
+        <v>0.140929443946245</v>
       </c>
       <c r="F4">
-        <v>1.319683274385774</v>
+        <v>0.7291074880051198</v>
       </c>
       <c r="G4">
-        <v>0.002449837522238838</v>
+        <v>0.0008000173271629841</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6683744704613517</v>
+        <v>0.3873145789627017</v>
       </c>
       <c r="J4">
-        <v>0.1788407846000126</v>
+        <v>0.1579788172941363</v>
       </c>
       <c r="K4">
-        <v>1.073395433905404</v>
+        <v>2.670240331825454</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.156918539267267</v>
+        <v>0.8584110252933996</v>
       </c>
       <c r="O4">
-        <v>3.112931772750329</v>
+        <v>1.604812153538376</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01645209885411703</v>
+        <v>0.0398783623232859</v>
       </c>
       <c r="D5">
-        <v>0.1921238400796028</v>
+        <v>0.1566996520252957</v>
       </c>
       <c r="E5">
-        <v>0.1620994056710821</v>
+        <v>0.1363794544219417</v>
       </c>
       <c r="F5">
-        <v>1.319682687183175</v>
+        <v>0.7164544051689319</v>
       </c>
       <c r="G5">
-        <v>0.00245064027405693</v>
+        <v>0.0008011774265406374</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6683844164218655</v>
+        <v>0.3803827989710555</v>
       </c>
       <c r="J5">
-        <v>0.1778681175703269</v>
+        <v>0.1529517170066157</v>
       </c>
       <c r="K5">
-        <v>1.04010154388439</v>
+        <v>2.559995514019192</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.157496389660608</v>
+        <v>0.8577968403552987</v>
       </c>
       <c r="O5">
-        <v>3.115879979731488</v>
+        <v>1.583532560513618</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01636763233231875</v>
+        <v>0.03962357599600352</v>
       </c>
       <c r="D6">
-        <v>0.1919194131471471</v>
+        <v>0.1558128101230949</v>
       </c>
       <c r="E6">
-        <v>0.1619427432787965</v>
+        <v>0.1356262531326315</v>
       </c>
       <c r="F6">
-        <v>1.319695102543385</v>
+        <v>0.7143767205950766</v>
       </c>
       <c r="G6">
-        <v>0.002450775051716688</v>
+        <v>0.0008013714400898486</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6683930344378126</v>
+        <v>0.3792454533067442</v>
       </c>
       <c r="J6">
-        <v>0.1777082525877631</v>
+        <v>0.1521203559899718</v>
       </c>
       <c r="K6">
-        <v>1.034573283143487</v>
+        <v>2.541691851030805</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.15759907915043</v>
+        <v>0.8577085000618681</v>
       </c>
       <c r="O6">
-        <v>3.116400854550619</v>
+        <v>1.580059369272448</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01695318253896261</v>
+        <v>0.04139160146122833</v>
       </c>
       <c r="D7">
-        <v>0.1933450744745642</v>
+        <v>0.1619784593685125</v>
       </c>
       <c r="E7">
-        <v>0.1630376169360552</v>
+        <v>0.1408679233587975</v>
       </c>
       <c r="F7">
-        <v>1.319682427528562</v>
+        <v>0.7289352624546339</v>
       </c>
       <c r="G7">
-        <v>0.002449848249183003</v>
+        <v>0.0008000328804937966</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6683741374824592</v>
+        <v>0.3872201682566612</v>
       </c>
       <c r="J7">
-        <v>0.1788275565455493</v>
+        <v>0.1579107898589101</v>
       </c>
       <c r="K7">
-        <v>1.07294641118537</v>
+        <v>2.668753348694452</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.156925880851205</v>
+        <v>0.858401822317397</v>
       </c>
       <c r="O7">
-        <v>3.112969432743341</v>
+        <v>1.604521088250237</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0195186546218622</v>
+        <v>0.04918516561134822</v>
       </c>
       <c r="D8">
-        <v>0.1998016979041211</v>
+        <v>0.1894525774677476</v>
       </c>
       <c r="E8">
-        <v>0.1680535519556798</v>
+        <v>0.1643605675565212</v>
       </c>
       <c r="F8">
-        <v>1.321446390206319</v>
+        <v>0.7967538993966627</v>
       </c>
       <c r="G8">
-        <v>0.002445973272325199</v>
+        <v>0.0007943236889432272</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6693043765805058</v>
+        <v>0.4245068855102048</v>
       </c>
       <c r="J8">
-        <v>0.184006065489676</v>
+        <v>0.1839910949146883</v>
       </c>
       <c r="K8">
-        <v>1.242288136187483</v>
+        <v>3.23004092842325</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.154932607818438</v>
+        <v>0.8635019612093231</v>
       </c>
       <c r="O8">
-        <v>3.102385652361647</v>
+        <v>1.721680025601415</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02448228283116549</v>
+        <v>0.0644729044894703</v>
       </c>
       <c r="D9">
-        <v>0.2130523031401736</v>
+        <v>0.2444862760556248</v>
       </c>
       <c r="E9">
-        <v>0.1785513022097334</v>
+        <v>0.2119916823662322</v>
       </c>
       <c r="F9">
-        <v>1.33145917150901</v>
+        <v>0.9444659624539042</v>
       </c>
       <c r="G9">
-        <v>0.002439141515904169</v>
+        <v>0.0007838072285572853</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6747826166623696</v>
+        <v>0.5062843743549621</v>
       </c>
       <c r="J9">
-        <v>0.1950224772009364</v>
+        <v>0.2374116570657208</v>
       </c>
       <c r="K9">
-        <v>1.574281778734075</v>
+        <v>4.335459989098638</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.154519410901869</v>
+        <v>0.8814352393564491</v>
       </c>
       <c r="O9">
-        <v>3.098063831071158</v>
+        <v>1.989239958493613</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02808759383898973</v>
+        <v>0.0757441138846815</v>
       </c>
       <c r="D10">
-        <v>0.223143213431257</v>
+        <v>0.2858331900797566</v>
       </c>
       <c r="E10">
-        <v>0.1866671897041741</v>
+        <v>0.2482076078531605</v>
       </c>
       <c r="F10">
-        <v>1.342826747285955</v>
+        <v>1.063876639378122</v>
       </c>
       <c r="G10">
-        <v>0.002434585130519534</v>
+        <v>0.0007764633979257917</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6810474044763311</v>
+        <v>0.5727930857944656</v>
       </c>
       <c r="J10">
-        <v>0.2036441398949762</v>
+        <v>0.2784379595765643</v>
       </c>
       <c r="K10">
-        <v>1.818070370856731</v>
+        <v>5.153289946940959</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.156333650666426</v>
+        <v>0.9000603047080062</v>
       </c>
       <c r="O10">
-        <v>3.104959759751864</v>
+        <v>2.213655620450936</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02971866015882085</v>
+        <v>0.08088900260246135</v>
       </c>
       <c r="D11">
-        <v>0.2278104004347767</v>
+        <v>0.3048916374027186</v>
       </c>
       <c r="E11">
-        <v>0.1904469144012495</v>
+        <v>0.2650132602382413</v>
       </c>
       <c r="F11">
-        <v>1.348872778335178</v>
+        <v>1.121023308118652</v>
       </c>
       <c r="G11">
-        <v>0.002432611824951166</v>
+        <v>0.0007731981078339995</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6843865559598825</v>
+        <v>0.6047208987224266</v>
       </c>
       <c r="J11">
-        <v>0.2076816565155326</v>
+        <v>0.2975821347320391</v>
       </c>
       <c r="K11">
-        <v>1.928934095147895</v>
+        <v>5.527257906735997</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.157616303759099</v>
+        <v>0.9098644801446341</v>
       </c>
       <c r="O11">
-        <v>3.110295588972633</v>
+        <v>2.322943878176375</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03033499269979245</v>
+        <v>0.08284053152372906</v>
       </c>
       <c r="D12">
-        <v>0.2295887022403349</v>
+        <v>0.3121489255271541</v>
       </c>
       <c r="E12">
-        <v>0.1918907997309987</v>
+        <v>0.271430513955039</v>
       </c>
       <c r="F12">
-        <v>1.351288292521758</v>
+        <v>1.143111119608733</v>
       </c>
       <c r="G12">
-        <v>0.002431878805951198</v>
+        <v>0.0007719718182445802</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6857215531978298</v>
+        <v>0.6170765251010337</v>
       </c>
       <c r="J12">
-        <v>0.2092271947121844</v>
+        <v>0.3049091932824268</v>
       </c>
       <c r="K12">
-        <v>1.970908245864734</v>
+        <v>5.669208478458359</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.1581675518362</v>
+        <v>0.9137818780731664</v>
       </c>
       <c r="O12">
-        <v>3.112633183215507</v>
+        <v>2.36546788904252</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03020231337117707</v>
+        <v>0.08242007686745012</v>
       </c>
       <c r="D13">
-        <v>0.2292052282142834</v>
+        <v>0.3105840741493466</v>
       </c>
       <c r="E13">
-        <v>0.1915792740015334</v>
+        <v>0.2700459758033205</v>
       </c>
       <c r="F13">
-        <v>1.350762460511049</v>
+        <v>1.138333515556013</v>
       </c>
       <c r="G13">
-        <v>0.002432036042829234</v>
+        <v>0.0007722354785881783</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.685430897866695</v>
+        <v>0.614403307931731</v>
       </c>
       <c r="J13">
-        <v>0.2088935961075009</v>
+        <v>0.3033275889690401</v>
       </c>
       <c r="K13">
-        <v>1.961868731984055</v>
+        <v>5.63862089765945</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.158045919599047</v>
+        <v>0.9129288666946564</v>
       </c>
       <c r="O13">
-        <v>3.112115627007256</v>
+        <v>2.356257192712661</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0297693927239493</v>
+        <v>0.08104948602263562</v>
       </c>
       <c r="D14">
-        <v>0.2279564837349426</v>
+        <v>0.3054878654626094</v>
       </c>
       <c r="E14">
-        <v>0.1905654516828221</v>
+        <v>0.2655401084475599</v>
       </c>
       <c r="F14">
-        <v>1.349068977446493</v>
+        <v>1.122831267266648</v>
       </c>
       <c r="G14">
-        <v>0.002432551234207639</v>
+        <v>0.0007730970195701495</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6844949723868652</v>
+        <v>0.6057319388361719</v>
       </c>
       <c r="J14">
-        <v>0.2078084757465319</v>
+        <v>0.2981833310168298</v>
       </c>
       <c r="K14">
-        <v>1.932387497531067</v>
+        <v>5.538929154461982</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.157660343142553</v>
+        <v>0.910182583210414</v>
       </c>
       <c r="O14">
-        <v>3.110481545654693</v>
+        <v>2.326418906444673</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02950404419058827</v>
+        <v>0.08021040868759144</v>
       </c>
       <c r="D15">
-        <v>0.2271930133006208</v>
+        <v>0.3023716706922528</v>
       </c>
       <c r="E15">
-        <v>0.1899460942155002</v>
+        <v>0.2627872564713556</v>
       </c>
       <c r="F15">
-        <v>1.348048087046053</v>
+        <v>1.113395262876381</v>
       </c>
       <c r="G15">
-        <v>0.002432868654906477</v>
+        <v>0.000773626047371586</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6839308817345895</v>
+        <v>0.6004557860871884</v>
       </c>
       <c r="J15">
-        <v>0.2071459727549438</v>
+        <v>0.2950426877641519</v>
       </c>
       <c r="K15">
-        <v>1.914328342914985</v>
+        <v>5.477910814656298</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.157432694324825</v>
+        <v>0.9085274840113868</v>
       </c>
       <c r="O15">
-        <v>3.109521935478114</v>
+        <v>2.308293626703147</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02798081671609509</v>
+        <v>0.07540829914665892</v>
       </c>
       <c r="D16">
-        <v>0.2228397381242218</v>
+        <v>0.2845930639144854</v>
       </c>
       <c r="E16">
-        <v>0.1864219388941422</v>
+        <v>0.2471164569373911</v>
       </c>
       <c r="F16">
-        <v>1.342449247309034</v>
+        <v>1.060202289605996</v>
       </c>
       <c r="G16">
-        <v>0.002434716085385808</v>
+        <v>0.00077667825655778</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6808390435259071</v>
+        <v>0.5707422569484564</v>
       </c>
       <c r="J16">
-        <v>0.2033826034944752</v>
+        <v>0.2771972258626221</v>
       </c>
       <c r="K16">
-        <v>1.8108242322254</v>
+        <v>5.128894090179358</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.156259009362458</v>
+        <v>0.8994474867876363</v>
       </c>
       <c r="O16">
-        <v>3.104655368911011</v>
+        <v>2.206666931881983</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02704404354527412</v>
+        <v>0.07246737110529011</v>
       </c>
       <c r="D17">
-        <v>0.2201887379278986</v>
+        <v>0.2737533873730769</v>
       </c>
       <c r="E17">
-        <v>0.1842824379226755</v>
+        <v>0.2375916104722506</v>
       </c>
       <c r="F17">
-        <v>1.339238762878466</v>
+        <v>1.028322293770387</v>
       </c>
       <c r="G17">
-        <v>0.002435874839185548</v>
+        <v>0.0007785695691158335</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.67906774017667</v>
+        <v>0.5529593796162615</v>
       </c>
       <c r="J17">
-        <v>0.2011034842338972</v>
+        <v>0.2663785970114532</v>
       </c>
       <c r="K17">
-        <v>1.747316768417022</v>
+        <v>4.915319146902334</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.155655962572453</v>
+        <v>0.8942273925049591</v>
       </c>
       <c r="O17">
-        <v>3.1022336615261</v>
+        <v>2.14623759027603</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02650438983305747</v>
+        <v>0.07077743187207375</v>
       </c>
       <c r="D18">
-        <v>0.2186711858181809</v>
+        <v>0.2675418964563363</v>
       </c>
       <c r="E18">
-        <v>0.1830601166772823</v>
+        <v>0.232143941568232</v>
       </c>
       <c r="F18">
-        <v>1.337474510964412</v>
+        <v>1.010249123767565</v>
       </c>
       <c r="G18">
-        <v>0.002436550685364026</v>
+        <v>0.0007796645456088323</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6780949750061183</v>
+        <v>0.5428869884423193</v>
       </c>
       <c r="J18">
-        <v>0.1998034638048694</v>
+        <v>0.2602007506277175</v>
       </c>
       <c r="K18">
-        <v>1.710785611487438</v>
+        <v>4.792654601485765</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.155352166920878</v>
+        <v>0.8913494096817374</v>
       </c>
       <c r="O18">
-        <v>3.101047674071793</v>
+        <v>2.112151314279714</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02632152761800199</v>
+        <v>0.07020550128511616</v>
       </c>
       <c r="D19">
-        <v>0.2181586141399805</v>
+        <v>0.2654426496912237</v>
       </c>
       <c r="E19">
-        <v>0.1826476799761068</v>
+        <v>0.2303045718006871</v>
       </c>
       <c r="F19">
-        <v>1.33689130012543</v>
+        <v>1.004173887387552</v>
       </c>
       <c r="G19">
-        <v>0.002436781125248055</v>
+        <v>0.0007800365316376955</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.67777351574248</v>
+        <v>0.539502694521012</v>
       </c>
       <c r="J19">
-        <v>0.1993651655494091</v>
+        <v>0.2581164777707414</v>
       </c>
       <c r="K19">
-        <v>1.698416283146514</v>
+        <v>4.751151368569481</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.155256709837616</v>
+        <v>0.8903959641680643</v>
       </c>
       <c r="O19">
-        <v>3.100681631249842</v>
+        <v>2.10072252239209</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02714385242177286</v>
+        <v>0.07278026660010539</v>
       </c>
       <c r="D20">
-        <v>0.2204701935646085</v>
+        <v>0.2749048572173791</v>
       </c>
       <c r="E20">
-        <v>0.1845093365061246</v>
+        <v>0.2386023218244659</v>
       </c>
       <c r="F20">
-        <v>1.339572001668415</v>
+        <v>1.031688428613563</v>
       </c>
       <c r="G20">
-        <v>0.00243575051941409</v>
+        <v>0.0007783675008975064</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6792515320185544</v>
+        <v>0.5548360943748918</v>
       </c>
       <c r="J20">
-        <v>0.2013449754114305</v>
+        <v>0.267525569161478</v>
       </c>
       <c r="K20">
-        <v>1.754077608535226</v>
+        <v>4.938035718680396</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.155715702981865</v>
+        <v>0.894770104361271</v>
       </c>
       <c r="O20">
-        <v>3.102470035424346</v>
+        <v>2.152600218170619</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02989658792407113</v>
+        <v>0.08145196676522914</v>
       </c>
       <c r="D21">
-        <v>0.2283229741760948</v>
+        <v>0.3069836159305197</v>
       </c>
       <c r="E21">
-        <v>0.1908628945832405</v>
+        <v>0.2668620958104171</v>
       </c>
       <c r="F21">
-        <v>1.349562972838186</v>
+        <v>1.127372160790671</v>
       </c>
       <c r="G21">
-        <v>0.002432399524425422</v>
+        <v>0.0007728436925245804</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6847679607326427</v>
+        <v>0.6082715244177876</v>
       </c>
       <c r="J21">
-        <v>0.208126750785226</v>
+        <v>0.2996921486233646</v>
       </c>
       <c r="K21">
-        <v>1.941047072932179</v>
+        <v>5.568201392799551</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.15777181949008</v>
+        <v>0.9109835649068003</v>
       </c>
       <c r="O21">
-        <v>3.110952904107393</v>
+        <v>2.335151358875663</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03168797393738032</v>
+        <v>0.08713887961866362</v>
       </c>
       <c r="D22">
-        <v>0.2335189362827208</v>
+        <v>0.328185944516278</v>
       </c>
       <c r="E22">
-        <v>0.1950886543903678</v>
+        <v>0.2856452757359875</v>
       </c>
       <c r="F22">
-        <v>1.356827249865844</v>
+        <v>1.192537538905484</v>
       </c>
       <c r="G22">
-        <v>0.002430292360705425</v>
+        <v>0.0007692927122246322</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6887844682137754</v>
+        <v>0.6447536920332766</v>
       </c>
       <c r="J22">
-        <v>0.2126559028557438</v>
+        <v>0.3211714335509868</v>
       </c>
       <c r="K22">
-        <v>2.063197476202561</v>
+        <v>5.982046744145805</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.15949749783897</v>
+        <v>0.9227804564346087</v>
       </c>
       <c r="O22">
-        <v>3.118345242007734</v>
+        <v>2.461151646150398</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03073258788272426</v>
+        <v>0.08410162528184628</v>
       </c>
       <c r="D23">
-        <v>0.2307399570411803</v>
+        <v>0.3168466342394254</v>
       </c>
       <c r="E23">
-        <v>0.1928265876305986</v>
+        <v>0.2755896072923036</v>
       </c>
       <c r="F23">
-        <v>1.352882883494729</v>
+        <v>1.157502375243013</v>
       </c>
       <c r="G23">
-        <v>0.002431409429855869</v>
+        <v>0.0007711827509821696</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6866030991629302</v>
+        <v>0.6251311351157014</v>
       </c>
       <c r="J23">
-        <v>0.2102297414330963</v>
+        <v>0.3096628040643594</v>
       </c>
       <c r="K23">
-        <v>1.998008353116063</v>
+        <v>5.760966194824221</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.158541602432265</v>
+        <v>0.9163697329551184</v>
       </c>
       <c r="O23">
-        <v>3.114230415204446</v>
+        <v>2.393254176953718</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02709873222397619</v>
+        <v>0.07263880398801348</v>
       </c>
       <c r="D24">
-        <v>0.220342927083351</v>
+        <v>0.2743842145381876</v>
       </c>
       <c r="E24">
-        <v>0.1844067316505118</v>
+        <v>0.2381452915268127</v>
       </c>
       <c r="F24">
-        <v>1.339421090562013</v>
+        <v>1.030165807659671</v>
       </c>
       <c r="G24">
-        <v>0.002435806694204464</v>
+        <v>0.0007784588320813123</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6791682977573714</v>
+        <v>0.5539871624566501</v>
       </c>
       <c r="J24">
-        <v>0.2012357652452579</v>
+        <v>0.2670068930839733</v>
       </c>
       <c r="K24">
-        <v>1.751021094441683</v>
+        <v>4.927765179312757</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.15568856067884</v>
+        <v>0.894524361836659</v>
       </c>
       <c r="O24">
-        <v>3.102362528274114</v>
+        <v>2.149721640535404</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02314673824931646</v>
+        <v>0.06033305652317011</v>
       </c>
       <c r="D25">
-        <v>0.2094049488195964</v>
+        <v>0.2294537239081791</v>
       </c>
       <c r="E25">
-        <v>0.1756405719273104</v>
+        <v>0.1989123533511403</v>
       </c>
       <c r="F25">
-        <v>1.328047192198682</v>
+        <v>0.9027406622624312</v>
       </c>
       <c r="G25">
-        <v>0.002440908057353197</v>
+        <v>0.0007865826247583544</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.672908142943399</v>
+        <v>0.483120721391451</v>
       </c>
       <c r="J25">
-        <v>0.1919497417291183</v>
+        <v>0.2226776314708587</v>
       </c>
       <c r="K25">
-        <v>1.484485619107772</v>
+        <v>4.035632947136719</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.154258356547075</v>
+        <v>0.8756739611735895</v>
       </c>
       <c r="O25">
-        <v>3.097468241519977</v>
+        <v>1.912335858160247</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_11/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05129587269082947</v>
+        <v>0.02539819994940018</v>
       </c>
       <c r="D2">
-        <v>0.1969677694312537</v>
+        <v>0.07024144047756664</v>
       </c>
       <c r="E2">
-        <v>0.1708222880325394</v>
+        <v>0.07195175338173243</v>
       </c>
       <c r="F2">
-        <v>0.8160591175270753</v>
+        <v>1.192520086255783</v>
       </c>
       <c r="G2">
-        <v>0.0007928238537831556</v>
+        <v>0.9094314733231244</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.001501437357384505</v>
       </c>
       <c r="I2">
-        <v>0.4351557869224223</v>
+        <v>0.001060060690980524</v>
       </c>
       <c r="J2">
-        <v>0.1911981505352429</v>
+        <v>0.6160592462594963</v>
       </c>
       <c r="K2">
-        <v>3.382346254835284</v>
+        <v>0.757333074934607</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.09356213132355506</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>3.035171217520713</v>
       </c>
       <c r="N2">
-        <v>0.8653993960958815</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.755816928438293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.6958770245770722</v>
+      </c>
+      <c r="P2">
+        <v>0.8868247619132816</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04517373858910645</v>
+        <v>0.02185089539562313</v>
       </c>
       <c r="D3">
-        <v>0.1752543745400175</v>
+        <v>0.06327591513487363</v>
       </c>
       <c r="E3">
-        <v>0.1521933621493901</v>
+        <v>0.06558787545487377</v>
       </c>
       <c r="F3">
-        <v>0.7611367334984536</v>
+        <v>1.116678367196528</v>
       </c>
       <c r="G3">
-        <v>0.0007972260707361913</v>
+        <v>0.8458294504341808</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.002996878920757062</v>
       </c>
       <c r="I3">
-        <v>0.4048986409730659</v>
+        <v>0.0004636226417078504</v>
       </c>
       <c r="J3">
-        <v>0.1704587035824545</v>
+        <v>0.5907419400721494</v>
       </c>
       <c r="K3">
-        <v>2.940913188596539</v>
+        <v>0.7061175916614744</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.08578702068736277</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2.641237306153585</v>
       </c>
       <c r="N3">
-        <v>0.8604822689082425</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.659556641042712</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.6082671716454939</v>
+      </c>
+      <c r="P3">
+        <v>0.9140110853184815</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0414122833934627</v>
+        <v>0.01964069298183801</v>
       </c>
       <c r="D4">
-        <v>0.1620507418746797</v>
+        <v>0.05903962064881796</v>
       </c>
       <c r="E4">
-        <v>0.140929443946245</v>
+        <v>0.06168727056904011</v>
       </c>
       <c r="F4">
-        <v>0.7291074880051198</v>
+        <v>1.070731452501036</v>
       </c>
       <c r="G4">
-        <v>0.0008000173271629841</v>
+        <v>0.8073101060538761</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.004213030545508811</v>
       </c>
       <c r="I4">
-        <v>0.3873145789627017</v>
+        <v>0.0004465432936453517</v>
       </c>
       <c r="J4">
-        <v>0.1579788172941363</v>
+        <v>0.5755466082041494</v>
       </c>
       <c r="K4">
-        <v>2.670240331825454</v>
+        <v>0.6748575490348472</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.0809958520923324</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2.398964040595786</v>
       </c>
       <c r="N4">
-        <v>0.8584110252933996</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.604812153538376</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.5544471365468198</v>
+      </c>
+      <c r="P4">
+        <v>0.931394562816763</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0398783623232859</v>
+        <v>0.01851883065775439</v>
       </c>
       <c r="D5">
-        <v>0.1566996520252957</v>
+        <v>0.05740948877251384</v>
       </c>
       <c r="E5">
-        <v>0.1363794544219417</v>
+        <v>0.06012236454101405</v>
       </c>
       <c r="F5">
-        <v>0.7164544051689319</v>
+        <v>1.051240315283621</v>
       </c>
       <c r="G5">
-        <v>0.0008011774265406374</v>
+        <v>0.79078318432164</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.004783595891808323</v>
       </c>
       <c r="I5">
-        <v>0.3803827989710555</v>
+        <v>0.0005897481696042206</v>
       </c>
       <c r="J5">
-        <v>0.1529517170066157</v>
+        <v>0.5689563605430976</v>
       </c>
       <c r="K5">
-        <v>2.559995514019192</v>
+        <v>0.6611836874111461</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.07902662637271973</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2.29875495915033</v>
       </c>
       <c r="N5">
-        <v>0.8577968403552987</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.583532560513618</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.5323288986781378</v>
+      </c>
+      <c r="P5">
+        <v>0.9387748719662916</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03962357599600352</v>
+        <v>0.01807362937146451</v>
       </c>
       <c r="D6">
-        <v>0.1558128101230949</v>
+        <v>0.05724585233836166</v>
       </c>
       <c r="E6">
-        <v>0.1356262531326315</v>
+        <v>0.05989188508523213</v>
       </c>
       <c r="F6">
-        <v>0.7143767205950766</v>
+        <v>1.046899040816143</v>
       </c>
       <c r="G6">
-        <v>0.0008013714400898486</v>
+        <v>0.7868830083697844</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.004887033981812894</v>
       </c>
       <c r="I6">
-        <v>0.3792454533067442</v>
+        <v>0.0007079066513204779</v>
       </c>
       <c r="J6">
-        <v>0.1521203559899718</v>
+        <v>0.567279788285191</v>
       </c>
       <c r="K6">
-        <v>2.541691851030805</v>
+        <v>0.6577235658073803</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.07868580438806205</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2.280441008621068</v>
       </c>
       <c r="N6">
-        <v>0.8577085000618681</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.580059369272448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.5284419716571662</v>
+      </c>
+      <c r="P6">
+        <v>0.940168846717448</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04139160146122833</v>
+        <v>0.01891283219058693</v>
       </c>
       <c r="D7">
-        <v>0.1619784593685125</v>
+        <v>0.059308792815294</v>
       </c>
       <c r="E7">
-        <v>0.1408679233587975</v>
+        <v>0.06174652052047946</v>
       </c>
       <c r="F7">
-        <v>0.7289352624546339</v>
+        <v>1.067424396790699</v>
       </c>
       <c r="G7">
-        <v>0.0008000328804937966</v>
+        <v>0.8039052761129284</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.004231612809376228</v>
       </c>
       <c r="I7">
-        <v>0.3872201682566612</v>
+        <v>0.0006747415758363573</v>
       </c>
       <c r="J7">
-        <v>0.1579107898589101</v>
+        <v>0.57385278861355</v>
       </c>
       <c r="K7">
-        <v>2.668753348694452</v>
+        <v>0.671410931513023</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.08093261977126431</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.393042260872164</v>
       </c>
       <c r="N7">
-        <v>0.858401822317397</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.604521088250237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.5535637710840149</v>
+      </c>
+      <c r="P7">
+        <v>0.931941005338853</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04918516561134822</v>
+        <v>0.02321828832305783</v>
       </c>
       <c r="D8">
-        <v>0.1894525774677476</v>
+        <v>0.06821833985425485</v>
       </c>
       <c r="E8">
-        <v>0.1643605675565212</v>
+        <v>0.0698626338611561</v>
       </c>
       <c r="F8">
-        <v>0.7967538993966627</v>
+        <v>1.162190900101919</v>
       </c>
       <c r="G8">
-        <v>0.0007943236889432272</v>
+        <v>0.8831526688165354</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.001962782591657053</v>
       </c>
       <c r="I8">
-        <v>0.4245068855102048</v>
+        <v>0.001038383082887506</v>
       </c>
       <c r="J8">
-        <v>0.1839910949146883</v>
+        <v>0.6051262372508717</v>
       </c>
       <c r="K8">
-        <v>3.23004092842325</v>
+        <v>0.7352897701851759</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.09083539388898032</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2.893283284434858</v>
       </c>
       <c r="N8">
-        <v>0.8635019612093231</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.721680025601415</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.6648867270602707</v>
+      </c>
+      <c r="P8">
+        <v>0.8967098466991885</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0644729044894703</v>
+        <v>0.03274276014323618</v>
       </c>
       <c r="D9">
-        <v>0.2444862760556248</v>
+        <v>0.08552859276705504</v>
       </c>
       <c r="E9">
-        <v>0.2119916823662322</v>
+        <v>0.08573703611240546</v>
       </c>
       <c r="F9">
-        <v>0.9444659624539042</v>
+        <v>1.359065491847161</v>
       </c>
       <c r="G9">
-        <v>0.0007838072285572853</v>
+        <v>1.049136016507092</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.747842042378657E-05</v>
       </c>
       <c r="I9">
-        <v>0.5062843743549621</v>
+        <v>0.004431658001993632</v>
       </c>
       <c r="J9">
-        <v>0.2374116570657208</v>
+        <v>0.6723882748292453</v>
       </c>
       <c r="K9">
-        <v>4.335459989098638</v>
+        <v>0.868263265409567</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1102523810781477</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>3.880425986135435</v>
       </c>
       <c r="N9">
-        <v>0.8814352393564491</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.989239958493613</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.884290971703102</v>
+      </c>
+      <c r="P9">
+        <v>0.8324441843098569</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0757441138846815</v>
+        <v>0.0398387427338136</v>
       </c>
       <c r="D10">
-        <v>0.2858331900797566</v>
+        <v>0.09592807185795493</v>
       </c>
       <c r="E10">
-        <v>0.2482076078531605</v>
+        <v>0.09331288620693101</v>
       </c>
       <c r="F10">
-        <v>1.063876639378122</v>
+        <v>1.486508724373749</v>
       </c>
       <c r="G10">
-        <v>0.0007764633979257917</v>
+        <v>1.158739633602693</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0005463187780390122</v>
       </c>
       <c r="I10">
-        <v>0.5727930857944656</v>
+        <v>0.00909004458173257</v>
       </c>
       <c r="J10">
-        <v>0.2784379595765643</v>
+        <v>0.7160012087602894</v>
       </c>
       <c r="K10">
-        <v>5.153289946940959</v>
+        <v>0.9558259111246343</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1185018483887106</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>4.588130270392753</v>
       </c>
       <c r="N10">
-        <v>0.9000603047080062</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.213655620450936</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.030188544484709</v>
+      </c>
+      <c r="P10">
+        <v>0.7928536957515462</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.08088900260246135</v>
+        <v>0.04703246795358496</v>
       </c>
       <c r="D11">
-        <v>0.3048916374027186</v>
+        <v>0.07872309746123562</v>
       </c>
       <c r="E11">
-        <v>0.2650132602382413</v>
+        <v>0.06546875941744901</v>
       </c>
       <c r="F11">
-        <v>1.121023308118652</v>
+        <v>1.369792741394235</v>
       </c>
       <c r="G11">
-        <v>0.0007731981078339995</v>
+        <v>1.079213589903006</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01912558626990446</v>
       </c>
       <c r="I11">
-        <v>0.6047208987224266</v>
+        <v>0.01114048052051775</v>
       </c>
       <c r="J11">
-        <v>0.2975821347320391</v>
+        <v>0.6713392226046437</v>
       </c>
       <c r="K11">
-        <v>5.527257906735997</v>
+        <v>0.9038136443106808</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.08131748961542939</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>4.76687205378829</v>
       </c>
       <c r="N11">
-        <v>0.9098644801446341</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.322943878176375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.9638245406066588</v>
+      </c>
+      <c r="P11">
+        <v>0.8135301931453967</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.08284053152372906</v>
+        <v>0.05333215451634743</v>
       </c>
       <c r="D12">
-        <v>0.3121489255271541</v>
+        <v>0.0634911162951397</v>
       </c>
       <c r="E12">
-        <v>0.271430513955039</v>
+        <v>0.04785436154608824</v>
       </c>
       <c r="F12">
-        <v>1.143111119608733</v>
+        <v>1.252199821045622</v>
       </c>
       <c r="G12">
-        <v>0.0007719718182445802</v>
+        <v>0.9955317453215002</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05770293642744662</v>
       </c>
       <c r="I12">
-        <v>0.6170765251010337</v>
+        <v>0.01144071624556897</v>
       </c>
       <c r="J12">
-        <v>0.3049091932824268</v>
+        <v>0.6275080354738662</v>
       </c>
       <c r="K12">
-        <v>5.669208478458359</v>
+        <v>0.8472495173724255</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.06410671289342496</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>4.773201890064456</v>
       </c>
       <c r="N12">
-        <v>0.9137818780731664</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.36546788904252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.8802529831125909</v>
+      </c>
+      <c r="P12">
+        <v>0.8460909543309469</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.08242007686745012</v>
+        <v>0.05806239168752114</v>
       </c>
       <c r="D13">
-        <v>0.3105840741493466</v>
+        <v>0.04941821210544362</v>
       </c>
       <c r="E13">
-        <v>0.2700459758033205</v>
+        <v>0.0371871769325085</v>
       </c>
       <c r="F13">
-        <v>1.138333515556013</v>
+        <v>1.122646451973125</v>
       </c>
       <c r="G13">
-        <v>0.0007722354785881783</v>
+        <v>0.8988913366578259</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1132794980564</v>
       </c>
       <c r="I13">
-        <v>0.614403307931731</v>
+        <v>0.0106352366847382</v>
       </c>
       <c r="J13">
-        <v>0.3033275889690401</v>
+        <v>0.5792601927866912</v>
       </c>
       <c r="K13">
-        <v>5.63862089765945</v>
+        <v>0.7788377371951398</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06101190123142786</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4.639708819176235</v>
       </c>
       <c r="N13">
-        <v>0.9129288666946564</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.356257192712661</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.7783712482358922</v>
+      </c>
+      <c r="P13">
+        <v>0.8892218680364152</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.08104948602263562</v>
+        <v>0.0604110179598436</v>
       </c>
       <c r="D14">
-        <v>0.3054878654626094</v>
+        <v>0.04048965324239617</v>
       </c>
       <c r="E14">
-        <v>0.2655401084475599</v>
+        <v>0.03389424037094135</v>
       </c>
       <c r="F14">
-        <v>1.122831267266648</v>
+        <v>1.027104553433261</v>
       </c>
       <c r="G14">
-        <v>0.0007730970195701495</v>
+        <v>0.8254552346815984</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1625071906067177</v>
       </c>
       <c r="I14">
-        <v>0.6057319388361719</v>
+        <v>0.009685173469167196</v>
       </c>
       <c r="J14">
-        <v>0.2981833310168298</v>
+        <v>0.5434753971193231</v>
       </c>
       <c r="K14">
-        <v>5.538929154461982</v>
+        <v>0.7252767571749175</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06723358892787701</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.482152789958604</v>
       </c>
       <c r="N14">
-        <v>0.910182583210414</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.326418906444673</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.6997132529024768</v>
+      </c>
+      <c r="P14">
+        <v>0.9249332289472534</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.08021040868759144</v>
+        <v>0.06018629815208953</v>
       </c>
       <c r="D15">
-        <v>0.3023716706922528</v>
+        <v>0.03838737763308586</v>
       </c>
       <c r="E15">
-        <v>0.2627872564713556</v>
+        <v>0.03357305251916443</v>
       </c>
       <c r="F15">
-        <v>1.113395262876381</v>
+        <v>1.00014025439755</v>
       </c>
       <c r="G15">
-        <v>0.000773626047371586</v>
+        <v>0.8037177452156072</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1749745378354106</v>
       </c>
       <c r="I15">
-        <v>0.6004557860871884</v>
+        <v>0.009328891579766463</v>
       </c>
       <c r="J15">
-        <v>0.2950426877641519</v>
+        <v>0.533291685247363</v>
       </c>
       <c r="K15">
-        <v>5.477910814656298</v>
+        <v>0.7086301546101197</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06964319038971212</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.412674412856575</v>
       </c>
       <c r="N15">
-        <v>0.9085274840113868</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.308293626703147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.6763687128925113</v>
+      </c>
+      <c r="P15">
+        <v>0.9351928466591062</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07540829914665892</v>
+        <v>0.05543587994677068</v>
       </c>
       <c r="D16">
-        <v>0.2845930639144854</v>
+        <v>0.03727805629457492</v>
       </c>
       <c r="E16">
-        <v>0.2471164569373911</v>
+        <v>0.0327962546035887</v>
       </c>
       <c r="F16">
-        <v>1.060202289605996</v>
+        <v>0.9721783701963886</v>
       </c>
       <c r="G16">
-        <v>0.00077667825655778</v>
+        <v>0.7757826058123385</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1621060902370886</v>
       </c>
       <c r="I16">
-        <v>0.5707422569484564</v>
+        <v>0.007442745403863249</v>
       </c>
       <c r="J16">
-        <v>0.2771972258626221</v>
+        <v>0.5239081745760359</v>
       </c>
       <c r="K16">
-        <v>5.128894090179358</v>
+        <v>0.6840586968126061</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.0667927230481169</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.135048630022368</v>
       </c>
       <c r="N16">
-        <v>0.8994474867876363</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.206666931881983</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.637146029156483</v>
+      </c>
+      <c r="P16">
+        <v>0.9400522554464814</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.07246737110529011</v>
+        <v>0.05054453766407363</v>
       </c>
       <c r="D17">
-        <v>0.2737533873730769</v>
+        <v>0.04095483521458831</v>
       </c>
       <c r="E17">
-        <v>0.2375916104722506</v>
+        <v>0.03324376164229403</v>
       </c>
       <c r="F17">
-        <v>1.028322293770387</v>
+        <v>1.000718558492451</v>
       </c>
       <c r="G17">
-        <v>0.0007785695691158335</v>
+        <v>0.7928806566585962</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1243082822987844</v>
       </c>
       <c r="I17">
-        <v>0.5529593796162615</v>
+        <v>0.006562283893845944</v>
       </c>
       <c r="J17">
-        <v>0.2663785970114532</v>
+        <v>0.5355398758805734</v>
       </c>
       <c r="K17">
-        <v>4.915319146902334</v>
+        <v>0.6933026931527593</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.05990778584144962</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.005671624904608</v>
       </c>
       <c r="N17">
-        <v>0.8942273925049591</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.14623759027603</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.6480355966032718</v>
+      </c>
+      <c r="P17">
+        <v>0.9249748464245187</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.07077743187207375</v>
+        <v>0.04591424544537404</v>
       </c>
       <c r="D18">
-        <v>0.2675418964563363</v>
+        <v>0.05002288330665294</v>
       </c>
       <c r="E18">
-        <v>0.232143941568232</v>
+        <v>0.03851145699182457</v>
       </c>
       <c r="F18">
-        <v>1.010249123767565</v>
+        <v>1.085245748759675</v>
       </c>
       <c r="G18">
-        <v>0.0007796645456088323</v>
+        <v>0.8540473626140113</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07147235754036529</v>
       </c>
       <c r="I18">
-        <v>0.5428869884423193</v>
+        <v>0.00608492209342959</v>
       </c>
       <c r="J18">
-        <v>0.2602007506277175</v>
+        <v>0.568167336940391</v>
       </c>
       <c r="K18">
-        <v>4.792654601485765</v>
+        <v>0.7356601086605536</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.0564399296089455</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>3.991863939065865</v>
       </c>
       <c r="N18">
-        <v>0.8913494096817374</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.112151314279714</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.705319437081144</v>
+      </c>
+      <c r="P18">
+        <v>0.8934329666911509</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.07020550128511616</v>
+        <v>0.04044996707995097</v>
       </c>
       <c r="D19">
-        <v>0.2654426496912237</v>
+        <v>0.06472235023758088</v>
       </c>
       <c r="E19">
-        <v>0.2303045718006871</v>
+        <v>0.0528840894854774</v>
       </c>
       <c r="F19">
-        <v>1.004173887387552</v>
+        <v>1.207781319737364</v>
       </c>
       <c r="G19">
-        <v>0.0007800365316376955</v>
+        <v>0.9434372578494816</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02620659637577205</v>
       </c>
       <c r="I19">
-        <v>0.539502694521012</v>
+        <v>0.006419450914349589</v>
       </c>
       <c r="J19">
-        <v>0.2581164777707414</v>
+        <v>0.6137431140498819</v>
       </c>
       <c r="K19">
-        <v>4.751151368569481</v>
+        <v>0.7974341230351456</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.06729316201337276</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>4.062771213661961</v>
       </c>
       <c r="N19">
-        <v>0.8903959641680643</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.10072252239209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.7979097881934791</v>
+      </c>
+      <c r="P19">
+        <v>0.857772180527455</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.07278026660010539</v>
+        <v>0.03567502154093205</v>
       </c>
       <c r="D20">
-        <v>0.2749048572173791</v>
+        <v>0.09398257843093916</v>
       </c>
       <c r="E20">
-        <v>0.2386023218244659</v>
+        <v>0.09138142698430229</v>
       </c>
       <c r="F20">
-        <v>1.031688428613563</v>
+        <v>1.442336897590081</v>
       </c>
       <c r="G20">
-        <v>0.0007783675008975064</v>
+        <v>1.119033845363447</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0002655765298320567</v>
       </c>
       <c r="I20">
-        <v>0.5548360943748918</v>
+        <v>0.008324848653431971</v>
       </c>
       <c r="J20">
-        <v>0.267525569161478</v>
+        <v>0.699061644276</v>
       </c>
       <c r="K20">
-        <v>4.938035718680396</v>
+        <v>0.9219869599533794</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1159507877890604</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>4.386761868695885</v>
       </c>
       <c r="N20">
-        <v>0.894770104361271</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.152600218170619</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.9893259855065537</v>
+      </c>
+      <c r="P20">
+        <v>0.8050036570532981</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.08145196676522914</v>
+        <v>0.04071102050439634</v>
       </c>
       <c r="D21">
-        <v>0.3069836159305197</v>
+        <v>0.1061342323581655</v>
       </c>
       <c r="E21">
-        <v>0.2668620958104171</v>
+        <v>0.10381017956243</v>
       </c>
       <c r="F21">
-        <v>1.127372160790671</v>
+        <v>1.574747385445534</v>
       </c>
       <c r="G21">
-        <v>0.0007728436925245804</v>
+        <v>1.229358907448812</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.001103231245562775</v>
       </c>
       <c r="I21">
-        <v>0.6082715244177876</v>
+        <v>0.01267867116657673</v>
       </c>
       <c r="J21">
-        <v>0.2996921486233646</v>
+        <v>0.7457045325774629</v>
       </c>
       <c r="K21">
-        <v>5.568201392799551</v>
+        <v>1.007654189042967</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1317289086969708</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>4.957177668939948</v>
       </c>
       <c r="N21">
-        <v>0.9109835649068003</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.335151358875663</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.125678936852765</v>
+      </c>
+      <c r="P21">
+        <v>0.7703279839288726</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08713887961866362</v>
+        <v>0.04524874585447236</v>
       </c>
       <c r="D22">
-        <v>0.328185944516278</v>
+        <v>0.1123541068709955</v>
       </c>
       <c r="E22">
-        <v>0.2856452757359875</v>
+        <v>0.1096972818050723</v>
       </c>
       <c r="F22">
-        <v>1.192537538905484</v>
+        <v>1.656251230362059</v>
       </c>
       <c r="G22">
-        <v>0.0007692927122246322</v>
+        <v>1.29927194791037</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.002125394786278045</v>
       </c>
       <c r="I22">
-        <v>0.6447536920332766</v>
+        <v>0.01575091993890609</v>
       </c>
       <c r="J22">
-        <v>0.3211714335509868</v>
+        <v>0.7751468788408431</v>
       </c>
       <c r="K22">
-        <v>5.982046744145805</v>
+        <v>1.063306339665502</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1390452383688086</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5.328989636352617</v>
       </c>
       <c r="N22">
-        <v>0.9227804564346087</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.461151646150398</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.20798766774665</v>
+      </c>
+      <c r="P22">
+        <v>0.749416371679871</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08410162528184628</v>
+        <v>0.04370767232429529</v>
       </c>
       <c r="D23">
-        <v>0.3168466342394254</v>
+        <v>0.1086739018091123</v>
       </c>
       <c r="E23">
-        <v>0.2755896072923036</v>
+        <v>0.1064524963810101</v>
       </c>
       <c r="F23">
-        <v>1.157502375243013</v>
+        <v>1.61628698967553</v>
       </c>
       <c r="G23">
-        <v>0.0007711827509821696</v>
+        <v>1.265680690041108</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.001547255958805671</v>
       </c>
       <c r="I23">
-        <v>0.6251311351157014</v>
+        <v>0.01383520429458684</v>
       </c>
       <c r="J23">
-        <v>0.3096628040643594</v>
+        <v>0.7612873666325584</v>
       </c>
       <c r="K23">
-        <v>5.760966194824221</v>
+        <v>1.037481731474855</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1351803172221153</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.136163712987013</v>
       </c>
       <c r="N23">
-        <v>0.9163697329551184</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.393254176953718</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.164767579382186</v>
+      </c>
+      <c r="P23">
+        <v>0.7597485074425236</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.07263880398801348</v>
+        <v>0.03649260265101617</v>
       </c>
       <c r="D24">
-        <v>0.2743842145381876</v>
+        <v>0.09542913378950146</v>
       </c>
       <c r="E24">
-        <v>0.2381452915268127</v>
+        <v>0.09441548499773589</v>
       </c>
       <c r="F24">
-        <v>1.030165807659671</v>
+        <v>1.461559986621339</v>
       </c>
       <c r="G24">
-        <v>0.0007784588320813123</v>
+        <v>1.134622310425996</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0001711930106589321</v>
       </c>
       <c r="I24">
-        <v>0.5539871624566501</v>
+        <v>0.00793929616865352</v>
       </c>
       <c r="J24">
-        <v>0.2670068930839733</v>
+        <v>0.7069793238184445</v>
       </c>
       <c r="K24">
-        <v>4.927765179312757</v>
+        <v>0.9345677980687839</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1205647417758939</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>4.398256091897792</v>
       </c>
       <c r="N24">
-        <v>0.894524361836659</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.149721640535404</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.000364091202172</v>
+      </c>
+      <c r="P24">
+        <v>0.8017441000786931</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.06033305652317011</v>
+        <v>0.02885662082179152</v>
       </c>
       <c r="D25">
-        <v>0.2294537239081791</v>
+        <v>0.08133561251342769</v>
       </c>
       <c r="E25">
-        <v>0.1989123533511403</v>
+        <v>0.08157226218095204</v>
       </c>
       <c r="F25">
-        <v>0.9027406622624312</v>
+        <v>1.299567905257689</v>
       </c>
       <c r="G25">
-        <v>0.0007865826247583544</v>
+        <v>0.997811200645188</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0002663934752495933</v>
       </c>
       <c r="I25">
-        <v>0.483120721391451</v>
+        <v>0.003511093903157736</v>
       </c>
       <c r="J25">
-        <v>0.2226776314708587</v>
+        <v>0.650910465744218</v>
       </c>
       <c r="K25">
-        <v>4.035632947136719</v>
+        <v>0.8260789381556108</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1049300210342388</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>3.604942317767495</v>
       </c>
       <c r="N25">
-        <v>0.8756739611735895</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.912335858160247</v>
+        <v>0.8238026769386124</v>
+      </c>
+      <c r="P25">
+        <v>0.8501891860475475</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_11/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02539819994940018</v>
+        <v>0.004218388395013761</v>
       </c>
       <c r="D2">
-        <v>0.07024144047756664</v>
+        <v>0.08476596781735424</v>
       </c>
       <c r="E2">
-        <v>0.07195175338173243</v>
+        <v>0.07695109568189906</v>
       </c>
       <c r="F2">
-        <v>1.192520086255783</v>
+        <v>1.059638246722329</v>
       </c>
       <c r="G2">
-        <v>0.9094314733231244</v>
+        <v>0.7535269273350451</v>
       </c>
       <c r="H2">
-        <v>0.001501437357384505</v>
+        <v>0.001489839301501261</v>
       </c>
       <c r="I2">
-        <v>0.001060060690980524</v>
+        <v>0.00138528263922133</v>
       </c>
       <c r="J2">
-        <v>0.6160592462594963</v>
+        <v>0.5752981922365592</v>
       </c>
       <c r="K2">
-        <v>0.757333074934607</v>
+        <v>0.6131070775004517</v>
       </c>
       <c r="L2">
-        <v>0.09356213132355506</v>
+        <v>0.2898604479808711</v>
       </c>
       <c r="M2">
-        <v>3.035171217520713</v>
+        <v>0.181519150210196</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.09368599044214321</v>
       </c>
       <c r="O2">
-        <v>0.6958770245770722</v>
+        <v>2.847254030238673</v>
       </c>
       <c r="P2">
-        <v>0.8868247619132816</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.6714530243104662</v>
+      </c>
+      <c r="R2">
+        <v>0.9038388515393549</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02185089539562313</v>
+        <v>0.004573797898043352</v>
       </c>
       <c r="D3">
-        <v>0.06327591513487363</v>
+        <v>0.07600316811974039</v>
       </c>
       <c r="E3">
-        <v>0.06558787545487377</v>
+        <v>0.07031380867696413</v>
       </c>
       <c r="F3">
-        <v>1.116678367196528</v>
+        <v>1.000758973182457</v>
       </c>
       <c r="G3">
-        <v>0.8458294504341808</v>
+        <v>0.7095360111897122</v>
       </c>
       <c r="H3">
-        <v>0.002996878920757062</v>
+        <v>0.002842316633347552</v>
       </c>
       <c r="I3">
-        <v>0.0004636226417078504</v>
+        <v>0.0007016156584480626</v>
       </c>
       <c r="J3">
-        <v>0.5907419400721494</v>
+        <v>0.5540898638501233</v>
       </c>
       <c r="K3">
-        <v>0.7061175916614744</v>
+        <v>0.5794049909297314</v>
       </c>
       <c r="L3">
-        <v>0.08578702068736277</v>
+        <v>0.2855669794233648</v>
       </c>
       <c r="M3">
-        <v>2.641237306153585</v>
+        <v>0.1612516134400686</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.0864750251110955</v>
       </c>
       <c r="O3">
-        <v>0.6082671716454939</v>
+        <v>2.485171909348225</v>
       </c>
       <c r="P3">
-        <v>0.9140110853184815</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5878949699995033</v>
+      </c>
+      <c r="R3">
+        <v>0.9228622822288131</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01964069298183801</v>
+        <v>0.004852407929822888</v>
       </c>
       <c r="D4">
-        <v>0.05903962064881796</v>
+        <v>0.0706879842988215</v>
       </c>
       <c r="E4">
-        <v>0.06168727056904011</v>
+        <v>0.06624857264916528</v>
       </c>
       <c r="F4">
-        <v>1.070731452501036</v>
+        <v>0.9649761792413258</v>
       </c>
       <c r="G4">
-        <v>0.8073101060538761</v>
+        <v>0.6829752567560234</v>
       </c>
       <c r="H4">
-        <v>0.004213030545508811</v>
+        <v>0.003928046786205397</v>
       </c>
       <c r="I4">
-        <v>0.0004465432936453517</v>
+        <v>0.0005345488660761788</v>
       </c>
       <c r="J4">
-        <v>0.5755466082041494</v>
+        <v>0.5410728598460395</v>
       </c>
       <c r="K4">
-        <v>0.6748575490348472</v>
+        <v>0.5586619196734688</v>
       </c>
       <c r="L4">
-        <v>0.0809958520923324</v>
+        <v>0.2826539446719636</v>
       </c>
       <c r="M4">
-        <v>2.398964040595786</v>
+        <v>0.1495694383973927</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.08202325719746284</v>
       </c>
       <c r="O4">
-        <v>0.5544471365468198</v>
+        <v>2.261993755618619</v>
       </c>
       <c r="P4">
-        <v>0.931394562816763</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.5364937373276817</v>
+      </c>
+      <c r="R4">
+        <v>0.9353246410364306</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01851883065775439</v>
+        <v>0.004893972076127184</v>
       </c>
       <c r="D5">
-        <v>0.05740948877251384</v>
+        <v>0.06862947823315579</v>
       </c>
       <c r="E5">
-        <v>0.06012236454101405</v>
+        <v>0.0646182114934053</v>
       </c>
       <c r="F5">
-        <v>1.051240315283621</v>
+        <v>0.9496663146802788</v>
       </c>
       <c r="G5">
-        <v>0.79078318432164</v>
+        <v>0.671432676520169</v>
       </c>
       <c r="H5">
-        <v>0.004783595891808323</v>
+        <v>0.004434865575054237</v>
       </c>
       <c r="I5">
-        <v>0.0005897481696042206</v>
+        <v>0.0006050016922856116</v>
       </c>
       <c r="J5">
-        <v>0.5689563605430976</v>
+        <v>0.535330970312117</v>
       </c>
       <c r="K5">
-        <v>0.6611836874111461</v>
+        <v>0.5493666845801783</v>
       </c>
       <c r="L5">
-        <v>0.07902662637271973</v>
+        <v>0.2810330837843082</v>
       </c>
       <c r="M5">
-        <v>2.29875495915033</v>
+        <v>0.1447383818879011</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.08019217467310824</v>
       </c>
       <c r="O5">
-        <v>0.5323288986781378</v>
+        <v>2.169562129567453</v>
       </c>
       <c r="P5">
-        <v>0.9387748719662916</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.5153564210670183</v>
+      </c>
+      <c r="R5">
+        <v>0.9407790601667649</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01807362937146451</v>
+        <v>0.00479911222395657</v>
       </c>
       <c r="D6">
-        <v>0.05724585233836166</v>
+        <v>0.06840135768585753</v>
       </c>
       <c r="E6">
-        <v>0.05989188508523213</v>
+        <v>0.06437771073685639</v>
       </c>
       <c r="F6">
-        <v>1.046899040816143</v>
+        <v>0.9461367202493705</v>
       </c>
       <c r="G6">
-        <v>0.7868830083697844</v>
+        <v>0.6685186092816622</v>
       </c>
       <c r="H6">
-        <v>0.004887033981812894</v>
+        <v>0.004526447878990592</v>
       </c>
       <c r="I6">
-        <v>0.0007079066513204779</v>
+        <v>0.0007248885977659825</v>
       </c>
       <c r="J6">
-        <v>0.567279788285191</v>
+        <v>0.5338438320125505</v>
       </c>
       <c r="K6">
-        <v>0.6577235658073803</v>
+        <v>0.5468130694425284</v>
       </c>
       <c r="L6">
-        <v>0.07868580438806205</v>
+        <v>0.2803160488926366</v>
       </c>
       <c r="M6">
-        <v>2.280441008621068</v>
+        <v>0.1436299448292182</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.07987572723140701</v>
       </c>
       <c r="O6">
-        <v>0.5284419716571662</v>
+        <v>2.152661301638972</v>
       </c>
       <c r="P6">
-        <v>0.940168846717448</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.5116451862441167</v>
+      </c>
+      <c r="R6">
+        <v>0.9419240951953007</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01891283219058693</v>
+        <v>0.004625661687205351</v>
       </c>
       <c r="D7">
-        <v>0.059308792815294</v>
+        <v>0.07115964070652581</v>
       </c>
       <c r="E7">
-        <v>0.06174652052047946</v>
+        <v>0.0663607590655495</v>
       </c>
       <c r="F7">
-        <v>1.067424396790699</v>
+        <v>0.9603998327287684</v>
       </c>
       <c r="G7">
-        <v>0.8039052761129284</v>
+        <v>0.6836155643632509</v>
       </c>
       <c r="H7">
-        <v>0.004231612809376228</v>
+        <v>0.003949664539783959</v>
       </c>
       <c r="I7">
-        <v>0.0006747415758363573</v>
+        <v>0.0008010519568371066</v>
       </c>
       <c r="J7">
-        <v>0.57385278861355</v>
+        <v>0.5331585686548124</v>
       </c>
       <c r="K7">
-        <v>0.671410931513023</v>
+        <v>0.5546963957995459</v>
       </c>
       <c r="L7">
-        <v>0.08093261977126431</v>
+        <v>0.280973428181845</v>
       </c>
       <c r="M7">
-        <v>2.393042260872164</v>
+        <v>0.1482656998916418</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.08194726729724522</v>
       </c>
       <c r="O7">
-        <v>0.5535637710840149</v>
+        <v>2.253954886800045</v>
       </c>
       <c r="P7">
-        <v>0.931941005338853</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.5353270002688078</v>
+      </c>
+      <c r="R7">
+        <v>0.9364289779952202</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02321828832305783</v>
+        <v>0.004135527895069657</v>
       </c>
       <c r="D8">
-        <v>0.06821833985425485</v>
+        <v>0.08278673901032363</v>
       </c>
       <c r="E8">
-        <v>0.0698626338611561</v>
+        <v>0.07494579562866477</v>
       </c>
       <c r="F8">
-        <v>1.162190900101919</v>
+        <v>1.030171368109663</v>
       </c>
       <c r="G8">
-        <v>0.8831526688165354</v>
+        <v>0.7464844304736289</v>
       </c>
       <c r="H8">
-        <v>0.001962782591657053</v>
+        <v>0.001921807753877292</v>
       </c>
       <c r="I8">
-        <v>0.001038383082887506</v>
+        <v>0.001398967197925316</v>
       </c>
       <c r="J8">
-        <v>0.6051262372508717</v>
+        <v>0.5451034278018625</v>
       </c>
       <c r="K8">
-        <v>0.7352897701851759</v>
+        <v>0.5942736965639526</v>
       </c>
       <c r="L8">
-        <v>0.09083539388898032</v>
+        <v>0.2854857052266553</v>
       </c>
       <c r="M8">
-        <v>2.893283284434858</v>
+        <v>0.1718744333197861</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.09110143824011629</v>
       </c>
       <c r="O8">
-        <v>0.6648867270602707</v>
+        <v>2.70829957213914</v>
       </c>
       <c r="P8">
-        <v>0.8967098466991885</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.6408037504646487</v>
+      </c>
+      <c r="R8">
+        <v>0.9125889127081024</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.03274276014323618</v>
+        <v>0.004020486709716664</v>
       </c>
       <c r="D9">
-        <v>0.08552859276705504</v>
+        <v>0.104892224716636</v>
       </c>
       <c r="E9">
-        <v>0.08573703611240546</v>
+        <v>0.09156377103432689</v>
       </c>
       <c r="F9">
-        <v>1.359065491847161</v>
+        <v>1.18124108886083</v>
       </c>
       <c r="G9">
-        <v>1.049136016507092</v>
+        <v>0.8658604602681095</v>
       </c>
       <c r="H9">
-        <v>3.747842042378657E-05</v>
+        <v>7.750920081117663E-05</v>
       </c>
       <c r="I9">
-        <v>0.004431658001993632</v>
+        <v>0.004343402387268824</v>
       </c>
       <c r="J9">
-        <v>0.6723882748292453</v>
+        <v>0.5939975784030622</v>
       </c>
       <c r="K9">
-        <v>0.868263265409567</v>
+        <v>0.6805241792458716</v>
       </c>
       <c r="L9">
-        <v>0.1102523810781477</v>
+        <v>0.2958431739413143</v>
       </c>
       <c r="M9">
-        <v>3.880425986135435</v>
+        <v>0.2273481759877427</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1090369071717525</v>
       </c>
       <c r="O9">
-        <v>0.884290971703102</v>
+        <v>3.610063967074666</v>
       </c>
       <c r="P9">
-        <v>0.8324441843098569</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.8492695351987578</v>
+      </c>
+      <c r="R9">
+        <v>0.8695856656252801</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0398387427338136</v>
+        <v>0.004830059876844928</v>
       </c>
       <c r="D10">
-        <v>0.09592807185795493</v>
+        <v>0.11960567682722</v>
       </c>
       <c r="E10">
-        <v>0.09331288620693101</v>
+        <v>0.09972622656442098</v>
       </c>
       <c r="F10">
-        <v>1.486508724373749</v>
+        <v>1.266951224822236</v>
       </c>
       <c r="G10">
-        <v>1.158739633602693</v>
+        <v>0.9649305539078767</v>
       </c>
       <c r="H10">
-        <v>0.0005463187780390122</v>
+        <v>0.0003796311954724629</v>
       </c>
       <c r="I10">
-        <v>0.00909004458173257</v>
+        <v>0.008058440780922105</v>
       </c>
       <c r="J10">
-        <v>0.7160012087602894</v>
+        <v>0.5881155716803335</v>
       </c>
       <c r="K10">
-        <v>0.9558259111246343</v>
+        <v>0.7290046261994192</v>
       </c>
       <c r="L10">
-        <v>0.1185018483887106</v>
+        <v>0.2967844800884478</v>
       </c>
       <c r="M10">
-        <v>4.588130270392753</v>
+        <v>0.2660888084550166</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1160777951741991</v>
       </c>
       <c r="O10">
-        <v>1.030188544484709</v>
+        <v>4.239176170835663</v>
       </c>
       <c r="P10">
-        <v>0.7928536957515462</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.9852467031536065</v>
+      </c>
+      <c r="R10">
+        <v>0.8505241899623073</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.04703246795358496</v>
+        <v>0.008476401762216312</v>
       </c>
       <c r="D11">
-        <v>0.07872309746123562</v>
+        <v>0.1016534030790908</v>
       </c>
       <c r="E11">
-        <v>0.06546875941744901</v>
+        <v>0.07005354613728265</v>
       </c>
       <c r="F11">
-        <v>1.369792741394235</v>
+        <v>1.14236294576574</v>
       </c>
       <c r="G11">
-        <v>1.079213589903006</v>
+        <v>0.9394339687721498</v>
       </c>
       <c r="H11">
-        <v>0.01912558626990446</v>
+        <v>0.01892932977515471</v>
       </c>
       <c r="I11">
-        <v>0.01114048052051775</v>
+        <v>0.00976557423419866</v>
       </c>
       <c r="J11">
-        <v>0.6713392226046437</v>
+        <v>0.483216011355168</v>
       </c>
       <c r="K11">
-        <v>0.9038136443106808</v>
+        <v>0.6729885777953726</v>
       </c>
       <c r="L11">
-        <v>0.08131748961542939</v>
+        <v>0.2696621646233339</v>
       </c>
       <c r="M11">
-        <v>4.76687205378829</v>
+        <v>0.2527449468405365</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.07857429861930498</v>
       </c>
       <c r="O11">
-        <v>0.9638245406066588</v>
+        <v>4.377698123302537</v>
       </c>
       <c r="P11">
-        <v>0.8135301931453967</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.9163655029391578</v>
+      </c>
+      <c r="R11">
+        <v>0.8991465244738563</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.05333215451634743</v>
+        <v>0.01246332110141424</v>
       </c>
       <c r="D12">
-        <v>0.0634911162951397</v>
+        <v>0.08391273836506485</v>
       </c>
       <c r="E12">
-        <v>0.04785436154608824</v>
+        <v>0.05044409437886799</v>
       </c>
       <c r="F12">
-        <v>1.252199821045622</v>
+        <v>1.033191794924718</v>
       </c>
       <c r="G12">
-        <v>0.9955317453215002</v>
+        <v>0.8876708990049877</v>
       </c>
       <c r="H12">
-        <v>0.05770293642744662</v>
+        <v>0.05753260793493098</v>
       </c>
       <c r="I12">
-        <v>0.01144071624556897</v>
+        <v>0.009962685726335074</v>
       </c>
       <c r="J12">
-        <v>0.6275080354738662</v>
+        <v>0.4245854620873502</v>
       </c>
       <c r="K12">
-        <v>0.8472495173724255</v>
+        <v>0.6246427216295416</v>
       </c>
       <c r="L12">
-        <v>0.06410671289342496</v>
+        <v>0.2502572922085378</v>
       </c>
       <c r="M12">
-        <v>4.773201890064456</v>
+        <v>0.2363893057344271</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.06138898037540752</v>
       </c>
       <c r="O12">
-        <v>0.8802529831125909</v>
+        <v>4.376261769371581</v>
       </c>
       <c r="P12">
-        <v>0.8460909543309469</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.8341492682472733</v>
+      </c>
+      <c r="R12">
+        <v>0.9491628061549875</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.05806239168752114</v>
+        <v>0.01619682412795953</v>
       </c>
       <c r="D13">
-        <v>0.04941821210544362</v>
+        <v>0.06582702482540981</v>
       </c>
       <c r="E13">
-        <v>0.0371871769325085</v>
+        <v>0.03773567010328538</v>
       </c>
       <c r="F13">
-        <v>1.122646451973125</v>
+        <v>0.927877365210108</v>
       </c>
       <c r="G13">
-        <v>0.8988913366578259</v>
+        <v>0.8006292987991657</v>
       </c>
       <c r="H13">
-        <v>0.1132794980564</v>
+        <v>0.1131796012284099</v>
       </c>
       <c r="I13">
-        <v>0.0106352366847382</v>
+        <v>0.009357792843363022</v>
       </c>
       <c r="J13">
-        <v>0.5792601927866912</v>
+        <v>0.4000993211656549</v>
       </c>
       <c r="K13">
-        <v>0.7788377371951398</v>
+        <v>0.5770119786819237</v>
       </c>
       <c r="L13">
-        <v>0.06101190123142786</v>
+        <v>0.2342617570053633</v>
       </c>
       <c r="M13">
-        <v>4.639708819176235</v>
+        <v>0.2162122523805152</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.0585922531729608</v>
       </c>
       <c r="O13">
-        <v>0.7783712482358922</v>
+        <v>4.267216854210176</v>
       </c>
       <c r="P13">
-        <v>0.8892218680364152</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.7372415886777262</v>
+      </c>
+      <c r="R13">
+        <v>0.9989886714926826</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0604110179598436</v>
+        <v>0.01856783421693109</v>
       </c>
       <c r="D14">
-        <v>0.04048965324239617</v>
+        <v>0.05368993300221092</v>
       </c>
       <c r="E14">
-        <v>0.03389424037094135</v>
+        <v>0.03315658954234602</v>
       </c>
       <c r="F14">
-        <v>1.027104553433261</v>
+        <v>0.855303450785371</v>
       </c>
       <c r="G14">
-        <v>0.8254552346815984</v>
+        <v>0.7256206903210511</v>
       </c>
       <c r="H14">
-        <v>0.1625071906067177</v>
+        <v>0.1624643513029014</v>
       </c>
       <c r="I14">
-        <v>0.009685173469167196</v>
+        <v>0.00868329671993795</v>
       </c>
       <c r="J14">
-        <v>0.5434753971193231</v>
+        <v>0.3953316150318926</v>
       </c>
       <c r="K14">
-        <v>0.7252767571749175</v>
+        <v>0.5431262475181242</v>
       </c>
       <c r="L14">
-        <v>0.06723358892787701</v>
+        <v>0.2241063644767252</v>
       </c>
       <c r="M14">
-        <v>4.482152789958604</v>
+        <v>0.2002209207437602</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.06512841883862563</v>
       </c>
       <c r="O14">
-        <v>0.6997132529024768</v>
+        <v>4.140788085069914</v>
       </c>
       <c r="P14">
-        <v>0.9249332289472534</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6634404755786463</v>
+      </c>
+      <c r="R14">
+        <v>1.033719378865285</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.06018629815208953</v>
+        <v>0.01876207280518116</v>
       </c>
       <c r="D15">
-        <v>0.03838737763308586</v>
+        <v>0.05063437198487009</v>
       </c>
       <c r="E15">
-        <v>0.03357305251916443</v>
+        <v>0.03258390372637487</v>
       </c>
       <c r="F15">
-        <v>1.00014025439755</v>
+        <v>0.8366970424644364</v>
       </c>
       <c r="G15">
-        <v>0.8037177452156072</v>
+        <v>0.7004027592486608</v>
       </c>
       <c r="H15">
-        <v>0.1749745378354106</v>
+        <v>0.1749535465493182</v>
       </c>
       <c r="I15">
-        <v>0.009328891579766463</v>
+        <v>0.008473833887292948</v>
       </c>
       <c r="J15">
-        <v>0.533291685247363</v>
+        <v>0.3990417859240836</v>
       </c>
       <c r="K15">
-        <v>0.7086301546101197</v>
+        <v>0.5337266020781399</v>
       </c>
       <c r="L15">
-        <v>0.06964319038971212</v>
+        <v>0.2217912446309072</v>
       </c>
       <c r="M15">
-        <v>4.412674412856575</v>
+        <v>0.1951082419084855</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.06767057159898116</v>
       </c>
       <c r="O15">
-        <v>0.6763687128925113</v>
+        <v>4.085141432100954</v>
       </c>
       <c r="P15">
-        <v>0.9351928466591062</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.6419029993566809</v>
+      </c>
+      <c r="R15">
+        <v>1.041383805100295</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.05543587994677068</v>
+        <v>0.0165253808371304</v>
       </c>
       <c r="D16">
-        <v>0.03727805629457492</v>
+        <v>0.04776817853441173</v>
       </c>
       <c r="E16">
-        <v>0.0327962546035887</v>
+        <v>0.03219641960304623</v>
       </c>
       <c r="F16">
-        <v>0.9721783701963886</v>
+        <v>0.8322583005315067</v>
       </c>
       <c r="G16">
-        <v>0.7757826058123385</v>
+        <v>0.6471405022018075</v>
       </c>
       <c r="H16">
-        <v>0.1621060902370886</v>
+        <v>0.1621611514568002</v>
       </c>
       <c r="I16">
-        <v>0.007442745403863249</v>
+        <v>0.007106015698830959</v>
       </c>
       <c r="J16">
-        <v>0.5239081745760359</v>
+        <v>0.4448321798307973</v>
       </c>
       <c r="K16">
-        <v>0.6840586968126061</v>
+        <v>0.5292893530886076</v>
       </c>
       <c r="L16">
-        <v>0.0667927230481169</v>
+        <v>0.2257403866801617</v>
       </c>
       <c r="M16">
-        <v>4.135048630022368</v>
+        <v>0.1860658910261037</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.06534391993713484</v>
       </c>
       <c r="O16">
-        <v>0.637146029156483</v>
+        <v>3.860300746228404</v>
       </c>
       <c r="P16">
-        <v>0.9400522554464814</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.6081495432454673</v>
+      </c>
+      <c r="R16">
+        <v>1.026290801975208</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.05054453766407363</v>
+        <v>0.01375568790761506</v>
       </c>
       <c r="D17">
-        <v>0.04095483521458831</v>
+        <v>0.05173739308053626</v>
       </c>
       <c r="E17">
-        <v>0.03324376164229403</v>
+        <v>0.03345231128162762</v>
       </c>
       <c r="F17">
-        <v>1.000718558492451</v>
+        <v>0.865626565815063</v>
       </c>
       <c r="G17">
-        <v>0.7928806566585962</v>
+        <v>0.6494887773773996</v>
       </c>
       <c r="H17">
-        <v>0.1243082822987844</v>
+        <v>0.1243857341099357</v>
       </c>
       <c r="I17">
-        <v>0.006562283893845944</v>
+        <v>0.006454228644012794</v>
       </c>
       <c r="J17">
-        <v>0.5355398758805734</v>
+        <v>0.4784949064647037</v>
       </c>
       <c r="K17">
-        <v>0.6933026931527593</v>
+        <v>0.5426464407971991</v>
       </c>
       <c r="L17">
-        <v>0.05990778584144962</v>
+        <v>0.2340098166674949</v>
       </c>
       <c r="M17">
-        <v>4.005671624904608</v>
+        <v>0.1869426071962721</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05868898473492123</v>
       </c>
       <c r="O17">
-        <v>0.6480355966032718</v>
+        <v>3.750703361354851</v>
       </c>
       <c r="P17">
-        <v>0.9249748464245187</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.6204206491597688</v>
+      </c>
+      <c r="R17">
+        <v>0.9991324479665167</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.04591424544537404</v>
+        <v>0.01066280141581188</v>
       </c>
       <c r="D18">
-        <v>0.05002288330665294</v>
+        <v>0.06259166715960163</v>
       </c>
       <c r="E18">
-        <v>0.03851145699182457</v>
+        <v>0.03998913382445934</v>
       </c>
       <c r="F18">
-        <v>1.085245748759675</v>
+        <v>0.9422343730585538</v>
       </c>
       <c r="G18">
-        <v>0.8540473626140113</v>
+        <v>0.6947302268326467</v>
       </c>
       <c r="H18">
-        <v>0.07147235754036529</v>
+        <v>0.07154907502116004</v>
       </c>
       <c r="I18">
-        <v>0.00608492209342959</v>
+        <v>0.005990956081625143</v>
       </c>
       <c r="J18">
-        <v>0.568167336940391</v>
+        <v>0.5161247462577734</v>
       </c>
       <c r="K18">
-        <v>0.7356601086605536</v>
+        <v>0.5774822364979642</v>
       </c>
       <c r="L18">
-        <v>0.0564399296089455</v>
+        <v>0.2487744939634098</v>
       </c>
       <c r="M18">
-        <v>3.991863939065865</v>
+        <v>0.1979907853286917</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.05524374904964757</v>
       </c>
       <c r="O18">
-        <v>0.705319437081144</v>
+        <v>3.736758918927706</v>
       </c>
       <c r="P18">
-        <v>0.8934329666911509</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.6763849600451266</v>
+      </c>
+      <c r="R18">
+        <v>0.9582176807934673</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.04044996707995097</v>
+        <v>0.007133844595912819</v>
       </c>
       <c r="D19">
-        <v>0.06472235023758088</v>
+        <v>0.08023337090971694</v>
       </c>
       <c r="E19">
-        <v>0.0528840894854774</v>
+        <v>0.05602148893862058</v>
       </c>
       <c r="F19">
-        <v>1.207781319737364</v>
+        <v>1.048440366930976</v>
       </c>
       <c r="G19">
-        <v>0.9434372578494816</v>
+        <v>0.7659090766102281</v>
       </c>
       <c r="H19">
-        <v>0.02620659637577205</v>
+        <v>0.02625920881779109</v>
       </c>
       <c r="I19">
-        <v>0.006419450914349589</v>
+        <v>0.006298200374343033</v>
       </c>
       <c r="J19">
-        <v>0.6137431140498819</v>
+        <v>0.5568622278444053</v>
       </c>
       <c r="K19">
-        <v>0.7974341230351456</v>
+        <v>0.6243670320047414</v>
       </c>
       <c r="L19">
-        <v>0.06729316201337276</v>
+        <v>0.2666940021214046</v>
       </c>
       <c r="M19">
-        <v>4.062771213661961</v>
+        <v>0.2153328881299146</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.06595109971590496</v>
       </c>
       <c r="O19">
-        <v>0.7979097881934791</v>
+        <v>3.794777210863401</v>
       </c>
       <c r="P19">
-        <v>0.857772180527455</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.7657888878301335</v>
+      </c>
+      <c r="R19">
+        <v>0.9147351628445932</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.03567502154093205</v>
+        <v>0.003702149266105792</v>
       </c>
       <c r="D20">
-        <v>0.09398257843093916</v>
+        <v>0.1158620252709852</v>
       </c>
       <c r="E20">
-        <v>0.09138142698430229</v>
+        <v>0.0974501095632121</v>
       </c>
       <c r="F20">
-        <v>1.442336897590081</v>
+        <v>1.241139659727978</v>
       </c>
       <c r="G20">
-        <v>1.119033845363447</v>
+        <v>0.9164590464176712</v>
       </c>
       <c r="H20">
-        <v>0.0002655765298320567</v>
+        <v>0.0001797892119492772</v>
       </c>
       <c r="I20">
-        <v>0.008324848653431971</v>
+        <v>0.007793428084610809</v>
       </c>
       <c r="J20">
-        <v>0.699061644276</v>
+        <v>0.6069364499209939</v>
       </c>
       <c r="K20">
-        <v>0.9219869599533794</v>
+        <v>0.7113718420334294</v>
       </c>
       <c r="L20">
-        <v>0.1159507877890604</v>
+        <v>0.2947976468649429</v>
       </c>
       <c r="M20">
-        <v>4.386761868695885</v>
+        <v>0.2537732937999237</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1139280274161436</v>
       </c>
       <c r="O20">
-        <v>0.9893259855065537</v>
+        <v>4.06970622873348</v>
       </c>
       <c r="P20">
-        <v>0.8050036570532981</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.948434711075592</v>
+      </c>
+      <c r="R20">
+        <v>0.8561324111270707</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.04071102050439634</v>
+        <v>0.00500086897173091</v>
       </c>
       <c r="D21">
-        <v>0.1061342323581655</v>
+        <v>0.1361017959437874</v>
       </c>
       <c r="E21">
-        <v>0.10381017956243</v>
+        <v>0.1118509209074325</v>
       </c>
       <c r="F21">
-        <v>1.574747385445534</v>
+        <v>1.304683653380138</v>
       </c>
       <c r="G21">
-        <v>1.229358907448812</v>
+        <v>1.085976202421278</v>
       </c>
       <c r="H21">
-        <v>0.001103231245562775</v>
+        <v>0.0006957629423660627</v>
       </c>
       <c r="I21">
-        <v>0.01267867116657673</v>
+        <v>0.01096616893046409</v>
       </c>
       <c r="J21">
-        <v>0.7457045325774629</v>
+        <v>0.5053315671048892</v>
       </c>
       <c r="K21">
-        <v>1.007654189042967</v>
+        <v>0.7418528286572652</v>
       </c>
       <c r="L21">
-        <v>0.1317289086969708</v>
+        <v>0.2930496550811483</v>
       </c>
       <c r="M21">
-        <v>4.957177668939948</v>
+        <v>0.2817404818593019</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1283794080023526</v>
       </c>
       <c r="O21">
-        <v>1.125678936852765</v>
+        <v>4.523402758501561</v>
       </c>
       <c r="P21">
-        <v>0.7703279839288726</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.069340581013279</v>
+      </c>
+      <c r="R21">
+        <v>0.8458652615660185</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.04524874585447236</v>
+        <v>0.006548123310597731</v>
       </c>
       <c r="D22">
-        <v>0.1123541068709955</v>
+        <v>0.1478232570506037</v>
       </c>
       <c r="E22">
-        <v>0.1096972818050723</v>
+        <v>0.1190233747117446</v>
       </c>
       <c r="F22">
-        <v>1.656251230362059</v>
+        <v>1.338787766552045</v>
       </c>
       <c r="G22">
-        <v>1.29927194791037</v>
+        <v>1.205320208063029</v>
       </c>
       <c r="H22">
-        <v>0.002125394786278045</v>
+        <v>0.001415702884484782</v>
       </c>
       <c r="I22">
-        <v>0.01575091993890609</v>
+        <v>0.01301055346004709</v>
       </c>
       <c r="J22">
-        <v>0.7751468788408431</v>
+        <v>0.4392753783663466</v>
       </c>
       <c r="K22">
-        <v>1.063306339665502</v>
+        <v>0.7597251530209235</v>
       </c>
       <c r="L22">
-        <v>0.1390452383688086</v>
+        <v>0.2911539922019841</v>
       </c>
       <c r="M22">
-        <v>5.328989636352617</v>
+        <v>0.2997025695892717</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1348163860789171</v>
       </c>
       <c r="O22">
-        <v>1.20798766774665</v>
+        <v>4.813710853978193</v>
       </c>
       <c r="P22">
-        <v>0.749416371679871</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.140967638647538</v>
+      </c>
+      <c r="R22">
+        <v>0.8429631227142522</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.04370767232429529</v>
+        <v>0.005876047717503496</v>
       </c>
       <c r="D23">
-        <v>0.1086739018091123</v>
+        <v>0.1405824992741174</v>
       </c>
       <c r="E23">
-        <v>0.1064524963810101</v>
+        <v>0.1149230959500294</v>
       </c>
       <c r="F23">
-        <v>1.61628698967553</v>
+        <v>1.328038806083825</v>
       </c>
       <c r="G23">
-        <v>1.265680690041108</v>
+        <v>1.134051978239043</v>
       </c>
       <c r="H23">
-        <v>0.001547255958805671</v>
+        <v>0.001010996192861269</v>
       </c>
       <c r="I23">
-        <v>0.01383520429458684</v>
+        <v>0.01160856559718759</v>
       </c>
       <c r="J23">
-        <v>0.7612873666325584</v>
+        <v>0.4881520159941886</v>
       </c>
       <c r="K23">
-        <v>1.037481731474855</v>
+        <v>0.7561293198675401</v>
       </c>
       <c r="L23">
-        <v>0.1351803172221153</v>
+        <v>0.294227129107874</v>
       </c>
       <c r="M23">
-        <v>5.136163712987013</v>
+        <v>0.2925007056382185</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.131452288709113</v>
       </c>
       <c r="O23">
-        <v>1.164767579382186</v>
+        <v>4.671157504439634</v>
       </c>
       <c r="P23">
-        <v>0.7597485074425236</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.104357742218887</v>
+      </c>
+      <c r="R23">
+        <v>0.8416920628856701</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.03649260265101617</v>
+        <v>0.003880917424435637</v>
       </c>
       <c r="D24">
-        <v>0.09542913378950146</v>
+        <v>0.1175720325224745</v>
       </c>
       <c r="E24">
-        <v>0.09441548499773589</v>
+        <v>0.1006722976979439</v>
       </c>
       <c r="F24">
-        <v>1.461559986621339</v>
+        <v>1.258132616462021</v>
       </c>
       <c r="G24">
-        <v>1.134622310425996</v>
+        <v>0.9288029183033046</v>
       </c>
       <c r="H24">
-        <v>0.0001711930106589321</v>
+        <v>7.681831729478006E-05</v>
       </c>
       <c r="I24">
-        <v>0.00793929616865352</v>
+        <v>0.007295828503609769</v>
       </c>
       <c r="J24">
-        <v>0.7069793238184445</v>
+        <v>0.6147210952428992</v>
       </c>
       <c r="K24">
-        <v>0.9345677980687839</v>
+        <v>0.7214718796942776</v>
       </c>
       <c r="L24">
-        <v>0.1205647417758939</v>
+        <v>0.2986757543922351</v>
       </c>
       <c r="M24">
-        <v>4.398256091897792</v>
+        <v>0.2574919768248876</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1185168661549767</v>
       </c>
       <c r="O24">
-        <v>1.000364091202172</v>
+        <v>4.079808577373853</v>
       </c>
       <c r="P24">
-        <v>0.8017441000786931</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.9591076512903385</v>
+      </c>
+      <c r="R24">
+        <v>0.8511838830596758</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02885662082179152</v>
+        <v>0.003472789849881863</v>
       </c>
       <c r="D25">
-        <v>0.08133561251342769</v>
+        <v>0.09914016851676877</v>
       </c>
       <c r="E25">
-        <v>0.08157226218095204</v>
+        <v>0.08712615503704413</v>
       </c>
       <c r="F25">
-        <v>1.299567905257689</v>
+        <v>1.137447161438928</v>
       </c>
       <c r="G25">
-        <v>0.997811200645188</v>
+        <v>0.8229414797169738</v>
       </c>
       <c r="H25">
-        <v>0.0002663934752495933</v>
+        <v>0.0003272380851628842</v>
       </c>
       <c r="I25">
-        <v>0.003511093903157736</v>
+        <v>0.003740605041279821</v>
       </c>
       <c r="J25">
-        <v>0.650910465744218</v>
+        <v>0.5871370485943572</v>
       </c>
       <c r="K25">
-        <v>0.8260789381556108</v>
+        <v>0.6538005783055709</v>
       </c>
       <c r="L25">
-        <v>0.1049300210342388</v>
+        <v>0.29197290239577</v>
       </c>
       <c r="M25">
-        <v>3.604942317767495</v>
+        <v>0.2103978232803598</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1041601225956725</v>
       </c>
       <c r="O25">
-        <v>0.8238026769386124</v>
+        <v>3.362649572714247</v>
       </c>
       <c r="P25">
-        <v>0.8501891860475475</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.7923834543877391</v>
+      </c>
+      <c r="R25">
+        <v>0.8812401976060258</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
